--- a/FINREP Solver.xlsx
+++ b/FINREP Solver.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="117" documentId="8_{A2D2504D-96DB-4FA9-9006-A80B30F5C4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA6193F7-6BC8-4045-A935-7C739A877C5A}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="5415" windowHeight="5430" activeTab="7" xr2:uid="{91612E34-D7FE-4A93-ABEC-7ACBA05504AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{91612E34-D7FE-4A93-ABEC-7ACBA05504AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="32" r:id="rId1"/>
@@ -9952,20 +9952,11 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9973,8 +9964,17 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -10060,6 +10060,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -10104,42 +10140,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -11990,7 +11990,7 @@
   <dimension ref="B2:M34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12305,7 +12305,7 @@
       <c r="B6" s="227" t="s">
         <v>654</v>
       </c>
-      <c r="C6" s="799" t="s">
+      <c r="C6" s="800" t="s">
         <v>655</v>
       </c>
       <c r="D6" s="228"/>
@@ -12344,12 +12344,12 @@
       <c r="B7" s="230" t="s">
         <v>656</v>
       </c>
-      <c r="C7" s="800"/>
+      <c r="C7" s="805"/>
       <c r="D7" s="228"/>
       <c r="E7" s="797">
         <v>1</v>
       </c>
-      <c r="F7" s="802"/>
+      <c r="F7" s="803"/>
       <c r="G7" s="797">
         <v>2</v>
       </c>
@@ -12357,12 +12357,12 @@
       <c r="I7" s="797">
         <v>3</v>
       </c>
-      <c r="J7" s="802"/>
+      <c r="J7" s="803"/>
       <c r="K7" s="797">
         <v>4</v>
       </c>
       <c r="L7" s="798"/>
-      <c r="M7" s="802">
+      <c r="M7" s="803">
         <v>5</v>
       </c>
       <c r="N7" s="798"/>
@@ -12403,7 +12403,7 @@
       <c r="B8" s="231" t="s">
         <v>870</v>
       </c>
-      <c r="C8" s="801"/>
+      <c r="C8" s="806"/>
       <c r="D8" s="232" t="s">
         <v>883</v>
       </c>
@@ -14840,7 +14840,7 @@
       <c r="B63" s="227" t="s">
         <v>654</v>
       </c>
-      <c r="C63" s="799" t="s">
+      <c r="C63" s="800" t="s">
         <v>655</v>
       </c>
       <c r="D63" s="232"/>
@@ -14872,12 +14872,12 @@
       <c r="B64" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="804"/>
+      <c r="C64" s="801"/>
       <c r="D64" s="228"/>
       <c r="E64" s="797">
         <v>1</v>
       </c>
-      <c r="F64" s="802"/>
+      <c r="F64" s="803"/>
       <c r="G64" s="797">
         <v>2</v>
       </c>
@@ -14885,12 +14885,12 @@
       <c r="I64" s="797">
         <v>3</v>
       </c>
-      <c r="J64" s="802"/>
+      <c r="J64" s="803"/>
       <c r="K64" s="797">
         <v>4</v>
       </c>
       <c r="L64" s="798"/>
-      <c r="M64" s="802">
+      <c r="M64" s="803">
         <v>5</v>
       </c>
       <c r="N64" s="798"/>
@@ -14910,7 +14910,7 @@
         <v>9</v>
       </c>
       <c r="V64" s="808"/>
-      <c r="W64" s="802">
+      <c r="W64" s="803">
         <v>10</v>
       </c>
       <c r="X64" s="798"/>
@@ -14924,7 +14924,7 @@
       <c r="B65" s="231" t="s">
         <v>717</v>
       </c>
-      <c r="C65" s="805"/>
+      <c r="C65" s="802"/>
       <c r="D65" s="232" t="s">
         <v>657</v>
       </c>
@@ -17018,6 +17018,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
     <mergeCell ref="S64:T64"/>
     <mergeCell ref="U64:V64"/>
     <mergeCell ref="W64:X64"/>
@@ -17026,22 +17042,6 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="W7:X7"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19626,10 +19626,10 @@
       <c r="C2" s="228"/>
       <c r="D2" s="228"/>
       <c r="E2" s="580"/>
-      <c r="F2" s="802">
+      <c r="F2" s="803">
         <v>1</v>
       </c>
-      <c r="G2" s="802"/>
+      <c r="G2" s="803"/>
     </row>
     <row r="3" spans="1:15" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="581" t="s">
@@ -23992,115 +23992,115 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="853" t="s">
+      <c r="B3" s="835" t="s">
         <v>605</v>
       </c>
-      <c r="C3" s="854"/>
-      <c r="D3" s="854"/>
-      <c r="E3" s="855"/>
+      <c r="C3" s="836"/>
+      <c r="D3" s="836"/>
+      <c r="E3" s="837"/>
       <c r="I3" s="422" t="s">
         <v>1911</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="856" t="s">
+      <c r="B4" s="838" t="s">
         <v>1921</v>
       </c>
-      <c r="C4" s="857"/>
-      <c r="D4" s="857"/>
-      <c r="E4" s="858"/>
+      <c r="C4" s="839"/>
+      <c r="D4" s="839"/>
+      <c r="E4" s="840"/>
       <c r="I4" s="499" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="859" t="s">
+      <c r="B5" s="841" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="860"/>
-      <c r="D5" s="860"/>
-      <c r="E5" s="861"/>
+      <c r="C5" s="842"/>
+      <c r="D5" s="842"/>
+      <c r="E5" s="843"/>
       <c r="I5" s="422" t="s">
         <v>1913</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="856" t="s">
+      <c r="B6" s="838" t="s">
         <v>1919</v>
       </c>
-      <c r="C6" s="857"/>
-      <c r="D6" s="857"/>
-      <c r="E6" s="858"/>
+      <c r="C6" s="839"/>
+      <c r="D6" s="839"/>
+      <c r="E6" s="840"/>
       <c r="I6" s="422" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="838" t="s">
+      <c r="B7" s="850" t="s">
         <v>402</v>
       </c>
-      <c r="C7" s="839"/>
-      <c r="D7" s="839"/>
-      <c r="E7" s="840"/>
+      <c r="C7" s="851"/>
+      <c r="D7" s="851"/>
+      <c r="E7" s="852"/>
       <c r="I7" s="422" t="s">
         <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="850" t="s">
+      <c r="B8" s="844" t="s">
         <v>1920</v>
       </c>
-      <c r="C8" s="851"/>
-      <c r="D8" s="851"/>
-      <c r="E8" s="852"/>
+      <c r="C8" s="845"/>
+      <c r="D8" s="845"/>
+      <c r="E8" s="846"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="838" t="s">
+      <c r="B9" s="850" t="s">
         <v>403</v>
       </c>
-      <c r="C9" s="839"/>
-      <c r="D9" s="839"/>
-      <c r="E9" s="840"/>
-      <c r="F9" s="835" t="s">
+      <c r="C9" s="851"/>
+      <c r="D9" s="851"/>
+      <c r="E9" s="852"/>
+      <c r="F9" s="847" t="s">
         <v>1908</v>
       </c>
       <c r="G9" s="824"/>
       <c r="H9" s="824"/>
     </row>
     <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="850" t="s">
+      <c r="B10" s="844" t="s">
         <v>1917</v>
       </c>
-      <c r="C10" s="851"/>
-      <c r="D10" s="851"/>
-      <c r="E10" s="852"/>
-      <c r="F10" s="835"/>
+      <c r="C10" s="845"/>
+      <c r="D10" s="845"/>
+      <c r="E10" s="846"/>
+      <c r="F10" s="847"/>
       <c r="G10" s="824"/>
       <c r="H10" s="824"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="838" t="s">
+      <c r="B11" s="850" t="s">
         <v>404</v>
       </c>
-      <c r="C11" s="839"/>
-      <c r="D11" s="839"/>
-      <c r="E11" s="840"/>
-      <c r="F11" s="836" t="s">
+      <c r="C11" s="851"/>
+      <c r="D11" s="851"/>
+      <c r="E11" s="852"/>
+      <c r="F11" s="848" t="s">
         <v>1909</v>
       </c>
-      <c r="G11" s="837"/>
-      <c r="H11" s="837"/>
+      <c r="G11" s="849"/>
+      <c r="H11" s="849"/>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="847" t="s">
+      <c r="B12" s="859" t="s">
         <v>1918</v>
       </c>
-      <c r="C12" s="848"/>
-      <c r="D12" s="848"/>
-      <c r="E12" s="849"/>
-      <c r="F12" s="836"/>
-      <c r="G12" s="837"/>
-      <c r="H12" s="837"/>
+      <c r="C12" s="860"/>
+      <c r="D12" s="860"/>
+      <c r="E12" s="861"/>
+      <c r="F12" s="848"/>
+      <c r="G12" s="849"/>
+      <c r="H12" s="849"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="768" t="s">
@@ -24126,18 +24126,18 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="841" t="s">
+      <c r="B16" s="853" t="s">
         <v>1783</v>
       </c>
-      <c r="C16" s="842"/>
-      <c r="D16" s="842"/>
-      <c r="E16" s="843"/>
+      <c r="C16" s="854"/>
+      <c r="D16" s="854"/>
+      <c r="E16" s="855"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="844"/>
-      <c r="C17" s="845"/>
-      <c r="D17" s="845"/>
-      <c r="E17" s="846"/>
+      <c r="B17" s="856"/>
+      <c r="C17" s="857"/>
+      <c r="D17" s="857"/>
+      <c r="E17" s="858"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="422" t="s">
@@ -25441,11 +25441,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F9:H10"/>
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="B7:E7"/>
@@ -25454,6 +25449,11 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30429,7 +30429,7 @@
       <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="835" t="s">
+      <c r="A9" s="847" t="s">
         <v>964</v>
       </c>
       <c r="B9" s="868"/>
@@ -30441,7 +30441,7 @@
       <c r="H9" s="869"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="835"/>
+      <c r="A10" s="847"/>
       <c r="B10" s="868"/>
       <c r="C10" s="868"/>
       <c r="D10" s="868"/>
@@ -30578,7 +30578,7 @@
       <c r="H22" s="68"/>
     </row>
     <row r="23" spans="1:8" s="422" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="835" t="s">
+      <c r="A23" s="847" t="s">
         <v>970</v>
       </c>
       <c r="B23" s="868"/>
@@ -37772,7 +37772,7 @@
       <c r="B2" s="227" t="s">
         <v>654</v>
       </c>
-      <c r="C2" s="799" t="s">
+      <c r="C2" s="800" t="s">
         <v>655</v>
       </c>
       <c r="D2" s="228"/>
@@ -37819,23 +37819,23 @@
       <c r="B3" s="230" t="s">
         <v>656</v>
       </c>
-      <c r="C3" s="800"/>
+      <c r="C3" s="805"/>
       <c r="D3" s="228"/>
       <c r="E3" s="228"/>
       <c r="F3" s="283"/>
       <c r="G3" s="797">
         <v>1</v>
       </c>
-      <c r="H3" s="802"/>
+      <c r="H3" s="803"/>
       <c r="I3" s="797">
         <v>2</v>
       </c>
-      <c r="J3" s="802"/>
+      <c r="J3" s="803"/>
       <c r="K3" s="797">
         <v>3</v>
       </c>
       <c r="L3" s="798"/>
-      <c r="M3" s="802">
+      <c r="M3" s="803">
         <v>4</v>
       </c>
       <c r="N3" s="798"/>
@@ -37869,7 +37869,7 @@
       <c r="B4" s="231" t="s">
         <v>870</v>
       </c>
-      <c r="C4" s="801"/>
+      <c r="C4" s="806"/>
       <c r="D4" s="232" t="s">
         <v>657</v>
       </c>
@@ -38412,25 +38412,25 @@
         <v>1000</v>
       </c>
       <c r="AV12" s="11"/>
-      <c r="BD12" s="806"/>
-      <c r="BE12" s="806"/>
-      <c r="BF12" s="806"/>
-      <c r="BG12" s="806"/>
-      <c r="BH12" s="806"/>
-      <c r="BI12" s="806"/>
-      <c r="BJ12" s="806"/>
-      <c r="BK12" s="806"/>
-      <c r="BL12" s="803" t="s">
+      <c r="BD12" s="804"/>
+      <c r="BE12" s="804"/>
+      <c r="BF12" s="804"/>
+      <c r="BG12" s="804"/>
+      <c r="BH12" s="804"/>
+      <c r="BI12" s="804"/>
+      <c r="BJ12" s="804"/>
+      <c r="BK12" s="804"/>
+      <c r="BL12" s="799" t="s">
         <v>760</v>
       </c>
-      <c r="BM12" s="803"/>
-      <c r="BN12" s="803"/>
-      <c r="BO12" s="803"/>
-      <c r="BP12" s="803"/>
-      <c r="BQ12" s="803"/>
-      <c r="BR12" s="803"/>
-      <c r="BS12" s="803"/>
-      <c r="BT12" s="803"/>
+      <c r="BM12" s="799"/>
+      <c r="BN12" s="799"/>
+      <c r="BO12" s="799"/>
+      <c r="BP12" s="799"/>
+      <c r="BQ12" s="799"/>
+      <c r="BR12" s="799"/>
+      <c r="BS12" s="799"/>
+      <c r="BT12" s="799"/>
     </row>
     <row r="13" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="233" t="s">
@@ -38487,23 +38487,23 @@
       <c r="AU13" s="14">
         <v>200</v>
       </c>
-      <c r="BD13" s="806"/>
-      <c r="BE13" s="806"/>
-      <c r="BF13" s="806"/>
-      <c r="BG13" s="806"/>
-      <c r="BH13" s="806"/>
-      <c r="BI13" s="806"/>
-      <c r="BJ13" s="806"/>
-      <c r="BK13" s="806"/>
-      <c r="BL13" s="803"/>
-      <c r="BM13" s="803"/>
-      <c r="BN13" s="803"/>
-      <c r="BO13" s="803"/>
-      <c r="BP13" s="803"/>
-      <c r="BQ13" s="803"/>
-      <c r="BR13" s="803"/>
-      <c r="BS13" s="803"/>
-      <c r="BT13" s="803"/>
+      <c r="BD13" s="804"/>
+      <c r="BE13" s="804"/>
+      <c r="BF13" s="804"/>
+      <c r="BG13" s="804"/>
+      <c r="BH13" s="804"/>
+      <c r="BI13" s="804"/>
+      <c r="BJ13" s="804"/>
+      <c r="BK13" s="804"/>
+      <c r="BL13" s="799"/>
+      <c r="BM13" s="799"/>
+      <c r="BN13" s="799"/>
+      <c r="BO13" s="799"/>
+      <c r="BP13" s="799"/>
+      <c r="BQ13" s="799"/>
+      <c r="BR13" s="799"/>
+      <c r="BS13" s="799"/>
+      <c r="BT13" s="799"/>
     </row>
     <row r="14" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="233" t="s">
@@ -38550,23 +38550,23 @@
         <v>3260</v>
       </c>
       <c r="AV14" s="276"/>
-      <c r="BD14" s="806"/>
-      <c r="BE14" s="806"/>
-      <c r="BF14" s="806"/>
-      <c r="BG14" s="806"/>
-      <c r="BH14" s="806"/>
-      <c r="BI14" s="806"/>
-      <c r="BJ14" s="806"/>
-      <c r="BK14" s="806"/>
-      <c r="BL14" s="803"/>
-      <c r="BM14" s="803"/>
-      <c r="BN14" s="803"/>
-      <c r="BO14" s="803"/>
-      <c r="BP14" s="803"/>
-      <c r="BQ14" s="803"/>
-      <c r="BR14" s="803"/>
-      <c r="BS14" s="803"/>
-      <c r="BT14" s="803"/>
+      <c r="BD14" s="804"/>
+      <c r="BE14" s="804"/>
+      <c r="BF14" s="804"/>
+      <c r="BG14" s="804"/>
+      <c r="BH14" s="804"/>
+      <c r="BI14" s="804"/>
+      <c r="BJ14" s="804"/>
+      <c r="BK14" s="804"/>
+      <c r="BL14" s="799"/>
+      <c r="BM14" s="799"/>
+      <c r="BN14" s="799"/>
+      <c r="BO14" s="799"/>
+      <c r="BP14" s="799"/>
+      <c r="BQ14" s="799"/>
+      <c r="BR14" s="799"/>
+      <c r="BS14" s="799"/>
+      <c r="BT14" s="799"/>
     </row>
     <row r="15" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="233" t="s">
@@ -38613,23 +38613,23 @@
         <f>SUM(AU12:AU15)</f>
         <v>4460</v>
       </c>
-      <c r="BD15" s="806"/>
-      <c r="BE15" s="806"/>
-      <c r="BF15" s="806"/>
-      <c r="BG15" s="806"/>
-      <c r="BH15" s="806"/>
-      <c r="BI15" s="806"/>
-      <c r="BJ15" s="806"/>
-      <c r="BK15" s="806"/>
-      <c r="BL15" s="803"/>
-      <c r="BM15" s="803"/>
-      <c r="BN15" s="803"/>
-      <c r="BO15" s="803"/>
-      <c r="BP15" s="803"/>
-      <c r="BQ15" s="803"/>
-      <c r="BR15" s="803"/>
-      <c r="BS15" s="803"/>
-      <c r="BT15" s="803"/>
+      <c r="BD15" s="804"/>
+      <c r="BE15" s="804"/>
+      <c r="BF15" s="804"/>
+      <c r="BG15" s="804"/>
+      <c r="BH15" s="804"/>
+      <c r="BI15" s="804"/>
+      <c r="BJ15" s="804"/>
+      <c r="BK15" s="804"/>
+      <c r="BL15" s="799"/>
+      <c r="BM15" s="799"/>
+      <c r="BN15" s="799"/>
+      <c r="BO15" s="799"/>
+      <c r="BP15" s="799"/>
+      <c r="BQ15" s="799"/>
+      <c r="BR15" s="799"/>
+      <c r="BS15" s="799"/>
+      <c r="BT15" s="799"/>
     </row>
     <row r="16" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="233"/>
@@ -40610,7 +40610,7 @@
       <c r="B59" s="227" t="s">
         <v>654</v>
       </c>
-      <c r="C59" s="799" t="s">
+      <c r="C59" s="800" t="s">
         <v>655</v>
       </c>
       <c r="D59" s="232" t="s">
@@ -40655,23 +40655,23 @@
       <c r="B60" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="804"/>
+      <c r="C60" s="801"/>
       <c r="D60" s="228"/>
       <c r="E60" s="228"/>
       <c r="F60" s="283"/>
       <c r="G60" s="797">
         <v>1</v>
       </c>
-      <c r="H60" s="802"/>
+      <c r="H60" s="803"/>
       <c r="I60" s="797">
         <v>2</v>
       </c>
-      <c r="J60" s="802"/>
+      <c r="J60" s="803"/>
       <c r="K60" s="797">
         <v>3</v>
       </c>
       <c r="L60" s="798"/>
-      <c r="M60" s="802">
+      <c r="M60" s="803">
         <v>4</v>
       </c>
       <c r="N60" s="798"/>
@@ -40687,11 +40687,11 @@
         <v>7</v>
       </c>
       <c r="T60" s="798"/>
-      <c r="U60" s="802">
+      <c r="U60" s="803">
         <v>8</v>
       </c>
-      <c r="V60" s="802"/>
-      <c r="W60" s="802">
+      <c r="V60" s="803"/>
+      <c r="W60" s="803">
         <v>9</v>
       </c>
       <c r="X60" s="798"/>
@@ -40721,7 +40721,7 @@
       <c r="B61" s="231" t="s">
         <v>717</v>
       </c>
-      <c r="C61" s="805"/>
+      <c r="C61" s="802"/>
       <c r="D61" s="232" t="s">
         <v>657</v>
       </c>
@@ -43333,6 +43333,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
@@ -43349,14 +43357,6 @@
     <mergeCell ref="BD12:BK15"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48420,8 +48420,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="B2:CA139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BC71" sqref="BC71:BC72"/>
+    <sheetView topLeftCell="AX1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="BO7" sqref="BO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48558,7 +48558,7 @@
       <c r="B6" s="227" t="s">
         <v>1750</v>
       </c>
-      <c r="C6" s="799" t="s">
+      <c r="C6" s="800" t="s">
         <v>655</v>
       </c>
       <c r="D6" s="228"/>
@@ -48632,7 +48632,7 @@
       <c r="B7" s="230" t="s">
         <v>656</v>
       </c>
-      <c r="C7" s="800"/>
+      <c r="C7" s="805"/>
       <c r="D7" s="228"/>
       <c r="E7" s="228"/>
       <c r="F7" s="228"/>
@@ -48640,20 +48640,20 @@
       <c r="H7" s="797">
         <v>1</v>
       </c>
-      <c r="I7" s="802"/>
+      <c r="I7" s="803"/>
       <c r="J7" s="797">
         <v>2</v>
       </c>
       <c r="K7" s="798"/>
-      <c r="L7" s="802">
+      <c r="L7" s="803">
         <v>3</v>
       </c>
-      <c r="M7" s="802"/>
+      <c r="M7" s="803"/>
       <c r="N7" s="797">
         <v>4</v>
       </c>
       <c r="O7" s="798"/>
-      <c r="P7" s="802">
+      <c r="P7" s="803">
         <v>5</v>
       </c>
       <c r="Q7" s="798"/>
@@ -48676,12 +48676,12 @@
       <c r="Z7" s="797">
         <v>10</v>
       </c>
-      <c r="AA7" s="802"/>
+      <c r="AA7" s="803"/>
       <c r="AB7" s="797">
         <v>11</v>
       </c>
       <c r="AC7" s="798"/>
-      <c r="AD7" s="802">
+      <c r="AD7" s="803">
         <v>12</v>
       </c>
       <c r="AE7" s="798"/>
@@ -48713,7 +48713,7 @@
       <c r="B8" s="231" t="s">
         <v>1751</v>
       </c>
-      <c r="C8" s="801"/>
+      <c r="C8" s="806"/>
       <c r="D8" s="232" t="s">
         <v>657</v>
       </c>
@@ -49415,17 +49415,17 @@
         <f>BO13-BO15</f>
         <v>0</v>
       </c>
-      <c r="BS16" s="803" t="s">
+      <c r="BS16" s="799" t="s">
         <v>760</v>
       </c>
-      <c r="BT16" s="803"/>
-      <c r="BU16" s="803"/>
-      <c r="BV16" s="803"/>
-      <c r="BW16" s="803"/>
-      <c r="BX16" s="803"/>
-      <c r="BY16" s="803"/>
-      <c r="BZ16" s="803"/>
-      <c r="CA16" s="803"/>
+      <c r="BT16" s="799"/>
+      <c r="BU16" s="799"/>
+      <c r="BV16" s="799"/>
+      <c r="BW16" s="799"/>
+      <c r="BX16" s="799"/>
+      <c r="BY16" s="799"/>
+      <c r="BZ16" s="799"/>
+      <c r="CA16" s="799"/>
     </row>
     <row r="17" spans="2:79" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="233" t="s">
@@ -49509,15 +49509,15 @@
       <c r="BM17" s="458"/>
       <c r="BN17" s="458"/>
       <c r="BO17" s="450"/>
-      <c r="BS17" s="803"/>
-      <c r="BT17" s="803"/>
-      <c r="BU17" s="803"/>
-      <c r="BV17" s="803"/>
-      <c r="BW17" s="803"/>
-      <c r="BX17" s="803"/>
-      <c r="BY17" s="803"/>
-      <c r="BZ17" s="803"/>
-      <c r="CA17" s="803"/>
+      <c r="BS17" s="799"/>
+      <c r="BT17" s="799"/>
+      <c r="BU17" s="799"/>
+      <c r="BV17" s="799"/>
+      <c r="BW17" s="799"/>
+      <c r="BX17" s="799"/>
+      <c r="BY17" s="799"/>
+      <c r="BZ17" s="799"/>
+      <c r="CA17" s="799"/>
     </row>
     <row r="18" spans="2:79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="233" t="s">
@@ -49570,15 +49570,15 @@
       <c r="BB18" s="70"/>
       <c r="BC18" s="444"/>
       <c r="BD18" s="441"/>
-      <c r="BS18" s="803"/>
-      <c r="BT18" s="803"/>
-      <c r="BU18" s="803"/>
-      <c r="BV18" s="803"/>
-      <c r="BW18" s="803"/>
-      <c r="BX18" s="803"/>
-      <c r="BY18" s="803"/>
-      <c r="BZ18" s="803"/>
-      <c r="CA18" s="803"/>
+      <c r="BS18" s="799"/>
+      <c r="BT18" s="799"/>
+      <c r="BU18" s="799"/>
+      <c r="BV18" s="799"/>
+      <c r="BW18" s="799"/>
+      <c r="BX18" s="799"/>
+      <c r="BY18" s="799"/>
+      <c r="BZ18" s="799"/>
+      <c r="CA18" s="799"/>
     </row>
     <row r="19" spans="2:79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="233" t="s">
@@ -49631,15 +49631,15 @@
       <c r="BB19" s="70"/>
       <c r="BC19" s="445"/>
       <c r="BD19" s="441"/>
-      <c r="BS19" s="803"/>
-      <c r="BT19" s="803"/>
-      <c r="BU19" s="803"/>
-      <c r="BV19" s="803"/>
-      <c r="BW19" s="803"/>
-      <c r="BX19" s="803"/>
-      <c r="BY19" s="803"/>
-      <c r="BZ19" s="803"/>
-      <c r="CA19" s="803"/>
+      <c r="BS19" s="799"/>
+      <c r="BT19" s="799"/>
+      <c r="BU19" s="799"/>
+      <c r="BV19" s="799"/>
+      <c r="BW19" s="799"/>
+      <c r="BX19" s="799"/>
+      <c r="BY19" s="799"/>
+      <c r="BZ19" s="799"/>
+      <c r="CA19" s="799"/>
     </row>
     <row r="20" spans="2:79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="233"/>
@@ -52090,7 +52090,7 @@
         <f>B6</f>
         <v>Hawkins plc</v>
       </c>
-      <c r="C63" s="799" t="s">
+      <c r="C63" s="800" t="s">
         <v>655</v>
       </c>
       <c r="D63" s="232" t="s">
@@ -52144,7 +52144,7 @@
       <c r="B64" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="804"/>
+      <c r="C64" s="801"/>
       <c r="D64" s="228"/>
       <c r="E64" s="228"/>
       <c r="F64" s="228"/>
@@ -52152,20 +52152,20 @@
       <c r="H64" s="797">
         <v>1</v>
       </c>
-      <c r="I64" s="802"/>
+      <c r="I64" s="803"/>
       <c r="J64" s="797">
         <v>2</v>
       </c>
       <c r="K64" s="798"/>
-      <c r="L64" s="802">
+      <c r="L64" s="803">
         <v>3</v>
       </c>
-      <c r="M64" s="802"/>
+      <c r="M64" s="803"/>
       <c r="N64" s="797">
         <v>4</v>
       </c>
       <c r="O64" s="798"/>
-      <c r="P64" s="802">
+      <c r="P64" s="803">
         <v>5</v>
       </c>
       <c r="Q64" s="798"/>
@@ -52185,15 +52185,15 @@
         <v>9</v>
       </c>
       <c r="Y64" s="808"/>
-      <c r="Z64" s="802">
+      <c r="Z64" s="803">
         <v>10</v>
       </c>
-      <c r="AA64" s="802"/>
+      <c r="AA64" s="803"/>
       <c r="AB64" s="797">
         <v>11</v>
       </c>
       <c r="AC64" s="798"/>
-      <c r="AD64" s="802">
+      <c r="AD64" s="803">
         <v>12</v>
       </c>
       <c r="AE64" s="798"/>
@@ -52220,7 +52220,7 @@
       <c r="B65" s="231" t="s">
         <v>717</v>
       </c>
-      <c r="C65" s="805"/>
+      <c r="C65" s="802"/>
       <c r="D65" s="232" t="s">
         <v>657</v>
       </c>
@@ -56062,7 +56062,7 @@
       </c>
       <c r="BD136" s="441"/>
     </row>
-    <row r="137" spans="9:56" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:56" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AE137" s="544" t="s">
         <v>89</v>
       </c>
@@ -56109,6 +56109,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="BS16:CA19"/>
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="H64:I64"/>
@@ -56124,20 +56138,6 @@
     <mergeCell ref="J64:K64"/>
     <mergeCell ref="Z64:AA64"/>
     <mergeCell ref="AF64:AG64"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -56161,7 +56161,9 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/FINREP Solver.xlsx
+++ b/FINREP Solver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="824" documentId="8_{A2D2504D-96DB-4FA9-9006-A80B30F5C4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EBFC4EE-0590-4CD6-AD29-02490F53E026}"/>
+  <xr:revisionPtr revIDLastSave="858" documentId="8_{A2D2504D-96DB-4FA9-9006-A80B30F5C4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A15B9CD-E0C4-4629-9EDB-4A2113DF5A12}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="15360" windowHeight="10530" activeTab="7" xr2:uid="{91612E34-D7FE-4A93-ABEC-7ACBA05504AC}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="15360" windowHeight="10530" firstSheet="7" activeTab="7" xr2:uid="{91612E34-D7FE-4A93-ABEC-7ACBA05504AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="32" r:id="rId1"/>
@@ -10003,6 +10003,39 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10012,20 +10045,11 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10033,8 +10057,17 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -10120,6 +10153,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -10164,42 +10233,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -10257,39 +10290,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12083,7 +12083,7 @@
   <dimension ref="B2:M34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12404,7 +12404,7 @@
       <c r="B6" s="226" t="s">
         <v>654</v>
       </c>
-      <c r="C6" s="808" t="s">
+      <c r="C6" s="822" t="s">
         <v>655</v>
       </c>
       <c r="D6" s="227"/>
@@ -12445,52 +12445,52 @@
       <c r="B7" s="229" t="s">
         <v>656</v>
       </c>
-      <c r="C7" s="809"/>
+      <c r="C7" s="827"/>
       <c r="D7" s="227"/>
-      <c r="E7" s="806">
+      <c r="E7" s="819">
         <v>1</v>
       </c>
-      <c r="F7" s="811"/>
-      <c r="G7" s="806">
+      <c r="F7" s="825"/>
+      <c r="G7" s="819">
         <v>2</v>
       </c>
-      <c r="H7" s="807"/>
-      <c r="I7" s="806">
+      <c r="H7" s="820"/>
+      <c r="I7" s="819">
         <v>3</v>
       </c>
-      <c r="J7" s="811"/>
-      <c r="K7" s="806">
+      <c r="J7" s="825"/>
+      <c r="K7" s="819">
         <v>4</v>
       </c>
-      <c r="L7" s="807"/>
-      <c r="M7" s="811">
+      <c r="L7" s="820"/>
+      <c r="M7" s="825">
         <v>5</v>
       </c>
-      <c r="N7" s="807"/>
-      <c r="O7" s="806">
+      <c r="N7" s="820"/>
+      <c r="O7" s="819">
         <v>6</v>
       </c>
-      <c r="P7" s="807"/>
-      <c r="Q7" s="806">
+      <c r="P7" s="820"/>
+      <c r="Q7" s="819">
         <v>6</v>
       </c>
-      <c r="R7" s="807"/>
-      <c r="S7" s="806">
+      <c r="R7" s="820"/>
+      <c r="S7" s="819">
         <v>7</v>
       </c>
-      <c r="T7" s="807"/>
-      <c r="U7" s="806">
+      <c r="T7" s="820"/>
+      <c r="U7" s="819">
         <v>8</v>
       </c>
-      <c r="V7" s="807"/>
-      <c r="W7" s="806">
+      <c r="V7" s="820"/>
+      <c r="W7" s="819">
         <v>9</v>
       </c>
-      <c r="X7" s="807"/>
-      <c r="Y7" s="806">
+      <c r="X7" s="820"/>
+      <c r="Y7" s="819">
         <v>10</v>
       </c>
-      <c r="Z7" s="807"/>
+      <c r="Z7" s="820"/>
       <c r="AA7" s="310"/>
       <c r="AJ7" s="437" t="s">
         <v>678</v>
@@ -12504,7 +12504,7 @@
       <c r="B8" s="230" t="s">
         <v>870</v>
       </c>
-      <c r="C8" s="810"/>
+      <c r="C8" s="828"/>
       <c r="D8" s="231" t="s">
         <v>883</v>
       </c>
@@ -14961,7 +14961,7 @@
       <c r="B63" s="226" t="s">
         <v>654</v>
       </c>
-      <c r="C63" s="808" t="s">
+      <c r="C63" s="822" t="s">
         <v>655</v>
       </c>
       <c r="D63" s="231"/>
@@ -14993,59 +14993,59 @@
       <c r="B64" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="813"/>
+      <c r="C64" s="823"/>
       <c r="D64" s="227"/>
-      <c r="E64" s="806">
+      <c r="E64" s="819">
         <v>1</v>
       </c>
-      <c r="F64" s="811"/>
-      <c r="G64" s="806">
+      <c r="F64" s="825"/>
+      <c r="G64" s="819">
         <v>2</v>
       </c>
-      <c r="H64" s="807"/>
-      <c r="I64" s="806">
+      <c r="H64" s="820"/>
+      <c r="I64" s="819">
         <v>3</v>
       </c>
-      <c r="J64" s="811"/>
-      <c r="K64" s="806">
+      <c r="J64" s="825"/>
+      <c r="K64" s="819">
         <v>4</v>
       </c>
-      <c r="L64" s="807"/>
-      <c r="M64" s="811">
+      <c r="L64" s="820"/>
+      <c r="M64" s="825">
         <v>5</v>
       </c>
-      <c r="N64" s="807"/>
-      <c r="O64" s="806">
+      <c r="N64" s="820"/>
+      <c r="O64" s="819">
         <v>6</v>
       </c>
-      <c r="P64" s="807"/>
-      <c r="Q64" s="806">
+      <c r="P64" s="820"/>
+      <c r="Q64" s="819">
         <v>7</v>
       </c>
-      <c r="R64" s="807"/>
-      <c r="S64" s="806">
+      <c r="R64" s="820"/>
+      <c r="S64" s="819">
         <v>8</v>
       </c>
-      <c r="T64" s="807"/>
-      <c r="U64" s="817">
+      <c r="T64" s="820"/>
+      <c r="U64" s="830">
         <v>9</v>
       </c>
-      <c r="V64" s="817"/>
-      <c r="W64" s="811">
+      <c r="V64" s="830"/>
+      <c r="W64" s="825">
         <v>10</v>
       </c>
-      <c r="X64" s="807"/>
-      <c r="Y64" s="806">
+      <c r="X64" s="820"/>
+      <c r="Y64" s="819">
         <v>11</v>
       </c>
-      <c r="Z64" s="807"/>
+      <c r="Z64" s="820"/>
       <c r="AA64" s="310"/>
     </row>
     <row r="65" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="230" t="s">
         <v>717</v>
       </c>
-      <c r="C65" s="814"/>
+      <c r="C65" s="824"/>
       <c r="D65" s="231" t="s">
         <v>657</v>
       </c>
@@ -17143,6 +17143,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
     <mergeCell ref="S64:T64"/>
     <mergeCell ref="U64:V64"/>
     <mergeCell ref="W64:X64"/>
@@ -17151,22 +17167,6 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="W7:X7"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17666,83 +17666,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="823" t="s">
+      <c r="B1" s="836" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="824"/>
-      <c r="D1" s="824"/>
-      <c r="E1" s="824"/>
-      <c r="F1" s="825"/>
+      <c r="C1" s="837"/>
+      <c r="D1" s="837"/>
+      <c r="E1" s="837"/>
+      <c r="F1" s="838"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="826"/>
-      <c r="C2" s="827"/>
-      <c r="D2" s="827"/>
-      <c r="E2" s="827"/>
-      <c r="F2" s="828"/>
+      <c r="B2" s="839"/>
+      <c r="C2" s="840"/>
+      <c r="D2" s="840"/>
+      <c r="E2" s="840"/>
+      <c r="F2" s="841"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="826"/>
-      <c r="C3" s="827"/>
-      <c r="D3" s="827"/>
-      <c r="E3" s="827"/>
-      <c r="F3" s="828"/>
+      <c r="B3" s="839"/>
+      <c r="C3" s="840"/>
+      <c r="D3" s="840"/>
+      <c r="E3" s="840"/>
+      <c r="F3" s="841"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="826"/>
-      <c r="C4" s="827"/>
-      <c r="D4" s="827"/>
-      <c r="E4" s="827"/>
-      <c r="F4" s="828"/>
+      <c r="B4" s="839"/>
+      <c r="C4" s="840"/>
+      <c r="D4" s="840"/>
+      <c r="E4" s="840"/>
+      <c r="F4" s="841"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="826"/>
-      <c r="C5" s="827"/>
-      <c r="D5" s="827"/>
-      <c r="E5" s="827"/>
-      <c r="F5" s="828"/>
+      <c r="B5" s="839"/>
+      <c r="C5" s="840"/>
+      <c r="D5" s="840"/>
+      <c r="E5" s="840"/>
+      <c r="F5" s="841"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="826"/>
-      <c r="C6" s="827"/>
-      <c r="D6" s="827"/>
-      <c r="E6" s="827"/>
-      <c r="F6" s="828"/>
+      <c r="B6" s="839"/>
+      <c r="C6" s="840"/>
+      <c r="D6" s="840"/>
+      <c r="E6" s="840"/>
+      <c r="F6" s="841"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="826"/>
-      <c r="C7" s="827"/>
-      <c r="D7" s="827"/>
-      <c r="E7" s="827"/>
-      <c r="F7" s="828"/>
+      <c r="B7" s="839"/>
+      <c r="C7" s="840"/>
+      <c r="D7" s="840"/>
+      <c r="E7" s="840"/>
+      <c r="F7" s="841"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="826"/>
-      <c r="C8" s="827"/>
-      <c r="D8" s="827"/>
-      <c r="E8" s="827"/>
-      <c r="F8" s="828"/>
+      <c r="B8" s="839"/>
+      <c r="C8" s="840"/>
+      <c r="D8" s="840"/>
+      <c r="E8" s="840"/>
+      <c r="F8" s="841"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="826"/>
-      <c r="C9" s="827"/>
-      <c r="D9" s="827"/>
-      <c r="E9" s="827"/>
-      <c r="F9" s="828"/>
+      <c r="B9" s="839"/>
+      <c r="C9" s="840"/>
+      <c r="D9" s="840"/>
+      <c r="E9" s="840"/>
+      <c r="F9" s="841"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="826"/>
-      <c r="C10" s="827"/>
-      <c r="D10" s="827"/>
-      <c r="E10" s="827"/>
-      <c r="F10" s="828"/>
+      <c r="B10" s="839"/>
+      <c r="C10" s="840"/>
+      <c r="D10" s="840"/>
+      <c r="E10" s="840"/>
+      <c r="F10" s="841"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="829"/>
-      <c r="C11" s="830"/>
-      <c r="D11" s="830"/>
-      <c r="E11" s="830"/>
-      <c r="F11" s="831"/>
+      <c r="B11" s="842"/>
+      <c r="C11" s="843"/>
+      <c r="D11" s="843"/>
+      <c r="E11" s="843"/>
+      <c r="F11" s="844"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -17760,11 +17760,11 @@
       <c r="G14" s="68"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="832" t="s">
+      <c r="B15" s="845" t="s">
         <v>1423</v>
       </c>
-      <c r="C15" s="832"/>
-      <c r="D15" s="832"/>
+      <c r="C15" s="845"/>
+      <c r="D15" s="845"/>
       <c r="F15" s="65" t="s">
         <v>185</v>
       </c>
@@ -17777,9 +17777,9 @@
       <c r="J15" s="42"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="832"/>
-      <c r="C16" s="832"/>
-      <c r="D16" s="832"/>
+      <c r="B16" s="845"/>
+      <c r="C16" s="845"/>
+      <c r="D16" s="845"/>
       <c r="F16" s="65" t="s">
         <v>184</v>
       </c>
@@ -17814,11 +17814,11 @@
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="833" t="s">
+      <c r="B19" s="846" t="s">
         <v>1929</v>
       </c>
-      <c r="C19" s="833"/>
-      <c r="D19" s="833"/>
+      <c r="C19" s="846"/>
+      <c r="D19" s="846"/>
       <c r="F19" s="65" t="s">
         <v>190</v>
       </c>
@@ -17829,9 +17829,9 @@
       <c r="I19" s="41"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="833"/>
-      <c r="C20" s="833"/>
-      <c r="D20" s="833"/>
+      <c r="B20" s="846"/>
+      <c r="C20" s="846"/>
+      <c r="D20" s="846"/>
       <c r="F20" s="65" t="s">
         <v>193</v>
       </c>
@@ -17839,9 +17839,9 @@
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="833"/>
-      <c r="C21" s="833"/>
-      <c r="D21" s="833"/>
+      <c r="B21" s="846"/>
+      <c r="C21" s="846"/>
+      <c r="D21" s="846"/>
       <c r="F21" s="65" t="s">
         <v>150</v>
       </c>
@@ -17904,12 +17904,12 @@
       <c r="F31" s="420"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J32" s="819" t="s">
+      <c r="J32" s="832" t="s">
         <v>222</v>
       </c>
-      <c r="K32" s="820"/>
-      <c r="L32" s="820"/>
-      <c r="M32" s="820"/>
+      <c r="K32" s="833"/>
+      <c r="L32" s="833"/>
+      <c r="M32" s="833"/>
       <c r="N32" s="63"/>
       <c r="O32" s="63"/>
       <c r="P32" s="64"/>
@@ -17925,10 +17925,10 @@
       </c>
       <c r="G33" s="114"/>
       <c r="H33" s="115"/>
-      <c r="J33" s="821"/>
-      <c r="K33" s="822"/>
-      <c r="L33" s="822"/>
-      <c r="M33" s="822"/>
+      <c r="J33" s="834"/>
+      <c r="K33" s="835"/>
+      <c r="L33" s="835"/>
+      <c r="M33" s="835"/>
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
       <c r="P33" s="68"/>
@@ -17939,15 +17939,15 @@
       </c>
       <c r="C34" s="66"/>
       <c r="D34" s="68"/>
-      <c r="F34" s="826" t="s">
+      <c r="F34" s="839" t="s">
         <v>1928</v>
       </c>
-      <c r="G34" s="827"/>
-      <c r="H34" s="828"/>
-      <c r="J34" s="821"/>
-      <c r="K34" s="822"/>
-      <c r="L34" s="822"/>
-      <c r="M34" s="822"/>
+      <c r="G34" s="840"/>
+      <c r="H34" s="841"/>
+      <c r="J34" s="834"/>
+      <c r="K34" s="835"/>
+      <c r="L34" s="835"/>
+      <c r="M34" s="835"/>
       <c r="N34" s="85"/>
       <c r="O34" s="66"/>
       <c r="P34" s="68"/>
@@ -17958,9 +17958,9 @@
       </c>
       <c r="C35" s="96"/>
       <c r="D35" s="68"/>
-      <c r="F35" s="826"/>
-      <c r="G35" s="827"/>
-      <c r="H35" s="828"/>
+      <c r="F35" s="839"/>
+      <c r="G35" s="840"/>
+      <c r="H35" s="841"/>
       <c r="J35" s="65" t="s">
         <v>220</v>
       </c>
@@ -17980,9 +17980,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D36" s="68"/>
-      <c r="F36" s="826"/>
-      <c r="G36" s="827"/>
-      <c r="H36" s="828"/>
+      <c r="F36" s="839"/>
+      <c r="G36" s="840"/>
+      <c r="H36" s="841"/>
       <c r="J36" s="65" t="s">
         <v>1175</v>
       </c>
@@ -19126,37 +19126,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="834" t="s">
+      <c r="B1" s="847" t="s">
         <v>418</v>
       </c>
-      <c r="C1" s="835"/>
+      <c r="C1" s="848"/>
       <c r="D1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="836"/>
-      <c r="C2" s="837"/>
+      <c r="B2" s="849"/>
+      <c r="C2" s="850"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="836"/>
-      <c r="C3" s="837"/>
+      <c r="B3" s="849"/>
+      <c r="C3" s="850"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="836"/>
-      <c r="C4" s="837"/>
+      <c r="B4" s="849"/>
+      <c r="C4" s="850"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="836"/>
-      <c r="C5" s="837"/>
+      <c r="B5" s="849"/>
+      <c r="C5" s="850"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="836"/>
-      <c r="C6" s="837"/>
+      <c r="B6" s="849"/>
+      <c r="C6" s="850"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="838"/>
-      <c r="C7" s="839"/>
+      <c r="B7" s="851"/>
+      <c r="C7" s="852"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J8" s="1" t="s">
@@ -19757,10 +19757,10 @@
       <c r="C2" s="227"/>
       <c r="D2" s="227"/>
       <c r="E2" s="574"/>
-      <c r="F2" s="811">
+      <c r="F2" s="825">
         <v>1</v>
       </c>
-      <c r="G2" s="811"/>
+      <c r="G2" s="825"/>
     </row>
     <row r="3" spans="1:15" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="575" t="s">
@@ -20882,74 +20882,74 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="832" t="s">
+      <c r="B17" s="845" t="s">
         <v>1966</v>
       </c>
-      <c r="C17" s="832"/>
-      <c r="D17" s="832"/>
+      <c r="C17" s="845"/>
+      <c r="D17" s="845"/>
       <c r="F17" s="495"/>
       <c r="J17" s="420"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="832"/>
-      <c r="C18" s="832"/>
-      <c r="D18" s="832"/>
+      <c r="B18" s="845"/>
+      <c r="C18" s="845"/>
+      <c r="D18" s="845"/>
       <c r="F18" s="495"/>
       <c r="J18" s="420"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="832"/>
-      <c r="C19" s="832"/>
-      <c r="D19" s="832"/>
+      <c r="B19" s="845"/>
+      <c r="C19" s="845"/>
+      <c r="D19" s="845"/>
       <c r="F19" s="495"/>
       <c r="J19" s="420"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="832"/>
-      <c r="C20" s="832"/>
-      <c r="D20" s="832"/>
+      <c r="B20" s="845"/>
+      <c r="C20" s="845"/>
+      <c r="D20" s="845"/>
       <c r="F20" s="495"/>
       <c r="J20" s="420"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="832"/>
-      <c r="C21" s="832"/>
-      <c r="D21" s="832"/>
+      <c r="B21" s="845"/>
+      <c r="C21" s="845"/>
+      <c r="D21" s="845"/>
       <c r="F21" s="495"/>
       <c r="J21" s="420"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="832"/>
-      <c r="C22" s="832"/>
-      <c r="D22" s="832"/>
+      <c r="B22" s="845"/>
+      <c r="C22" s="845"/>
+      <c r="D22" s="845"/>
       <c r="F22" s="495"/>
       <c r="J22" s="420"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="832"/>
-      <c r="C23" s="832"/>
-      <c r="D23" s="832"/>
+      <c r="B23" s="845"/>
+      <c r="C23" s="845"/>
+      <c r="D23" s="845"/>
       <c r="F23" s="495"/>
       <c r="J23" s="420"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="832"/>
-      <c r="C24" s="832"/>
-      <c r="D24" s="832"/>
+      <c r="B24" s="845"/>
+      <c r="C24" s="845"/>
+      <c r="D24" s="845"/>
       <c r="F24" s="495"/>
       <c r="J24" s="420"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="832"/>
-      <c r="C25" s="832"/>
-      <c r="D25" s="832"/>
+      <c r="B25" s="845"/>
+      <c r="C25" s="845"/>
+      <c r="D25" s="845"/>
       <c r="F25" s="495"/>
       <c r="J25" s="420"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="832"/>
-      <c r="C26" s="832"/>
-      <c r="D26" s="832"/>
+      <c r="B26" s="845"/>
+      <c r="C26" s="845"/>
+      <c r="D26" s="845"/>
       <c r="F26" s="495"/>
     </row>
     <row r="27" spans="2:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21258,12 +21258,12 @@
       </c>
       <c r="C66" s="114"/>
       <c r="D66" s="115"/>
-      <c r="G66" s="840" t="s">
+      <c r="G66" s="853" t="s">
         <v>222</v>
       </c>
-      <c r="H66" s="841"/>
-      <c r="I66" s="841"/>
-      <c r="J66" s="841"/>
+      <c r="H66" s="854"/>
+      <c r="I66" s="854"/>
+      <c r="J66" s="854"/>
       <c r="K66" s="63"/>
       <c r="L66" s="64"/>
     </row>
@@ -21271,10 +21271,10 @@
       <c r="B67" s="65"/>
       <c r="C67" s="66"/>
       <c r="D67" s="68"/>
-      <c r="G67" s="842"/>
-      <c r="H67" s="843"/>
-      <c r="I67" s="843"/>
-      <c r="J67" s="843"/>
+      <c r="G67" s="855"/>
+      <c r="H67" s="856"/>
+      <c r="I67" s="856"/>
+      <c r="J67" s="856"/>
       <c r="K67" s="66"/>
       <c r="L67" s="68"/>
     </row>
@@ -21284,10 +21284,10 @@
       </c>
       <c r="C68" s="96"/>
       <c r="D68" s="68"/>
-      <c r="G68" s="842"/>
-      <c r="H68" s="843"/>
-      <c r="I68" s="843"/>
-      <c r="J68" s="843"/>
+      <c r="G68" s="855"/>
+      <c r="H68" s="856"/>
+      <c r="I68" s="856"/>
+      <c r="J68" s="856"/>
       <c r="K68" s="85"/>
       <c r="L68" s="68"/>
     </row>
@@ -22676,78 +22676,78 @@
         <f>IF($E$58&gt;0,$E$58,0)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="832" t="s">
+      <c r="H61" s="845" t="s">
         <v>1841</v>
       </c>
-      <c r="I61" s="832"/>
-      <c r="J61" s="832"/>
-      <c r="K61" s="832"/>
-      <c r="L61" s="832"/>
-      <c r="M61" s="832"/>
-      <c r="N61" s="832"/>
-      <c r="O61" s="832"/>
-      <c r="P61" s="832"/>
-      <c r="Q61" s="832"/>
-      <c r="R61" s="832"/>
-      <c r="S61" s="832"/>
-      <c r="T61" s="832"/>
-      <c r="U61" s="832"/>
-      <c r="V61" s="832"/>
-      <c r="W61" s="832"/>
+      <c r="I61" s="845"/>
+      <c r="J61" s="845"/>
+      <c r="K61" s="845"/>
+      <c r="L61" s="845"/>
+      <c r="M61" s="845"/>
+      <c r="N61" s="845"/>
+      <c r="O61" s="845"/>
+      <c r="P61" s="845"/>
+      <c r="Q61" s="845"/>
+      <c r="R61" s="845"/>
+      <c r="S61" s="845"/>
+      <c r="T61" s="845"/>
+      <c r="U61" s="845"/>
+      <c r="V61" s="845"/>
+      <c r="W61" s="845"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H62" s="832"/>
-      <c r="I62" s="832"/>
-      <c r="J62" s="832"/>
-      <c r="K62" s="832"/>
-      <c r="L62" s="832"/>
-      <c r="M62" s="832"/>
-      <c r="N62" s="832"/>
-      <c r="O62" s="832"/>
-      <c r="P62" s="832"/>
-      <c r="Q62" s="832"/>
-      <c r="R62" s="832"/>
-      <c r="S62" s="832"/>
-      <c r="T62" s="832"/>
-      <c r="U62" s="832"/>
-      <c r="V62" s="832"/>
-      <c r="W62" s="832"/>
+      <c r="H62" s="845"/>
+      <c r="I62" s="845"/>
+      <c r="J62" s="845"/>
+      <c r="K62" s="845"/>
+      <c r="L62" s="845"/>
+      <c r="M62" s="845"/>
+      <c r="N62" s="845"/>
+      <c r="O62" s="845"/>
+      <c r="P62" s="845"/>
+      <c r="Q62" s="845"/>
+      <c r="R62" s="845"/>
+      <c r="S62" s="845"/>
+      <c r="T62" s="845"/>
+      <c r="U62" s="845"/>
+      <c r="V62" s="845"/>
+      <c r="W62" s="845"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H63" s="832"/>
-      <c r="I63" s="832"/>
-      <c r="J63" s="832"/>
-      <c r="K63" s="832"/>
-      <c r="L63" s="832"/>
-      <c r="M63" s="832"/>
-      <c r="N63" s="832"/>
-      <c r="O63" s="832"/>
-      <c r="P63" s="832"/>
-      <c r="Q63" s="832"/>
-      <c r="R63" s="832"/>
-      <c r="S63" s="832"/>
-      <c r="T63" s="832"/>
-      <c r="U63" s="832"/>
-      <c r="V63" s="832"/>
-      <c r="W63" s="832"/>
+      <c r="H63" s="845"/>
+      <c r="I63" s="845"/>
+      <c r="J63" s="845"/>
+      <c r="K63" s="845"/>
+      <c r="L63" s="845"/>
+      <c r="M63" s="845"/>
+      <c r="N63" s="845"/>
+      <c r="O63" s="845"/>
+      <c r="P63" s="845"/>
+      <c r="Q63" s="845"/>
+      <c r="R63" s="845"/>
+      <c r="S63" s="845"/>
+      <c r="T63" s="845"/>
+      <c r="U63" s="845"/>
+      <c r="V63" s="845"/>
+      <c r="W63" s="845"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H64" s="832"/>
-      <c r="I64" s="832"/>
-      <c r="J64" s="832"/>
-      <c r="K64" s="832"/>
-      <c r="L64" s="832"/>
-      <c r="M64" s="832"/>
-      <c r="N64" s="832"/>
-      <c r="O64" s="832"/>
-      <c r="P64" s="832"/>
-      <c r="Q64" s="832"/>
-      <c r="R64" s="832"/>
-      <c r="S64" s="832"/>
-      <c r="T64" s="832"/>
-      <c r="U64" s="832"/>
-      <c r="V64" s="832"/>
-      <c r="W64" s="832"/>
+      <c r="H64" s="845"/>
+      <c r="I64" s="845"/>
+      <c r="J64" s="845"/>
+      <c r="K64" s="845"/>
+      <c r="L64" s="845"/>
+      <c r="M64" s="845"/>
+      <c r="N64" s="845"/>
+      <c r="O64" s="845"/>
+      <c r="P64" s="845"/>
+      <c r="Q64" s="845"/>
+      <c r="R64" s="845"/>
+      <c r="S64" s="845"/>
+      <c r="T64" s="845"/>
+      <c r="U64" s="845"/>
+      <c r="V64" s="845"/>
+      <c r="W64" s="845"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="62"/>
@@ -22756,25 +22756,25 @@
       <c r="D65" s="63"/>
       <c r="E65" s="63"/>
       <c r="F65" s="64"/>
-      <c r="H65" s="832" t="str">
+      <c r="H65" s="845" t="str">
         <f>"As there are £"&amp;SUMIF(D68:D77,"&gt;0")&amp;" of taxable temporary differences as at …, all deductible differences can be recognised"</f>
         <v>As there are £2400 of taxable temporary differences as at …, all deductible differences can be recognised</v>
       </c>
-      <c r="I65" s="832"/>
-      <c r="J65" s="832"/>
-      <c r="K65" s="832"/>
-      <c r="L65" s="832"/>
-      <c r="M65" s="832"/>
-      <c r="N65" s="832"/>
-      <c r="O65" s="832"/>
-      <c r="P65" s="832"/>
-      <c r="Q65" s="832"/>
-      <c r="R65" s="832"/>
-      <c r="S65" s="832"/>
-      <c r="T65" s="832"/>
-      <c r="U65" s="832"/>
-      <c r="V65" s="832"/>
-      <c r="W65" s="832"/>
+      <c r="I65" s="845"/>
+      <c r="J65" s="845"/>
+      <c r="K65" s="845"/>
+      <c r="L65" s="845"/>
+      <c r="M65" s="845"/>
+      <c r="N65" s="845"/>
+      <c r="O65" s="845"/>
+      <c r="P65" s="845"/>
+      <c r="Q65" s="845"/>
+      <c r="R65" s="845"/>
+      <c r="S65" s="845"/>
+      <c r="T65" s="845"/>
+      <c r="U65" s="845"/>
+      <c r="V65" s="845"/>
+      <c r="W65" s="845"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="65" t="s">
@@ -22787,22 +22787,22 @@
       <c r="D66" s="66"/>
       <c r="E66" s="66"/>
       <c r="F66" s="68"/>
-      <c r="H66" s="832"/>
-      <c r="I66" s="832"/>
-      <c r="J66" s="832"/>
-      <c r="K66" s="832"/>
-      <c r="L66" s="832"/>
-      <c r="M66" s="832"/>
-      <c r="N66" s="832"/>
-      <c r="O66" s="832"/>
-      <c r="P66" s="832"/>
-      <c r="Q66" s="832"/>
-      <c r="R66" s="832"/>
-      <c r="S66" s="832"/>
-      <c r="T66" s="832"/>
-      <c r="U66" s="832"/>
-      <c r="V66" s="832"/>
-      <c r="W66" s="832"/>
+      <c r="H66" s="845"/>
+      <c r="I66" s="845"/>
+      <c r="J66" s="845"/>
+      <c r="K66" s="845"/>
+      <c r="L66" s="845"/>
+      <c r="M66" s="845"/>
+      <c r="N66" s="845"/>
+      <c r="O66" s="845"/>
+      <c r="P66" s="845"/>
+      <c r="Q66" s="845"/>
+      <c r="R66" s="845"/>
+      <c r="S66" s="845"/>
+      <c r="T66" s="845"/>
+      <c r="U66" s="845"/>
+      <c r="V66" s="845"/>
+      <c r="W66" s="845"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="65"/>
@@ -22819,22 +22819,22 @@
         <v>1838</v>
       </c>
       <c r="F67" s="68"/>
-      <c r="H67" s="832"/>
-      <c r="I67" s="832"/>
-      <c r="J67" s="832"/>
-      <c r="K67" s="832"/>
-      <c r="L67" s="832"/>
-      <c r="M67" s="832"/>
-      <c r="N67" s="832"/>
-      <c r="O67" s="832"/>
-      <c r="P67" s="832"/>
-      <c r="Q67" s="832"/>
-      <c r="R67" s="832"/>
-      <c r="S67" s="832"/>
-      <c r="T67" s="832"/>
-      <c r="U67" s="832"/>
-      <c r="V67" s="832"/>
-      <c r="W67" s="832"/>
+      <c r="H67" s="845"/>
+      <c r="I67" s="845"/>
+      <c r="J67" s="845"/>
+      <c r="K67" s="845"/>
+      <c r="L67" s="845"/>
+      <c r="M67" s="845"/>
+      <c r="N67" s="845"/>
+      <c r="O67" s="845"/>
+      <c r="P67" s="845"/>
+      <c r="Q67" s="845"/>
+      <c r="R67" s="845"/>
+      <c r="S67" s="845"/>
+      <c r="T67" s="845"/>
+      <c r="U67" s="845"/>
+      <c r="V67" s="845"/>
+      <c r="W67" s="845"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="65" t="s">
@@ -22959,25 +22959,25 @@
         <v>0</v>
       </c>
       <c r="F74" s="68"/>
-      <c r="H74" s="832" t="str">
+      <c r="H74" s="845" t="str">
         <f>"Tax losses can also be recognised to the extent of the existence of taxable temporary differences. From above, £"&amp;SUMIF(D68:D77,"&gt;0")+SUMIF(D68:D73,"&lt;0")&amp;" of taxable losses would be covered by such differences. This would leave … of losses, creating a potential DTA."</f>
         <v>Tax losses can also be recognised to the extent of the existence of taxable temporary differences. From above, £2400 of taxable losses would be covered by such differences. This would leave … of losses, creating a potential DTA.</v>
       </c>
-      <c r="I74" s="832"/>
-      <c r="J74" s="832"/>
-      <c r="K74" s="832"/>
-      <c r="L74" s="832"/>
-      <c r="M74" s="832"/>
-      <c r="N74" s="832"/>
-      <c r="O74" s="832"/>
-      <c r="P74" s="832"/>
-      <c r="Q74" s="832"/>
-      <c r="R74" s="832"/>
-      <c r="S74" s="832"/>
-      <c r="T74" s="832"/>
-      <c r="U74" s="832"/>
-      <c r="V74" s="832"/>
-      <c r="W74" s="832"/>
+      <c r="I74" s="845"/>
+      <c r="J74" s="845"/>
+      <c r="K74" s="845"/>
+      <c r="L74" s="845"/>
+      <c r="M74" s="845"/>
+      <c r="N74" s="845"/>
+      <c r="O74" s="845"/>
+      <c r="P74" s="845"/>
+      <c r="Q74" s="845"/>
+      <c r="R74" s="845"/>
+      <c r="S74" s="845"/>
+      <c r="T74" s="845"/>
+      <c r="U74" s="845"/>
+      <c r="V74" s="845"/>
+      <c r="W74" s="845"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="65"/>
@@ -22989,22 +22989,22 @@
         <v>600</v>
       </c>
       <c r="F75" s="68"/>
-      <c r="H75" s="832"/>
-      <c r="I75" s="832"/>
-      <c r="J75" s="832"/>
-      <c r="K75" s="832"/>
-      <c r="L75" s="832"/>
-      <c r="M75" s="832"/>
-      <c r="N75" s="832"/>
-      <c r="O75" s="832"/>
-      <c r="P75" s="832"/>
-      <c r="Q75" s="832"/>
-      <c r="R75" s="832"/>
-      <c r="S75" s="832"/>
-      <c r="T75" s="832"/>
-      <c r="U75" s="832"/>
-      <c r="V75" s="832"/>
-      <c r="W75" s="832"/>
+      <c r="H75" s="845"/>
+      <c r="I75" s="845"/>
+      <c r="J75" s="845"/>
+      <c r="K75" s="845"/>
+      <c r="L75" s="845"/>
+      <c r="M75" s="845"/>
+      <c r="N75" s="845"/>
+      <c r="O75" s="845"/>
+      <c r="P75" s="845"/>
+      <c r="Q75" s="845"/>
+      <c r="R75" s="845"/>
+      <c r="S75" s="845"/>
+      <c r="T75" s="845"/>
+      <c r="U75" s="845"/>
+      <c r="V75" s="845"/>
+      <c r="W75" s="845"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="65"/>
@@ -23013,22 +23013,22 @@
       <c r="D76" s="66"/>
       <c r="E76" s="66"/>
       <c r="F76" s="68"/>
-      <c r="H76" s="832"/>
-      <c r="I76" s="832"/>
-      <c r="J76" s="832"/>
-      <c r="K76" s="832"/>
-      <c r="L76" s="832"/>
-      <c r="M76" s="832"/>
-      <c r="N76" s="832"/>
-      <c r="O76" s="832"/>
-      <c r="P76" s="832"/>
-      <c r="Q76" s="832"/>
-      <c r="R76" s="832"/>
-      <c r="S76" s="832"/>
-      <c r="T76" s="832"/>
-      <c r="U76" s="832"/>
-      <c r="V76" s="832"/>
-      <c r="W76" s="832"/>
+      <c r="H76" s="845"/>
+      <c r="I76" s="845"/>
+      <c r="J76" s="845"/>
+      <c r="K76" s="845"/>
+      <c r="L76" s="845"/>
+      <c r="M76" s="845"/>
+      <c r="N76" s="845"/>
+      <c r="O76" s="845"/>
+      <c r="P76" s="845"/>
+      <c r="Q76" s="845"/>
+      <c r="R76" s="845"/>
+      <c r="S76" s="845"/>
+      <c r="T76" s="845"/>
+      <c r="U76" s="845"/>
+      <c r="V76" s="845"/>
+      <c r="W76" s="845"/>
       <c r="Y76" s="420" t="s">
         <v>1669</v>
       </c>
@@ -23050,24 +23050,24 @@
         <v>0</v>
       </c>
       <c r="F77" s="68"/>
-      <c r="H77" s="833" t="s">
+      <c r="H77" s="846" t="s">
         <v>1842</v>
       </c>
-      <c r="I77" s="833"/>
-      <c r="J77" s="833"/>
-      <c r="K77" s="833"/>
-      <c r="L77" s="833"/>
-      <c r="M77" s="833"/>
-      <c r="N77" s="833"/>
-      <c r="O77" s="833"/>
-      <c r="P77" s="833"/>
-      <c r="Q77" s="833"/>
-      <c r="R77" s="833"/>
-      <c r="S77" s="833"/>
-      <c r="T77" s="833"/>
-      <c r="U77" s="833"/>
-      <c r="V77" s="833"/>
-      <c r="W77" s="833"/>
+      <c r="I77" s="846"/>
+      <c r="J77" s="846"/>
+      <c r="K77" s="846"/>
+      <c r="L77" s="846"/>
+      <c r="M77" s="846"/>
+      <c r="N77" s="846"/>
+      <c r="O77" s="846"/>
+      <c r="P77" s="846"/>
+      <c r="Q77" s="846"/>
+      <c r="R77" s="846"/>
+      <c r="S77" s="846"/>
+      <c r="T77" s="846"/>
+      <c r="U77" s="846"/>
+      <c r="V77" s="846"/>
+      <c r="W77" s="846"/>
       <c r="Z77" s="495" t="s">
         <v>1523</v>
       </c>
@@ -23079,22 +23079,22 @@
       <c r="D78" s="66"/>
       <c r="E78" s="66"/>
       <c r="F78" s="68"/>
-      <c r="H78" s="833"/>
-      <c r="I78" s="833"/>
-      <c r="J78" s="833"/>
-      <c r="K78" s="833"/>
-      <c r="L78" s="833"/>
-      <c r="M78" s="833"/>
-      <c r="N78" s="833"/>
-      <c r="O78" s="833"/>
-      <c r="P78" s="833"/>
-      <c r="Q78" s="833"/>
-      <c r="R78" s="833"/>
-      <c r="S78" s="833"/>
-      <c r="T78" s="833"/>
-      <c r="U78" s="833"/>
-      <c r="V78" s="833"/>
-      <c r="W78" s="833"/>
+      <c r="H78" s="846"/>
+      <c r="I78" s="846"/>
+      <c r="J78" s="846"/>
+      <c r="K78" s="846"/>
+      <c r="L78" s="846"/>
+      <c r="M78" s="846"/>
+      <c r="N78" s="846"/>
+      <c r="O78" s="846"/>
+      <c r="P78" s="846"/>
+      <c r="Q78" s="846"/>
+      <c r="R78" s="846"/>
+      <c r="S78" s="846"/>
+      <c r="T78" s="846"/>
+      <c r="U78" s="846"/>
+      <c r="V78" s="846"/>
+      <c r="W78" s="846"/>
       <c r="Z78" s="420" t="s">
         <v>1524</v>
       </c>
@@ -23108,22 +23108,22 @@
       <c r="D79" s="66"/>
       <c r="E79" s="66"/>
       <c r="F79" s="68"/>
-      <c r="H79" s="833"/>
-      <c r="I79" s="833"/>
-      <c r="J79" s="833"/>
-      <c r="K79" s="833"/>
-      <c r="L79" s="833"/>
-      <c r="M79" s="833"/>
-      <c r="N79" s="833"/>
-      <c r="O79" s="833"/>
-      <c r="P79" s="833"/>
-      <c r="Q79" s="833"/>
-      <c r="R79" s="833"/>
-      <c r="S79" s="833"/>
-      <c r="T79" s="833"/>
-      <c r="U79" s="833"/>
-      <c r="V79" s="833"/>
-      <c r="W79" s="833"/>
+      <c r="H79" s="846"/>
+      <c r="I79" s="846"/>
+      <c r="J79" s="846"/>
+      <c r="K79" s="846"/>
+      <c r="L79" s="846"/>
+      <c r="M79" s="846"/>
+      <c r="N79" s="846"/>
+      <c r="O79" s="846"/>
+      <c r="P79" s="846"/>
+      <c r="Q79" s="846"/>
+      <c r="R79" s="846"/>
+      <c r="S79" s="846"/>
+      <c r="T79" s="846"/>
+      <c r="U79" s="846"/>
+      <c r="V79" s="846"/>
+      <c r="W79" s="846"/>
       <c r="Z79" s="420" t="s">
         <v>1525</v>
       </c>
@@ -24148,115 +24148,115 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="862" t="s">
+      <c r="B3" s="857" t="s">
         <v>605</v>
       </c>
-      <c r="C3" s="863"/>
-      <c r="D3" s="863"/>
-      <c r="E3" s="864"/>
+      <c r="C3" s="858"/>
+      <c r="D3" s="858"/>
+      <c r="E3" s="859"/>
       <c r="I3" s="420" t="s">
         <v>1907</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="865" t="s">
+      <c r="B4" s="860" t="s">
         <v>1917</v>
       </c>
-      <c r="C4" s="866"/>
-      <c r="D4" s="866"/>
-      <c r="E4" s="867"/>
+      <c r="C4" s="861"/>
+      <c r="D4" s="861"/>
+      <c r="E4" s="862"/>
       <c r="I4" s="495" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="868" t="s">
+      <c r="B5" s="863" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="869"/>
-      <c r="D5" s="869"/>
-      <c r="E5" s="870"/>
+      <c r="C5" s="864"/>
+      <c r="D5" s="864"/>
+      <c r="E5" s="865"/>
       <c r="I5" s="420" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="865" t="s">
+      <c r="B6" s="860" t="s">
         <v>1915</v>
       </c>
-      <c r="C6" s="866"/>
-      <c r="D6" s="866"/>
-      <c r="E6" s="867"/>
+      <c r="C6" s="861"/>
+      <c r="D6" s="861"/>
+      <c r="E6" s="862"/>
       <c r="I6" s="420" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="847" t="s">
+      <c r="B7" s="872" t="s">
         <v>402</v>
       </c>
-      <c r="C7" s="848"/>
-      <c r="D7" s="848"/>
-      <c r="E7" s="849"/>
+      <c r="C7" s="873"/>
+      <c r="D7" s="873"/>
+      <c r="E7" s="874"/>
       <c r="I7" s="420" t="s">
         <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="859" t="s">
+      <c r="B8" s="866" t="s">
         <v>1916</v>
       </c>
-      <c r="C8" s="860"/>
-      <c r="D8" s="860"/>
-      <c r="E8" s="861"/>
+      <c r="C8" s="867"/>
+      <c r="D8" s="867"/>
+      <c r="E8" s="868"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="847" t="s">
+      <c r="B9" s="872" t="s">
         <v>403</v>
       </c>
-      <c r="C9" s="848"/>
-      <c r="D9" s="848"/>
-      <c r="E9" s="849"/>
-      <c r="F9" s="844" t="s">
+      <c r="C9" s="873"/>
+      <c r="D9" s="873"/>
+      <c r="E9" s="874"/>
+      <c r="F9" s="869" t="s">
         <v>1904</v>
       </c>
-      <c r="G9" s="833"/>
-      <c r="H9" s="833"/>
+      <c r="G9" s="846"/>
+      <c r="H9" s="846"/>
     </row>
     <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="859" t="s">
+      <c r="B10" s="866" t="s">
         <v>1913</v>
       </c>
-      <c r="C10" s="860"/>
-      <c r="D10" s="860"/>
-      <c r="E10" s="861"/>
-      <c r="F10" s="844"/>
-      <c r="G10" s="833"/>
-      <c r="H10" s="833"/>
+      <c r="C10" s="867"/>
+      <c r="D10" s="867"/>
+      <c r="E10" s="868"/>
+      <c r="F10" s="869"/>
+      <c r="G10" s="846"/>
+      <c r="H10" s="846"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="847" t="s">
+      <c r="B11" s="872" t="s">
         <v>404</v>
       </c>
-      <c r="C11" s="848"/>
-      <c r="D11" s="848"/>
-      <c r="E11" s="849"/>
-      <c r="F11" s="845" t="s">
+      <c r="C11" s="873"/>
+      <c r="D11" s="873"/>
+      <c r="E11" s="874"/>
+      <c r="F11" s="870" t="s">
         <v>1905</v>
       </c>
-      <c r="G11" s="846"/>
-      <c r="H11" s="846"/>
+      <c r="G11" s="871"/>
+      <c r="H11" s="871"/>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="856" t="s">
+      <c r="B12" s="881" t="s">
         <v>1914</v>
       </c>
-      <c r="C12" s="857"/>
-      <c r="D12" s="857"/>
-      <c r="E12" s="858"/>
-      <c r="F12" s="845"/>
-      <c r="G12" s="846"/>
-      <c r="H12" s="846"/>
+      <c r="C12" s="882"/>
+      <c r="D12" s="882"/>
+      <c r="E12" s="883"/>
+      <c r="F12" s="870"/>
+      <c r="G12" s="871"/>
+      <c r="H12" s="871"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="760" t="s">
@@ -24282,18 +24282,18 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="850" t="s">
+      <c r="B16" s="875" t="s">
         <v>1779</v>
       </c>
-      <c r="C16" s="851"/>
-      <c r="D16" s="851"/>
-      <c r="E16" s="852"/>
+      <c r="C16" s="876"/>
+      <c r="D16" s="876"/>
+      <c r="E16" s="877"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="853"/>
-      <c r="C17" s="854"/>
-      <c r="D17" s="854"/>
-      <c r="E17" s="855"/>
+      <c r="B17" s="878"/>
+      <c r="C17" s="879"/>
+      <c r="D17" s="879"/>
+      <c r="E17" s="880"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="420" t="s">
@@ -25597,11 +25597,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F9:H10"/>
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="B7:E7"/>
@@ -25610,6 +25605,11 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25641,8 +25641,8 @@
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="P1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25678,18 +25678,18 @@
         <v>1410</v>
       </c>
       <c r="F2" s="420"/>
-      <c r="N2" s="832" t="s">
+      <c r="N2" s="845" t="s">
         <v>1813</v>
       </c>
-      <c r="O2" s="871"/>
-      <c r="P2" s="871"/>
-      <c r="Q2" s="871"/>
-      <c r="R2" s="871"/>
-      <c r="S2" s="871"/>
-      <c r="T2" s="871"/>
-      <c r="U2" s="871"/>
-      <c r="V2" s="871"/>
-      <c r="W2" s="871"/>
+      <c r="O2" s="884"/>
+      <c r="P2" s="884"/>
+      <c r="Q2" s="884"/>
+      <c r="R2" s="884"/>
+      <c r="S2" s="884"/>
+      <c r="T2" s="884"/>
+      <c r="U2" s="884"/>
+      <c r="V2" s="884"/>
+      <c r="W2" s="884"/>
     </row>
     <row r="3" spans="1:23" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="177" t="s">
@@ -25946,15 +25946,15 @@
         <f>"("&amp;B19&amp;"/(1 + "&amp;B20&amp;")^"&amp;B21&amp;")"</f>
         <v>(3500/(1 + )^)</v>
       </c>
-      <c r="P23" s="832" t="s">
+      <c r="P23" s="845" t="s">
         <v>1414</v>
       </c>
-      <c r="Q23" s="832"/>
-      <c r="R23" s="832"/>
-      <c r="S23" s="832"/>
-      <c r="T23" s="832"/>
-      <c r="U23" s="832"/>
-      <c r="V23" s="832"/>
+      <c r="Q23" s="845"/>
+      <c r="R23" s="845"/>
+      <c r="S23" s="845"/>
+      <c r="T23" s="845"/>
+      <c r="U23" s="845"/>
+      <c r="V23" s="845"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -25964,48 +25964,48 @@
         <f>B23*B20</f>
         <v>0</v>
       </c>
-      <c r="P24" s="832"/>
-      <c r="Q24" s="832"/>
-      <c r="R24" s="832"/>
-      <c r="S24" s="832"/>
-      <c r="T24" s="832"/>
-      <c r="U24" s="832"/>
-      <c r="V24" s="832"/>
+      <c r="P24" s="845"/>
+      <c r="Q24" s="845"/>
+      <c r="R24" s="845"/>
+      <c r="S24" s="845"/>
+      <c r="T24" s="845"/>
+      <c r="U24" s="845"/>
+      <c r="V24" s="845"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
-      <c r="P25" s="832"/>
-      <c r="Q25" s="832"/>
-      <c r="R25" s="832"/>
-      <c r="S25" s="832"/>
-      <c r="T25" s="832"/>
-      <c r="U25" s="832"/>
-      <c r="V25" s="832"/>
+      <c r="P25" s="845"/>
+      <c r="Q25" s="845"/>
+      <c r="R25" s="845"/>
+      <c r="S25" s="845"/>
+      <c r="T25" s="845"/>
+      <c r="U25" s="845"/>
+      <c r="V25" s="845"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="420" t="s">
         <v>1409</v>
       </c>
-      <c r="P26" s="832"/>
-      <c r="Q26" s="832"/>
-      <c r="R26" s="832"/>
-      <c r="S26" s="832"/>
-      <c r="T26" s="832"/>
-      <c r="U26" s="832"/>
-      <c r="V26" s="832"/>
+      <c r="P26" s="845"/>
+      <c r="Q26" s="845"/>
+      <c r="R26" s="845"/>
+      <c r="S26" s="845"/>
+      <c r="T26" s="845"/>
+      <c r="U26" s="845"/>
+      <c r="V26" s="845"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>492</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="P27" s="832"/>
-      <c r="Q27" s="832"/>
-      <c r="R27" s="832"/>
-      <c r="S27" s="832"/>
-      <c r="T27" s="832"/>
-      <c r="U27" s="832"/>
-      <c r="V27" s="832"/>
+      <c r="P27" s="845"/>
+      <c r="Q27" s="845"/>
+      <c r="R27" s="845"/>
+      <c r="S27" s="845"/>
+      <c r="T27" s="845"/>
+      <c r="U27" s="845"/>
+      <c r="V27" s="845"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -26015,13 +26015,13 @@
         <f>B23</f>
         <v>3500</v>
       </c>
-      <c r="P28" s="832"/>
-      <c r="Q28" s="832"/>
-      <c r="R28" s="832"/>
-      <c r="S28" s="832"/>
-      <c r="T28" s="832"/>
-      <c r="U28" s="832"/>
-      <c r="V28" s="832"/>
+      <c r="P28" s="845"/>
+      <c r="Q28" s="845"/>
+      <c r="R28" s="845"/>
+      <c r="S28" s="845"/>
+      <c r="T28" s="845"/>
+      <c r="U28" s="845"/>
+      <c r="V28" s="845"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -27102,127 +27102,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="805" t="s">
+      <c r="B2" s="818" t="s">
         <v>926</v>
       </c>
-      <c r="C2" s="805"/>
-      <c r="D2" s="805"/>
-      <c r="E2" s="805"/>
-      <c r="F2" s="805"/>
-      <c r="G2" s="805"/>
-      <c r="H2" s="805"/>
-      <c r="I2" s="805"/>
-      <c r="J2" s="805"/>
+      <c r="C2" s="818"/>
+      <c r="D2" s="818"/>
+      <c r="E2" s="818"/>
+      <c r="F2" s="818"/>
+      <c r="G2" s="818"/>
+      <c r="H2" s="818"/>
+      <c r="I2" s="818"/>
+      <c r="J2" s="818"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="805"/>
-      <c r="C3" s="805"/>
-      <c r="D3" s="805"/>
-      <c r="E3" s="805"/>
-      <c r="F3" s="805"/>
-      <c r="G3" s="805"/>
-      <c r="H3" s="805"/>
-      <c r="I3" s="805"/>
-      <c r="J3" s="805"/>
+      <c r="B3" s="818"/>
+      <c r="C3" s="818"/>
+      <c r="D3" s="818"/>
+      <c r="E3" s="818"/>
+      <c r="F3" s="818"/>
+      <c r="G3" s="818"/>
+      <c r="H3" s="818"/>
+      <c r="I3" s="818"/>
+      <c r="J3" s="818"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="805"/>
-      <c r="C4" s="805"/>
-      <c r="D4" s="805"/>
-      <c r="E4" s="805"/>
-      <c r="F4" s="805"/>
-      <c r="G4" s="805"/>
-      <c r="H4" s="805"/>
-      <c r="I4" s="805"/>
-      <c r="J4" s="805"/>
+      <c r="B4" s="818"/>
+      <c r="C4" s="818"/>
+      <c r="D4" s="818"/>
+      <c r="E4" s="818"/>
+      <c r="F4" s="818"/>
+      <c r="G4" s="818"/>
+      <c r="H4" s="818"/>
+      <c r="I4" s="818"/>
+      <c r="J4" s="818"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="805"/>
-      <c r="C5" s="805"/>
-      <c r="D5" s="805"/>
-      <c r="E5" s="805"/>
-      <c r="F5" s="805"/>
-      <c r="G5" s="805"/>
-      <c r="H5" s="805"/>
-      <c r="I5" s="805"/>
-      <c r="J5" s="805"/>
+      <c r="B5" s="818"/>
+      <c r="C5" s="818"/>
+      <c r="D5" s="818"/>
+      <c r="E5" s="818"/>
+      <c r="F5" s="818"/>
+      <c r="G5" s="818"/>
+      <c r="H5" s="818"/>
+      <c r="I5" s="818"/>
+      <c r="J5" s="818"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="805"/>
-      <c r="C6" s="805"/>
-      <c r="D6" s="805"/>
-      <c r="E6" s="805"/>
-      <c r="F6" s="805"/>
-      <c r="G6" s="805"/>
-      <c r="H6" s="805"/>
-      <c r="I6" s="805"/>
-      <c r="J6" s="805"/>
+      <c r="B6" s="818"/>
+      <c r="C6" s="818"/>
+      <c r="D6" s="818"/>
+      <c r="E6" s="818"/>
+      <c r="F6" s="818"/>
+      <c r="G6" s="818"/>
+      <c r="H6" s="818"/>
+      <c r="I6" s="818"/>
+      <c r="J6" s="818"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="805"/>
-      <c r="C7" s="805"/>
-      <c r="D7" s="805"/>
-      <c r="E7" s="805"/>
-      <c r="F7" s="805"/>
-      <c r="G7" s="805"/>
-      <c r="H7" s="805"/>
-      <c r="I7" s="805"/>
-      <c r="J7" s="805"/>
+      <c r="B7" s="818"/>
+      <c r="C7" s="818"/>
+      <c r="D7" s="818"/>
+      <c r="E7" s="818"/>
+      <c r="F7" s="818"/>
+      <c r="G7" s="818"/>
+      <c r="H7" s="818"/>
+      <c r="I7" s="818"/>
+      <c r="J7" s="818"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="805"/>
-      <c r="C8" s="805"/>
-      <c r="D8" s="805"/>
-      <c r="E8" s="805"/>
-      <c r="F8" s="805"/>
-      <c r="G8" s="805"/>
-      <c r="H8" s="805"/>
-      <c r="I8" s="805"/>
-      <c r="J8" s="805"/>
+      <c r="B8" s="818"/>
+      <c r="C8" s="818"/>
+      <c r="D8" s="818"/>
+      <c r="E8" s="818"/>
+      <c r="F8" s="818"/>
+      <c r="G8" s="818"/>
+      <c r="H8" s="818"/>
+      <c r="I8" s="818"/>
+      <c r="J8" s="818"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="805"/>
-      <c r="C9" s="805"/>
-      <c r="D9" s="805"/>
-      <c r="E9" s="805"/>
-      <c r="F9" s="805"/>
-      <c r="G9" s="805"/>
-      <c r="H9" s="805"/>
-      <c r="I9" s="805"/>
-      <c r="J9" s="805"/>
+      <c r="B9" s="818"/>
+      <c r="C9" s="818"/>
+      <c r="D9" s="818"/>
+      <c r="E9" s="818"/>
+      <c r="F9" s="818"/>
+      <c r="G9" s="818"/>
+      <c r="H9" s="818"/>
+      <c r="I9" s="818"/>
+      <c r="J9" s="818"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="805"/>
-      <c r="C10" s="805"/>
-      <c r="D10" s="805"/>
-      <c r="E10" s="805"/>
-      <c r="F10" s="805"/>
-      <c r="G10" s="805"/>
-      <c r="H10" s="805"/>
-      <c r="I10" s="805"/>
-      <c r="J10" s="805"/>
+      <c r="B10" s="818"/>
+      <c r="C10" s="818"/>
+      <c r="D10" s="818"/>
+      <c r="E10" s="818"/>
+      <c r="F10" s="818"/>
+      <c r="G10" s="818"/>
+      <c r="H10" s="818"/>
+      <c r="I10" s="818"/>
+      <c r="J10" s="818"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="805"/>
-      <c r="C11" s="805"/>
-      <c r="D11" s="805"/>
-      <c r="E11" s="805"/>
-      <c r="F11" s="805"/>
-      <c r="G11" s="805"/>
-      <c r="H11" s="805"/>
-      <c r="I11" s="805"/>
-      <c r="J11" s="805"/>
+      <c r="B11" s="818"/>
+      <c r="C11" s="818"/>
+      <c r="D11" s="818"/>
+      <c r="E11" s="818"/>
+      <c r="F11" s="818"/>
+      <c r="G11" s="818"/>
+      <c r="H11" s="818"/>
+      <c r="I11" s="818"/>
+      <c r="J11" s="818"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="805"/>
-      <c r="C12" s="805"/>
-      <c r="D12" s="805"/>
-      <c r="E12" s="805"/>
-      <c r="F12" s="805"/>
-      <c r="G12" s="805"/>
-      <c r="H12" s="805"/>
-      <c r="I12" s="805"/>
-      <c r="J12" s="805"/>
+      <c r="B12" s="818"/>
+      <c r="C12" s="818"/>
+      <c r="D12" s="818"/>
+      <c r="E12" s="818"/>
+      <c r="F12" s="818"/>
+      <c r="G12" s="818"/>
+      <c r="H12" s="818"/>
+      <c r="I12" s="818"/>
+      <c r="J12" s="818"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="39"/>
@@ -27929,22 +27929,22 @@
       <c r="B2" s="214" t="s">
         <v>556</v>
       </c>
-      <c r="D2" s="872" t="s">
+      <c r="D2" s="885" t="s">
         <v>577</v>
       </c>
-      <c r="E2" s="873"/>
-      <c r="K2" s="832" t="s">
+      <c r="E2" s="886"/>
+      <c r="K2" s="845" t="s">
         <v>620</v>
       </c>
-      <c r="L2" s="832"/>
-      <c r="M2" s="832"/>
-      <c r="N2" s="832"/>
-      <c r="O2" s="832"/>
-      <c r="P2" s="832"/>
-      <c r="Q2" s="832"/>
-      <c r="R2" s="832"/>
-      <c r="S2" s="832"/>
-      <c r="T2" s="832"/>
+      <c r="L2" s="845"/>
+      <c r="M2" s="845"/>
+      <c r="N2" s="845"/>
+      <c r="O2" s="845"/>
+      <c r="P2" s="845"/>
+      <c r="Q2" s="845"/>
+      <c r="R2" s="845"/>
+      <c r="S2" s="845"/>
+      <c r="T2" s="845"/>
     </row>
     <row r="3" spans="2:20" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="209" t="s">
@@ -27959,16 +27959,16 @@
       <c r="G3" t="s">
         <v>602</v>
       </c>
-      <c r="K3" s="832"/>
-      <c r="L3" s="832"/>
-      <c r="M3" s="832"/>
-      <c r="N3" s="832"/>
-      <c r="O3" s="832"/>
-      <c r="P3" s="832"/>
-      <c r="Q3" s="832"/>
-      <c r="R3" s="832"/>
-      <c r="S3" s="832"/>
-      <c r="T3" s="832"/>
+      <c r="K3" s="845"/>
+      <c r="L3" s="845"/>
+      <c r="M3" s="845"/>
+      <c r="N3" s="845"/>
+      <c r="O3" s="845"/>
+      <c r="P3" s="845"/>
+      <c r="Q3" s="845"/>
+      <c r="R3" s="845"/>
+      <c r="S3" s="845"/>
+      <c r="T3" s="845"/>
     </row>
     <row r="4" spans="2:20" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="210" t="s">
@@ -27987,16 +27987,16 @@
       <c r="G4" t="s">
         <v>603</v>
       </c>
-      <c r="K4" s="832"/>
-      <c r="L4" s="832"/>
-      <c r="M4" s="832"/>
-      <c r="N4" s="832"/>
-      <c r="O4" s="832"/>
-      <c r="P4" s="832"/>
-      <c r="Q4" s="832"/>
-      <c r="R4" s="832"/>
-      <c r="S4" s="832"/>
-      <c r="T4" s="832"/>
+      <c r="K4" s="845"/>
+      <c r="L4" s="845"/>
+      <c r="M4" s="845"/>
+      <c r="N4" s="845"/>
+      <c r="O4" s="845"/>
+      <c r="P4" s="845"/>
+      <c r="Q4" s="845"/>
+      <c r="R4" s="845"/>
+      <c r="S4" s="845"/>
+      <c r="T4" s="845"/>
     </row>
     <row r="5" spans="2:20" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="211" t="str" cm="1">
@@ -28006,16 +28006,16 @@
       <c r="C5" s="177" t="s">
         <v>576</v>
       </c>
-      <c r="K5" s="832"/>
-      <c r="L5" s="832"/>
-      <c r="M5" s="832"/>
-      <c r="N5" s="832"/>
-      <c r="O5" s="832"/>
-      <c r="P5" s="832"/>
-      <c r="Q5" s="832"/>
-      <c r="R5" s="832"/>
-      <c r="S5" s="832"/>
-      <c r="T5" s="832"/>
+      <c r="K5" s="845"/>
+      <c r="L5" s="845"/>
+      <c r="M5" s="845"/>
+      <c r="N5" s="845"/>
+      <c r="O5" s="845"/>
+      <c r="P5" s="845"/>
+      <c r="Q5" s="845"/>
+      <c r="R5" s="845"/>
+      <c r="S5" s="845"/>
+      <c r="T5" s="845"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="210"/>
@@ -28126,18 +28126,18 @@
       </c>
     </row>
     <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="832" t="s">
+      <c r="K20" s="845" t="s">
         <v>619</v>
       </c>
-      <c r="L20" s="832"/>
-      <c r="M20" s="832"/>
-      <c r="N20" s="832"/>
-      <c r="O20" s="832"/>
-      <c r="P20" s="832"/>
-      <c r="Q20" s="832"/>
-      <c r="R20" s="832"/>
-      <c r="S20" s="832"/>
-      <c r="T20" s="832"/>
+      <c r="L20" s="845"/>
+      <c r="M20" s="845"/>
+      <c r="N20" s="845"/>
+      <c r="O20" s="845"/>
+      <c r="P20" s="845"/>
+      <c r="Q20" s="845"/>
+      <c r="R20" s="845"/>
+      <c r="S20" s="845"/>
+      <c r="T20" s="845"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="145" t="s">
@@ -28155,16 +28155,16 @@
       <c r="F21" s="147" t="s">
         <v>841</v>
       </c>
-      <c r="K21" s="832"/>
-      <c r="L21" s="832"/>
-      <c r="M21" s="832"/>
-      <c r="N21" s="832"/>
-      <c r="O21" s="832"/>
-      <c r="P21" s="832"/>
-      <c r="Q21" s="832"/>
-      <c r="R21" s="832"/>
-      <c r="S21" s="832"/>
-      <c r="T21" s="832"/>
+      <c r="K21" s="845"/>
+      <c r="L21" s="845"/>
+      <c r="M21" s="845"/>
+      <c r="N21" s="845"/>
+      <c r="O21" s="845"/>
+      <c r="P21" s="845"/>
+      <c r="Q21" s="845"/>
+      <c r="R21" s="845"/>
+      <c r="S21" s="845"/>
+      <c r="T21" s="845"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="136"/>
@@ -28180,16 +28180,16 @@
       <c r="F22" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="832"/>
-      <c r="L22" s="832"/>
-      <c r="M22" s="832"/>
-      <c r="N22" s="832"/>
-      <c r="O22" s="832"/>
-      <c r="P22" s="832"/>
-      <c r="Q22" s="832"/>
-      <c r="R22" s="832"/>
-      <c r="S22" s="832"/>
-      <c r="T22" s="832"/>
+      <c r="K22" s="845"/>
+      <c r="L22" s="845"/>
+      <c r="M22" s="845"/>
+      <c r="N22" s="845"/>
+      <c r="O22" s="845"/>
+      <c r="P22" s="845"/>
+      <c r="Q22" s="845"/>
+      <c r="R22" s="845"/>
+      <c r="S22" s="845"/>
+      <c r="T22" s="845"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="139">
@@ -28211,16 +28211,16 @@
         <f>C23+D23+E23</f>
         <v>6365.3760000000002</v>
       </c>
-      <c r="K23" s="832"/>
-      <c r="L23" s="832"/>
-      <c r="M23" s="832"/>
-      <c r="N23" s="832"/>
-      <c r="O23" s="832"/>
-      <c r="P23" s="832"/>
-      <c r="Q23" s="832"/>
-      <c r="R23" s="832"/>
-      <c r="S23" s="832"/>
-      <c r="T23" s="832"/>
+      <c r="K23" s="845"/>
+      <c r="L23" s="845"/>
+      <c r="M23" s="845"/>
+      <c r="N23" s="845"/>
+      <c r="O23" s="845"/>
+      <c r="P23" s="845"/>
+      <c r="Q23" s="845"/>
+      <c r="R23" s="845"/>
+      <c r="S23" s="845"/>
+      <c r="T23" s="845"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="139">
@@ -28243,16 +28243,16 @@
         <f t="shared" ref="F24:F28" si="1">C24+D24+E24</f>
         <v>6578.9368320000003</v>
       </c>
-      <c r="K24" s="832"/>
-      <c r="L24" s="832"/>
-      <c r="M24" s="832"/>
-      <c r="N24" s="832"/>
-      <c r="O24" s="832"/>
-      <c r="P24" s="832"/>
-      <c r="Q24" s="832"/>
-      <c r="R24" s="832"/>
-      <c r="S24" s="832"/>
-      <c r="T24" s="832"/>
+      <c r="K24" s="845"/>
+      <c r="L24" s="845"/>
+      <c r="M24" s="845"/>
+      <c r="N24" s="845"/>
+      <c r="O24" s="845"/>
+      <c r="P24" s="845"/>
+      <c r="Q24" s="845"/>
+      <c r="R24" s="845"/>
+      <c r="S24" s="845"/>
+      <c r="T24" s="845"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="139">
@@ -28275,16 +28275,16 @@
         <f t="shared" si="1"/>
         <v>6810.009652224001</v>
       </c>
-      <c r="K25" s="832"/>
-      <c r="L25" s="832"/>
-      <c r="M25" s="832"/>
-      <c r="N25" s="832"/>
-      <c r="O25" s="832"/>
-      <c r="P25" s="832"/>
-      <c r="Q25" s="832"/>
-      <c r="R25" s="832"/>
-      <c r="S25" s="832"/>
-      <c r="T25" s="832"/>
+      <c r="K25" s="845"/>
+      <c r="L25" s="845"/>
+      <c r="M25" s="845"/>
+      <c r="N25" s="845"/>
+      <c r="O25" s="845"/>
+      <c r="P25" s="845"/>
+      <c r="Q25" s="845"/>
+      <c r="R25" s="845"/>
+      <c r="S25" s="845"/>
+      <c r="T25" s="845"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="139">
@@ -28307,16 +28307,16 @@
         <f t="shared" si="1"/>
         <v>7060.0304437063696</v>
       </c>
-      <c r="K26" s="832"/>
-      <c r="L26" s="832"/>
-      <c r="M26" s="832"/>
-      <c r="N26" s="832"/>
-      <c r="O26" s="832"/>
-      <c r="P26" s="832"/>
-      <c r="Q26" s="832"/>
-      <c r="R26" s="832"/>
-      <c r="S26" s="832"/>
-      <c r="T26" s="832"/>
+      <c r="K26" s="845"/>
+      <c r="L26" s="845"/>
+      <c r="M26" s="845"/>
+      <c r="N26" s="845"/>
+      <c r="O26" s="845"/>
+      <c r="P26" s="845"/>
+      <c r="Q26" s="845"/>
+      <c r="R26" s="845"/>
+      <c r="S26" s="845"/>
+      <c r="T26" s="845"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="139">
@@ -28339,16 +28339,16 @@
         <f t="shared" si="1"/>
         <v>7330.5529400902924</v>
       </c>
-      <c r="K27" s="832"/>
-      <c r="L27" s="832"/>
-      <c r="M27" s="832"/>
-      <c r="N27" s="832"/>
-      <c r="O27" s="832"/>
-      <c r="P27" s="832"/>
-      <c r="Q27" s="832"/>
-      <c r="R27" s="832"/>
-      <c r="S27" s="832"/>
-      <c r="T27" s="832"/>
+      <c r="K27" s="845"/>
+      <c r="L27" s="845"/>
+      <c r="M27" s="845"/>
+      <c r="N27" s="845"/>
+      <c r="O27" s="845"/>
+      <c r="P27" s="845"/>
+      <c r="Q27" s="845"/>
+      <c r="R27" s="845"/>
+      <c r="S27" s="845"/>
+      <c r="T27" s="845"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="139">
@@ -28371,16 +28371,16 @@
         <f t="shared" si="1"/>
         <v>7623.2582811776965</v>
       </c>
-      <c r="K28" s="832"/>
-      <c r="L28" s="832"/>
-      <c r="M28" s="832"/>
-      <c r="N28" s="832"/>
-      <c r="O28" s="832"/>
-      <c r="P28" s="832"/>
-      <c r="Q28" s="832"/>
-      <c r="R28" s="832"/>
-      <c r="S28" s="832"/>
-      <c r="T28" s="832"/>
+      <c r="K28" s="845"/>
+      <c r="L28" s="845"/>
+      <c r="M28" s="845"/>
+      <c r="N28" s="845"/>
+      <c r="O28" s="845"/>
+      <c r="P28" s="845"/>
+      <c r="Q28" s="845"/>
+      <c r="R28" s="845"/>
+      <c r="S28" s="845"/>
+      <c r="T28" s="845"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="65"/>
@@ -29046,10 +29046,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="872" t="s">
+      <c r="B2" s="885" t="s">
         <v>578</v>
       </c>
-      <c r="C2" s="873"/>
+      <c r="C2" s="886"/>
       <c r="F2" t="s">
         <v>602</v>
       </c>
@@ -29079,11 +29079,11 @@
     </row>
     <row r="5" spans="2:6" ht="68.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="874" t="s">
+      <c r="B6" s="887" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="875"/>
-      <c r="D6" s="876"/>
+      <c r="C6" s="888"/>
+      <c r="D6" s="889"/>
     </row>
     <row r="7" spans="2:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="62" t="s">
@@ -30500,60 +30500,60 @@
       <c r="C18" s="11"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="805" t="s">
+      <c r="B37" s="818" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="805"/>
-      <c r="D37" s="805"/>
-      <c r="E37" s="805"/>
-      <c r="F37" s="805"/>
-      <c r="G37" s="805"/>
-      <c r="H37" s="805"/>
+      <c r="C37" s="818"/>
+      <c r="D37" s="818"/>
+      <c r="E37" s="818"/>
+      <c r="F37" s="818"/>
+      <c r="G37" s="818"/>
+      <c r="H37" s="818"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="805"/>
-      <c r="C38" s="805"/>
-      <c r="D38" s="805"/>
-      <c r="E38" s="805"/>
-      <c r="F38" s="805"/>
-      <c r="G38" s="805"/>
-      <c r="H38" s="805"/>
+      <c r="B38" s="818"/>
+      <c r="C38" s="818"/>
+      <c r="D38" s="818"/>
+      <c r="E38" s="818"/>
+      <c r="F38" s="818"/>
+      <c r="G38" s="818"/>
+      <c r="H38" s="818"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="805"/>
-      <c r="C39" s="805"/>
-      <c r="D39" s="805"/>
-      <c r="E39" s="805"/>
-      <c r="F39" s="805"/>
-      <c r="G39" s="805"/>
-      <c r="H39" s="805"/>
+      <c r="B39" s="818"/>
+      <c r="C39" s="818"/>
+      <c r="D39" s="818"/>
+      <c r="E39" s="818"/>
+      <c r="F39" s="818"/>
+      <c r="G39" s="818"/>
+      <c r="H39" s="818"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="805"/>
-      <c r="C40" s="805"/>
-      <c r="D40" s="805"/>
-      <c r="E40" s="805"/>
-      <c r="F40" s="805"/>
-      <c r="G40" s="805"/>
-      <c r="H40" s="805"/>
+      <c r="B40" s="818"/>
+      <c r="C40" s="818"/>
+      <c r="D40" s="818"/>
+      <c r="E40" s="818"/>
+      <c r="F40" s="818"/>
+      <c r="G40" s="818"/>
+      <c r="H40" s="818"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="805"/>
-      <c r="C41" s="805"/>
-      <c r="D41" s="805"/>
-      <c r="E41" s="805"/>
-      <c r="F41" s="805"/>
-      <c r="G41" s="805"/>
-      <c r="H41" s="805"/>
+      <c r="B41" s="818"/>
+      <c r="C41" s="818"/>
+      <c r="D41" s="818"/>
+      <c r="E41" s="818"/>
+      <c r="F41" s="818"/>
+      <c r="G41" s="818"/>
+      <c r="H41" s="818"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="805"/>
-      <c r="C42" s="805"/>
-      <c r="D42" s="805"/>
-      <c r="E42" s="805"/>
-      <c r="F42" s="805"/>
-      <c r="G42" s="805"/>
-      <c r="H42" s="805"/>
+      <c r="B42" s="818"/>
+      <c r="C42" s="818"/>
+      <c r="D42" s="818"/>
+      <c r="E42" s="818"/>
+      <c r="F42" s="818"/>
+      <c r="G42" s="818"/>
+      <c r="H42" s="818"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30666,26 +30666,26 @@
       <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="844" t="s">
+      <c r="A9" s="869" t="s">
         <v>964</v>
       </c>
-      <c r="B9" s="877"/>
-      <c r="C9" s="877"/>
-      <c r="D9" s="877"/>
-      <c r="E9" s="877"/>
-      <c r="F9" s="877"/>
-      <c r="G9" s="877"/>
-      <c r="H9" s="878"/>
+      <c r="B9" s="890"/>
+      <c r="C9" s="890"/>
+      <c r="D9" s="890"/>
+      <c r="E9" s="890"/>
+      <c r="F9" s="890"/>
+      <c r="G9" s="890"/>
+      <c r="H9" s="891"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="844"/>
-      <c r="B10" s="877"/>
-      <c r="C10" s="877"/>
-      <c r="D10" s="877"/>
-      <c r="E10" s="877"/>
-      <c r="F10" s="877"/>
-      <c r="G10" s="877"/>
-      <c r="H10" s="878"/>
+      <c r="A10" s="869"/>
+      <c r="B10" s="890"/>
+      <c r="C10" s="890"/>
+      <c r="D10" s="890"/>
+      <c r="E10" s="890"/>
+      <c r="F10" s="890"/>
+      <c r="G10" s="890"/>
+      <c r="H10" s="891"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="498"/>
@@ -30744,26 +30744,26 @@
       <c r="H15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="826" t="s">
+      <c r="A16" s="839" t="s">
         <v>973</v>
       </c>
-      <c r="B16" s="827"/>
-      <c r="C16" s="827"/>
-      <c r="D16" s="827"/>
-      <c r="E16" s="827"/>
-      <c r="F16" s="827"/>
-      <c r="G16" s="827"/>
-      <c r="H16" s="828"/>
+      <c r="B16" s="840"/>
+      <c r="C16" s="840"/>
+      <c r="D16" s="840"/>
+      <c r="E16" s="840"/>
+      <c r="F16" s="840"/>
+      <c r="G16" s="840"/>
+      <c r="H16" s="841"/>
     </row>
     <row r="17" spans="1:8" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="829"/>
-      <c r="B17" s="830"/>
-      <c r="C17" s="830"/>
-      <c r="D17" s="830"/>
-      <c r="E17" s="830"/>
-      <c r="F17" s="830"/>
-      <c r="G17" s="830"/>
-      <c r="H17" s="831"/>
+      <c r="A17" s="842"/>
+      <c r="B17" s="843"/>
+      <c r="C17" s="843"/>
+      <c r="D17" s="843"/>
+      <c r="E17" s="843"/>
+      <c r="F17" s="843"/>
+      <c r="G17" s="843"/>
+      <c r="H17" s="844"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="420"/>
@@ -30815,16 +30815,16 @@
       <c r="H22" s="68"/>
     </row>
     <row r="23" spans="1:8" s="420" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="844" t="s">
+      <c r="A23" s="869" t="s">
         <v>970</v>
       </c>
-      <c r="B23" s="877"/>
-      <c r="C23" s="877"/>
-      <c r="D23" s="877"/>
-      <c r="E23" s="877"/>
-      <c r="F23" s="877"/>
-      <c r="G23" s="877"/>
-      <c r="H23" s="878"/>
+      <c r="B23" s="890"/>
+      <c r="C23" s="890"/>
+      <c r="D23" s="890"/>
+      <c r="E23" s="890"/>
+      <c r="F23" s="890"/>
+      <c r="G23" s="890"/>
+      <c r="H23" s="891"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
@@ -30849,16 +30849,16 @@
       <c r="H25" s="68"/>
     </row>
     <row r="26" spans="1:8" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="879" t="s">
+      <c r="A26" s="892" t="s">
         <v>972</v>
       </c>
-      <c r="B26" s="880"/>
-      <c r="C26" s="880"/>
-      <c r="D26" s="880"/>
-      <c r="E26" s="880"/>
-      <c r="F26" s="880"/>
-      <c r="G26" s="880"/>
-      <c r="H26" s="881"/>
+      <c r="B26" s="893"/>
+      <c r="C26" s="893"/>
+      <c r="D26" s="893"/>
+      <c r="E26" s="893"/>
+      <c r="F26" s="893"/>
+      <c r="G26" s="893"/>
+      <c r="H26" s="894"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="495" t="s">
@@ -33248,38 +33248,38 @@
         <v>158</v>
       </c>
       <c r="C55" s="34"/>
-      <c r="K55" s="833" t="s">
+      <c r="K55" s="846" t="s">
         <v>313</v>
       </c>
-      <c r="L55" s="833"/>
-      <c r="M55" s="833"/>
+      <c r="L55" s="846"/>
+      <c r="M55" s="846"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="s">
         <v>159</v>
       </c>
       <c r="C56" s="34"/>
-      <c r="K56" s="833"/>
-      <c r="L56" s="833"/>
-      <c r="M56" s="833"/>
+      <c r="K56" s="846"/>
+      <c r="L56" s="846"/>
+      <c r="M56" s="846"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="s">
         <v>152</v>
       </c>
       <c r="C57" s="14"/>
-      <c r="K57" s="833"/>
-      <c r="L57" s="833"/>
-      <c r="M57" s="833"/>
+      <c r="K57" s="846"/>
+      <c r="L57" s="846"/>
+      <c r="M57" s="846"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C58" s="14"/>
-      <c r="K58" s="833"/>
-      <c r="L58" s="833"/>
-      <c r="M58" s="833"/>
+      <c r="K58" s="846"/>
+      <c r="L58" s="846"/>
+      <c r="M58" s="846"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
@@ -33891,10 +33891,10 @@
       <c r="G2" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H2" s="882" t="s">
+      <c r="H2" s="895" t="s">
         <v>1827</v>
       </c>
-      <c r="I2" s="882"/>
+      <c r="I2" s="895"/>
       <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
@@ -34368,7 +34368,7 @@
       <c r="B2" s="593" t="s">
         <v>654</v>
       </c>
-      <c r="C2" s="883" t="s">
+      <c r="C2" s="896" t="s">
         <v>655</v>
       </c>
       <c r="D2" s="597"/>
@@ -34378,7 +34378,7 @@
       <c r="B3" s="594" t="s">
         <v>1287</v>
       </c>
-      <c r="C3" s="884"/>
+      <c r="C3" s="897"/>
       <c r="D3" s="597"/>
       <c r="E3" s="597"/>
     </row>
@@ -34386,7 +34386,7 @@
       <c r="B4" s="595" t="s">
         <v>717</v>
       </c>
-      <c r="C4" s="885"/>
+      <c r="C4" s="898"/>
       <c r="D4" s="597"/>
       <c r="E4" s="597"/>
     </row>
@@ -35267,11 +35267,11 @@
       <c r="C38" s="592" t="s">
         <v>1312</v>
       </c>
-      <c r="D38" s="886">
+      <c r="D38" s="899">
         <f>E36-(SUM(E34:E35))</f>
         <v>0</v>
       </c>
-      <c r="E38" s="887"/>
+      <c r="E38" s="900"/>
       <c r="Q38" t="s">
         <v>1</v>
       </c>
@@ -36299,7 +36299,7 @@
       <c r="B2" s="593" t="s">
         <v>654</v>
       </c>
-      <c r="C2" s="883" t="s">
+      <c r="C2" s="896" t="s">
         <v>655</v>
       </c>
       <c r="D2" s="597"/>
@@ -36319,7 +36319,7 @@
       <c r="B3" s="594" t="s">
         <v>1287</v>
       </c>
-      <c r="C3" s="884"/>
+      <c r="C3" s="897"/>
       <c r="D3" s="597"/>
       <c r="E3" s="597"/>
       <c r="I3" s="273" t="s">
@@ -36337,7 +36337,7 @@
       <c r="B4" s="595" t="s">
         <v>717</v>
       </c>
-      <c r="C4" s="885"/>
+      <c r="C4" s="898"/>
       <c r="D4" s="597"/>
       <c r="E4" s="597"/>
       <c r="I4" s="273" t="s">
@@ -38144,7 +38144,7 @@
       <c r="B2" s="226" t="s">
         <v>654</v>
       </c>
-      <c r="C2" s="808" t="s">
+      <c r="C2" s="822" t="s">
         <v>655</v>
       </c>
       <c r="D2" s="227"/>
@@ -38191,57 +38191,57 @@
       <c r="B3" s="229" t="s">
         <v>656</v>
       </c>
-      <c r="C3" s="809"/>
+      <c r="C3" s="827"/>
       <c r="D3" s="227"/>
       <c r="E3" s="227"/>
       <c r="F3" s="282"/>
-      <c r="G3" s="806">
+      <c r="G3" s="819">
         <v>1</v>
       </c>
-      <c r="H3" s="811"/>
-      <c r="I3" s="806">
+      <c r="H3" s="825"/>
+      <c r="I3" s="819">
         <v>2</v>
       </c>
-      <c r="J3" s="811"/>
-      <c r="K3" s="806">
+      <c r="J3" s="825"/>
+      <c r="K3" s="819">
         <v>3</v>
       </c>
-      <c r="L3" s="807"/>
-      <c r="M3" s="811">
+      <c r="L3" s="820"/>
+      <c r="M3" s="825">
         <v>4</v>
       </c>
-      <c r="N3" s="807"/>
-      <c r="O3" s="806">
+      <c r="N3" s="820"/>
+      <c r="O3" s="819">
         <v>5</v>
       </c>
-      <c r="P3" s="807"/>
-      <c r="Q3" s="806">
+      <c r="P3" s="820"/>
+      <c r="Q3" s="819">
         <v>6</v>
       </c>
-      <c r="R3" s="807"/>
-      <c r="S3" s="806">
+      <c r="R3" s="820"/>
+      <c r="S3" s="819">
         <v>7</v>
       </c>
-      <c r="T3" s="807"/>
-      <c r="U3" s="806">
+      <c r="T3" s="820"/>
+      <c r="U3" s="819">
         <v>8</v>
       </c>
-      <c r="V3" s="807"/>
-      <c r="W3" s="806">
+      <c r="V3" s="820"/>
+      <c r="W3" s="819">
         <v>9</v>
       </c>
-      <c r="X3" s="807"/>
-      <c r="Y3" s="806">
+      <c r="X3" s="820"/>
+      <c r="Y3" s="819">
         <v>10</v>
       </c>
-      <c r="Z3" s="807"/>
+      <c r="Z3" s="820"/>
       <c r="AA3" s="310"/>
     </row>
     <row r="4" spans="2:72" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="230" t="s">
         <v>870</v>
       </c>
-      <c r="C4" s="810"/>
+      <c r="C4" s="828"/>
       <c r="D4" s="231" t="s">
         <v>657</v>
       </c>
@@ -38784,25 +38784,25 @@
         <v>1000</v>
       </c>
       <c r="AV12" s="11"/>
-      <c r="BD12" s="815"/>
-      <c r="BE12" s="815"/>
-      <c r="BF12" s="815"/>
-      <c r="BG12" s="815"/>
-      <c r="BH12" s="815"/>
-      <c r="BI12" s="815"/>
-      <c r="BJ12" s="815"/>
-      <c r="BK12" s="815"/>
-      <c r="BL12" s="812" t="s">
+      <c r="BD12" s="826"/>
+      <c r="BE12" s="826"/>
+      <c r="BF12" s="826"/>
+      <c r="BG12" s="826"/>
+      <c r="BH12" s="826"/>
+      <c r="BI12" s="826"/>
+      <c r="BJ12" s="826"/>
+      <c r="BK12" s="826"/>
+      <c r="BL12" s="821" t="s">
         <v>760</v>
       </c>
-      <c r="BM12" s="812"/>
-      <c r="BN12" s="812"/>
-      <c r="BO12" s="812"/>
-      <c r="BP12" s="812"/>
-      <c r="BQ12" s="812"/>
-      <c r="BR12" s="812"/>
-      <c r="BS12" s="812"/>
-      <c r="BT12" s="812"/>
+      <c r="BM12" s="821"/>
+      <c r="BN12" s="821"/>
+      <c r="BO12" s="821"/>
+      <c r="BP12" s="821"/>
+      <c r="BQ12" s="821"/>
+      <c r="BR12" s="821"/>
+      <c r="BS12" s="821"/>
+      <c r="BT12" s="821"/>
     </row>
     <row r="13" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="232" t="s">
@@ -38859,23 +38859,23 @@
       <c r="AU13" s="14">
         <v>200</v>
       </c>
-      <c r="BD13" s="815"/>
-      <c r="BE13" s="815"/>
-      <c r="BF13" s="815"/>
-      <c r="BG13" s="815"/>
-      <c r="BH13" s="815"/>
-      <c r="BI13" s="815"/>
-      <c r="BJ13" s="815"/>
-      <c r="BK13" s="815"/>
-      <c r="BL13" s="812"/>
-      <c r="BM13" s="812"/>
-      <c r="BN13" s="812"/>
-      <c r="BO13" s="812"/>
-      <c r="BP13" s="812"/>
-      <c r="BQ13" s="812"/>
-      <c r="BR13" s="812"/>
-      <c r="BS13" s="812"/>
-      <c r="BT13" s="812"/>
+      <c r="BD13" s="826"/>
+      <c r="BE13" s="826"/>
+      <c r="BF13" s="826"/>
+      <c r="BG13" s="826"/>
+      <c r="BH13" s="826"/>
+      <c r="BI13" s="826"/>
+      <c r="BJ13" s="826"/>
+      <c r="BK13" s="826"/>
+      <c r="BL13" s="821"/>
+      <c r="BM13" s="821"/>
+      <c r="BN13" s="821"/>
+      <c r="BO13" s="821"/>
+      <c r="BP13" s="821"/>
+      <c r="BQ13" s="821"/>
+      <c r="BR13" s="821"/>
+      <c r="BS13" s="821"/>
+      <c r="BT13" s="821"/>
     </row>
     <row r="14" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="232" t="s">
@@ -38922,23 +38922,23 @@
         <v>3260</v>
       </c>
       <c r="AV14" s="275"/>
-      <c r="BD14" s="815"/>
-      <c r="BE14" s="815"/>
-      <c r="BF14" s="815"/>
-      <c r="BG14" s="815"/>
-      <c r="BH14" s="815"/>
-      <c r="BI14" s="815"/>
-      <c r="BJ14" s="815"/>
-      <c r="BK14" s="815"/>
-      <c r="BL14" s="812"/>
-      <c r="BM14" s="812"/>
-      <c r="BN14" s="812"/>
-      <c r="BO14" s="812"/>
-      <c r="BP14" s="812"/>
-      <c r="BQ14" s="812"/>
-      <c r="BR14" s="812"/>
-      <c r="BS14" s="812"/>
-      <c r="BT14" s="812"/>
+      <c r="BD14" s="826"/>
+      <c r="BE14" s="826"/>
+      <c r="BF14" s="826"/>
+      <c r="BG14" s="826"/>
+      <c r="BH14" s="826"/>
+      <c r="BI14" s="826"/>
+      <c r="BJ14" s="826"/>
+      <c r="BK14" s="826"/>
+      <c r="BL14" s="821"/>
+      <c r="BM14" s="821"/>
+      <c r="BN14" s="821"/>
+      <c r="BO14" s="821"/>
+      <c r="BP14" s="821"/>
+      <c r="BQ14" s="821"/>
+      <c r="BR14" s="821"/>
+      <c r="BS14" s="821"/>
+      <c r="BT14" s="821"/>
     </row>
     <row r="15" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="232" t="s">
@@ -38985,23 +38985,23 @@
         <f>SUM(AU12:AU15)</f>
         <v>4460</v>
       </c>
-      <c r="BD15" s="815"/>
-      <c r="BE15" s="815"/>
-      <c r="BF15" s="815"/>
-      <c r="BG15" s="815"/>
-      <c r="BH15" s="815"/>
-      <c r="BI15" s="815"/>
-      <c r="BJ15" s="815"/>
-      <c r="BK15" s="815"/>
-      <c r="BL15" s="812"/>
-      <c r="BM15" s="812"/>
-      <c r="BN15" s="812"/>
-      <c r="BO15" s="812"/>
-      <c r="BP15" s="812"/>
-      <c r="BQ15" s="812"/>
-      <c r="BR15" s="812"/>
-      <c r="BS15" s="812"/>
-      <c r="BT15" s="812"/>
+      <c r="BD15" s="826"/>
+      <c r="BE15" s="826"/>
+      <c r="BF15" s="826"/>
+      <c r="BG15" s="826"/>
+      <c r="BH15" s="826"/>
+      <c r="BI15" s="826"/>
+      <c r="BJ15" s="826"/>
+      <c r="BK15" s="826"/>
+      <c r="BL15" s="821"/>
+      <c r="BM15" s="821"/>
+      <c r="BN15" s="821"/>
+      <c r="BO15" s="821"/>
+      <c r="BP15" s="821"/>
+      <c r="BQ15" s="821"/>
+      <c r="BR15" s="821"/>
+      <c r="BS15" s="821"/>
+      <c r="BT15" s="821"/>
     </row>
     <row r="16" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="232"/>
@@ -40982,7 +40982,7 @@
       <c r="B59" s="226" t="s">
         <v>654</v>
       </c>
-      <c r="C59" s="808" t="s">
+      <c r="C59" s="822" t="s">
         <v>655</v>
       </c>
       <c r="D59" s="231" t="s">
@@ -41027,50 +41027,50 @@
       <c r="B60" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="813"/>
+      <c r="C60" s="823"/>
       <c r="D60" s="227"/>
       <c r="E60" s="227"/>
       <c r="F60" s="282"/>
-      <c r="G60" s="806">
+      <c r="G60" s="819">
         <v>1</v>
       </c>
-      <c r="H60" s="811"/>
-      <c r="I60" s="806">
+      <c r="H60" s="825"/>
+      <c r="I60" s="819">
         <v>2</v>
       </c>
-      <c r="J60" s="811"/>
-      <c r="K60" s="806">
+      <c r="J60" s="825"/>
+      <c r="K60" s="819">
         <v>3</v>
       </c>
-      <c r="L60" s="807"/>
-      <c r="M60" s="811">
+      <c r="L60" s="820"/>
+      <c r="M60" s="825">
         <v>4</v>
       </c>
-      <c r="N60" s="807"/>
-      <c r="O60" s="806">
+      <c r="N60" s="820"/>
+      <c r="O60" s="819">
         <v>5</v>
       </c>
-      <c r="P60" s="807"/>
-      <c r="Q60" s="806">
+      <c r="P60" s="820"/>
+      <c r="Q60" s="819">
         <v>6</v>
       </c>
-      <c r="R60" s="807"/>
-      <c r="S60" s="806">
+      <c r="R60" s="820"/>
+      <c r="S60" s="819">
         <v>7</v>
       </c>
-      <c r="T60" s="807"/>
-      <c r="U60" s="811">
+      <c r="T60" s="820"/>
+      <c r="U60" s="825">
         <v>8</v>
       </c>
-      <c r="V60" s="811"/>
-      <c r="W60" s="811">
+      <c r="V60" s="825"/>
+      <c r="W60" s="825">
         <v>9</v>
       </c>
-      <c r="X60" s="807"/>
-      <c r="Y60" s="806">
+      <c r="X60" s="820"/>
+      <c r="Y60" s="819">
         <v>10</v>
       </c>
-      <c r="Z60" s="807"/>
+      <c r="Z60" s="820"/>
       <c r="AA60" s="310"/>
       <c r="AM60" s="267" t="s">
         <v>777</v>
@@ -41093,7 +41093,7 @@
       <c r="B61" s="230" t="s">
         <v>717</v>
       </c>
-      <c r="C61" s="814"/>
+      <c r="C61" s="824"/>
       <c r="D61" s="231" t="s">
         <v>657</v>
       </c>
@@ -43705,6 +43705,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
@@ -43721,14 +43729,6 @@
     <mergeCell ref="BD12:BK15"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45516,7 +45516,7 @@
         <f>E19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="888">
+      <c r="H19" s="901">
         <v>1</v>
       </c>
       <c r="I19" s="66" t="s">
@@ -45542,7 +45542,7 @@
       <c r="D20" s="111"/>
       <c r="E20" s="111"/>
       <c r="F20" s="140"/>
-      <c r="H20" s="888"/>
+      <c r="H20" s="901"/>
       <c r="I20" s="151" t="s">
         <v>882</v>
       </c>
@@ -45574,7 +45574,7 @@
         <f>E21-E19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="888">
+      <c r="H21" s="901">
         <v>2</v>
       </c>
       <c r="I21" s="66" t="s">
@@ -45597,7 +45597,7 @@
       <c r="D22" s="111"/>
       <c r="E22" s="111"/>
       <c r="F22" s="140"/>
-      <c r="H22" s="888"/>
+      <c r="H22" s="901"/>
       <c r="I22" s="151" t="s">
         <v>882</v>
       </c>
@@ -45629,7 +45629,7 @@
         <f>E23-E21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="888">
+      <c r="H23" s="901">
         <v>3</v>
       </c>
       <c r="I23" s="66" t="s">
@@ -45652,7 +45652,7 @@
       <c r="D24" s="73"/>
       <c r="E24" s="73"/>
       <c r="F24" s="82"/>
-      <c r="H24" s="889"/>
+      <c r="H24" s="902"/>
       <c r="I24" s="649" t="s">
         <v>882</v>
       </c>
@@ -45994,7 +45994,7 @@
         <f>E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="888">
+      <c r="H74" s="901">
         <v>1</v>
       </c>
       <c r="I74" s="66" t="s">
@@ -46015,7 +46015,7 @@
       <c r="D75" s="111"/>
       <c r="E75" s="66"/>
       <c r="F75" s="140"/>
-      <c r="H75" s="888"/>
+      <c r="H75" s="901"/>
       <c r="I75" s="151" t="s">
         <v>882</v>
       </c>
@@ -46045,7 +46045,7 @@
         <f>E76-E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="888">
+      <c r="H76" s="901">
         <v>2</v>
       </c>
       <c r="I76" s="66" t="s">
@@ -46065,7 +46065,7 @@
       <c r="D77" s="111"/>
       <c r="E77" s="111"/>
       <c r="F77" s="140"/>
-      <c r="H77" s="888"/>
+      <c r="H77" s="901"/>
       <c r="I77" s="151" t="s">
         <v>882</v>
       </c>
@@ -46097,7 +46097,7 @@
         <f>E78-E76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H78" s="888">
+      <c r="H78" s="901">
         <v>3</v>
       </c>
       <c r="I78" s="66" t="s">
@@ -46117,7 +46117,7 @@
       <c r="D79" s="73"/>
       <c r="E79" s="73"/>
       <c r="F79" s="82"/>
-      <c r="H79" s="889"/>
+      <c r="H79" s="902"/>
       <c r="I79" s="649" t="s">
         <v>882</v>
       </c>
@@ -46626,7 +46626,7 @@
         <f>G146</f>
         <v>788333</v>
       </c>
-      <c r="J146" s="888">
+      <c r="J146" s="901">
         <v>1</v>
       </c>
       <c r="K146" s="66" t="s">
@@ -46651,7 +46651,7 @@
       <c r="F147" s="66"/>
       <c r="G147" s="111"/>
       <c r="H147" s="140"/>
-      <c r="J147" s="888"/>
+      <c r="J147" s="901"/>
       <c r="K147" s="151" t="s">
         <v>1499</v>
       </c>
@@ -46688,7 +46688,7 @@
         <f>G148-G146</f>
         <v>-788333</v>
       </c>
-      <c r="J148" s="888">
+      <c r="J148" s="901">
         <v>2</v>
       </c>
       <c r="K148" s="66" t="s">
@@ -46710,7 +46710,7 @@
       <c r="F149" s="66"/>
       <c r="G149" s="111"/>
       <c r="H149" s="140"/>
-      <c r="J149" s="888"/>
+      <c r="J149" s="901"/>
       <c r="K149" s="151" t="s">
         <v>1499</v>
       </c>
@@ -46747,7 +46747,7 @@
         <f>G150-G148</f>
         <v>0</v>
       </c>
-      <c r="J150" s="888">
+      <c r="J150" s="901">
         <v>3</v>
       </c>
       <c r="K150" s="66" t="s">
@@ -46769,7 +46769,7 @@
       <c r="F151" s="73"/>
       <c r="G151" s="73"/>
       <c r="H151" s="82"/>
-      <c r="J151" s="889"/>
+      <c r="J151" s="902"/>
       <c r="K151" s="649" t="s">
         <v>1499</v>
       </c>
@@ -48089,11 +48089,11 @@
       <c r="E4" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="816" t="s">
+      <c r="K4" s="829" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="816"/>
-      <c r="M4" s="816"/>
+      <c r="L4" s="829"/>
+      <c r="M4" s="829"/>
       <c r="T4" t="s">
         <v>121</v>
       </c>
@@ -48111,9 +48111,9 @@
       <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="816"/>
-      <c r="L5" s="816"/>
-      <c r="M5" s="816"/>
+      <c r="K5" s="829"/>
+      <c r="L5" s="829"/>
+      <c r="M5" s="829"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
@@ -48866,8 +48866,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="B2:CA139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BE39" sqref="BE39"/>
+    <sheetView tabSelected="1" topLeftCell="AX83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BB106" sqref="BB106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48939,7 +48939,7 @@
         <v>860</v>
       </c>
       <c r="BB2" s="266">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="BJ2" s="273"/>
       <c r="BK2" s="273"/>
@@ -48984,26 +48984,24 @@
     </row>
     <row r="5" spans="2:79" x14ac:dyDescent="0.25">
       <c r="AZ5" s="428">
-        <v>41282</v>
+        <v>43770</v>
       </c>
       <c r="BA5" s="450">
-        <f>0.8*BB2</f>
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="BB5" s="450">
-        <v>1875</v>
+        <v>100</v>
       </c>
       <c r="BC5" s="450">
-        <f>+BB5</f>
-        <v>1875</v>
+        <v>120</v>
       </c>
       <c r="BD5" s="429">
         <f>BA5/$BB$2</f>
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="BE5" s="401" t="str">
         <f>IF(BD5&gt;0.5,"Control achieved"," ")</f>
-        <v>Control achieved</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="BJ5" s="273"/>
       <c r="BK5" s="273"/>
@@ -49016,7 +49014,7 @@
       <c r="B6" s="226" t="s">
         <v>1748</v>
       </c>
-      <c r="C6" s="808" t="s">
+      <c r="C6" s="822" t="s">
         <v>655</v>
       </c>
       <c r="D6" s="227"/>
@@ -49057,27 +49055,35 @@
       </c>
       <c r="AU6" s="365">
         <f>SUM(AU10:AU1048576)</f>
-        <v>5050.8</v>
+        <v>2151.1</v>
       </c>
       <c r="AV6" s="365">
         <f>SUM(AV10:AV1048576)</f>
-        <v>5050.8</v>
+        <v>2151.1</v>
       </c>
       <c r="AW6" s="365">
         <f>AV6-AU6</f>
         <v>0</v>
       </c>
-      <c r="AZ6" s="428"/>
-      <c r="BA6" s="450"/>
-      <c r="BB6" s="450"/>
-      <c r="BC6" s="450"/>
+      <c r="AZ6" s="428">
+        <v>44562</v>
+      </c>
+      <c r="BA6" s="450">
+        <v>150</v>
+      </c>
+      <c r="BB6" s="450">
+        <v>966</v>
+      </c>
+      <c r="BC6" s="450">
+        <v>966</v>
+      </c>
       <c r="BD6" s="429">
         <f>SUM(BA5:BA6)/$BB$2</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="BE6" s="401" t="str">
         <f>IF(AND(BD7&gt;0.5,BE5=" "),"Control achieved"," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Control achieved</v>
       </c>
       <c r="BJ6" s="273"/>
       <c r="BK6" s="273"/>
@@ -49090,75 +49096,84 @@
       <c r="B7" s="229" t="s">
         <v>656</v>
       </c>
-      <c r="C7" s="809"/>
+      <c r="C7" s="827"/>
       <c r="D7" s="227"/>
       <c r="E7" s="227"/>
       <c r="F7" s="227"/>
       <c r="G7" s="282"/>
-      <c r="H7" s="806">
+      <c r="H7" s="819">
         <v>1</v>
       </c>
-      <c r="I7" s="811"/>
-      <c r="J7" s="806">
+      <c r="I7" s="825"/>
+      <c r="J7" s="819">
         <v>2</v>
       </c>
-      <c r="K7" s="807"/>
-      <c r="L7" s="811">
+      <c r="K7" s="820"/>
+      <c r="L7" s="825">
         <v>3</v>
       </c>
-      <c r="M7" s="811"/>
-      <c r="N7" s="806">
+      <c r="M7" s="825"/>
+      <c r="N7" s="819">
         <v>4</v>
       </c>
-      <c r="O7" s="807"/>
-      <c r="P7" s="811">
+      <c r="O7" s="820"/>
+      <c r="P7" s="825">
         <v>5</v>
       </c>
-      <c r="Q7" s="807"/>
-      <c r="R7" s="806">
+      <c r="Q7" s="820"/>
+      <c r="R7" s="819">
         <v>6</v>
       </c>
-      <c r="S7" s="807"/>
-      <c r="T7" s="806">
+      <c r="S7" s="820"/>
+      <c r="T7" s="819">
         <v>7</v>
       </c>
-      <c r="U7" s="807"/>
-      <c r="V7" s="806">
+      <c r="U7" s="820"/>
+      <c r="V7" s="819">
         <v>8</v>
       </c>
-      <c r="W7" s="807"/>
-      <c r="X7" s="806">
+      <c r="W7" s="820"/>
+      <c r="X7" s="819">
         <v>9</v>
       </c>
-      <c r="Y7" s="807"/>
-      <c r="Z7" s="806">
+      <c r="Y7" s="820"/>
+      <c r="Z7" s="819">
         <v>10</v>
       </c>
-      <c r="AA7" s="811"/>
-      <c r="AB7" s="806">
+      <c r="AA7" s="825"/>
+      <c r="AB7" s="819">
         <v>11</v>
       </c>
-      <c r="AC7" s="807"/>
-      <c r="AD7" s="811">
+      <c r="AC7" s="820"/>
+      <c r="AD7" s="825">
         <v>12</v>
       </c>
-      <c r="AE7" s="807"/>
-      <c r="AF7" s="806">
+      <c r="AE7" s="820"/>
+      <c r="AF7" s="819">
         <v>13</v>
       </c>
-      <c r="AG7" s="807"/>
+      <c r="AG7" s="820"/>
       <c r="AH7" s="310"/>
-      <c r="AZ7" s="428"/>
-      <c r="BA7" s="450"/>
-      <c r="BB7" s="450"/>
-      <c r="BC7" s="450"/>
+      <c r="AZ7" s="428">
+        <v>44743</v>
+      </c>
+      <c r="BA7" s="450">
+        <v>38</v>
+      </c>
+      <c r="BB7" s="450">
+        <v>265</v>
+      </c>
+      <c r="BC7" s="450">
+        <f>BB7</f>
+        <v>265</v>
+      </c>
       <c r="BD7" s="429">
         <f>SUM(BA5:BA7)/$BB$2</f>
-        <v>0.8</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="BE7" s="401" t="str">
         <f>IF(AND(BD8&gt;0.5,BE6=" "),"Control achieved"," ")</f>
-        <v>Control achieved</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="BJ7" s="273"/>
       <c r="BK7" s="273"/>
@@ -49171,7 +49186,7 @@
       <c r="B8" s="230" t="s">
         <v>2004</v>
       </c>
-      <c r="C8" s="810"/>
+      <c r="C8" s="828"/>
       <c r="D8" s="231" t="s">
         <v>657</v>
       </c>
@@ -49280,7 +49295,7 @@
       <c r="BC8" s="431"/>
       <c r="BD8" s="432">
         <f>SUM(BA5:BA8)/$BB$2</f>
-        <v>0.8</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="BE8" s="401" t="str">
         <f>IF(AND(BD9&gt;0.5,BE7=" "),"Control achieved"," ")</f>
@@ -49393,7 +49408,7 @@
       </c>
       <c r="BC9" s="274">
         <f>SUM(BC5:BC8)</f>
-        <v>1875</v>
+        <v>1351</v>
       </c>
       <c r="BS9" s="401" t="s">
         <v>1893</v>
@@ -49443,7 +49458,7 @@
       </c>
       <c r="AU10" s="271">
         <f>BB16</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="BJ10" s="463" t="s">
         <v>747</v>
@@ -49495,7 +49510,7 @@
       </c>
       <c r="AU11" s="271">
         <f>BB18</f>
-        <v>1500</v>
+        <v>1145</v>
       </c>
       <c r="AZ11" s="433" t="s">
         <v>705</v>
@@ -49505,7 +49520,7 @@
         <v>531</v>
       </c>
       <c r="BC11" s="436">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BD11" s="427"/>
       <c r="BJ11" s="444"/>
@@ -49629,9 +49644,9 @@
         <f t="array" ref="AT13">_xlfn.IFS(BC21&gt;0,"DR Goodwill",BC21&lt;0,"CR Gain on Bargain Purchase",BC21=0," ")</f>
         <v>DR Goodwill</v>
       </c>
-      <c r="AU13" s="898">
+      <c r="AU13" s="813">
         <f>IF(BC21&gt;0,BC21,0)</f>
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="AV13" s="267">
         <f>IF(BC21&lt;0,-BC21,0)</f>
@@ -49644,7 +49659,7 @@
       <c r="BB13" s="438"/>
       <c r="BC13" s="440">
         <f>+BC5+BC6</f>
-        <v>1875</v>
+        <v>1086</v>
       </c>
       <c r="BD13" s="439"/>
       <c r="BJ13" s="465" t="s">
@@ -49670,7 +49685,7 @@
       </c>
       <c r="H14" s="295">
         <f>SUMIF(AT10:AT17,"DR Goodwill",AU10:AU17)</f>
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="I14" s="325">
         <f>-SUMIF($AT$10:$AT$17,"CR Goodwill",$AV$10:$AV$17)</f>
@@ -49684,7 +49699,7 @@
       </c>
       <c r="M14" s="325">
         <f>-SUMIF(AT33:AT35,"CR Goodwill",AV33:AV35)</f>
-        <v>-296.25</v>
+        <v>0</v>
       </c>
       <c r="N14" s="304">
         <f>SUMIF($AT$38:$AT$42,"DR Goodwill",$AU$38:$AU$42)</f>
@@ -49712,7 +49727,7 @@
       </c>
       <c r="AC14" s="305">
         <f>-SUMIF($AT$100:$AT$104,"CR Goodwill",$AV$100:$AV$104)</f>
-        <v>-98.75</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="321"/>
       <c r="AE14" s="321"/>
@@ -49720,14 +49735,14 @@
       <c r="AG14" s="305"/>
       <c r="AH14" s="311">
         <f>SUM(G14:AG14)</f>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="AT14" s="267" t="s">
         <v>759</v>
       </c>
-      <c r="AU14" s="898">
+      <c r="AU14" s="813">
         <f>BB17</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="437" t="s">
         <v>528</v>
@@ -49736,7 +49751,7 @@
       <c r="BB14" s="441"/>
       <c r="BC14" s="441">
         <f>BC20*BC11</f>
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="BD14" s="439"/>
       <c r="BJ14" s="465" t="s">
@@ -49787,14 +49802,14 @@
       </c>
       <c r="AV15" s="271">
         <f>BC13</f>
-        <v>1875</v>
+        <v>1086</v>
       </c>
       <c r="AZ15" s="437"/>
       <c r="BA15" s="438"/>
       <c r="BB15" s="441"/>
-      <c r="BC15" s="891">
+      <c r="BC15" s="806">
         <f>SUM(BC13:BC14)</f>
-        <v>2245</v>
+        <v>1467</v>
       </c>
       <c r="BD15" s="439"/>
       <c r="BJ15" s="465" t="s">
@@ -49858,14 +49873,15 @@
       </c>
       <c r="AV16" s="271">
         <f>BC14</f>
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="AZ16" s="437" t="s">
         <v>696</v>
       </c>
       <c r="BA16" s="438"/>
       <c r="BB16" s="796">
-        <v>100</v>
+        <f>BB2*0.5</f>
+        <v>125</v>
       </c>
       <c r="BC16" s="441"/>
       <c r="BD16" s="439"/>
@@ -49880,17 +49896,17 @@
         <f>BO13-BO15</f>
         <v>0</v>
       </c>
-      <c r="BS16" s="812" t="s">
+      <c r="BS16" s="821" t="s">
         <v>760</v>
       </c>
-      <c r="BT16" s="812"/>
-      <c r="BU16" s="812"/>
-      <c r="BV16" s="812"/>
-      <c r="BW16" s="812"/>
-      <c r="BX16" s="812"/>
-      <c r="BY16" s="812"/>
-      <c r="BZ16" s="812"/>
-      <c r="CA16" s="812"/>
+      <c r="BT16" s="821"/>
+      <c r="BU16" s="821"/>
+      <c r="BV16" s="821"/>
+      <c r="BW16" s="821"/>
+      <c r="BX16" s="821"/>
+      <c r="BY16" s="821"/>
+      <c r="BZ16" s="821"/>
+      <c r="CA16" s="821"/>
     </row>
     <row r="17" spans="2:79" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="232" t="s">
@@ -49910,7 +49926,7 @@
       </c>
       <c r="I17" s="325">
         <f>-SUMIF($AT$10:$AT$17,"CR Investment in subsidiary",$AV$10:$AV$17)</f>
-        <v>-1875</v>
+        <v>-1086</v>
       </c>
       <c r="J17" s="384"/>
       <c r="K17" s="379"/>
@@ -49944,7 +49960,7 @@
       <c r="AG17" s="305"/>
       <c r="AH17" s="311">
         <f>SUM(G17:AG17)</f>
-        <v>-1875</v>
+        <v>-1086</v>
       </c>
       <c r="AO17" s="401" t="s">
         <v>1004</v>
@@ -49965,9 +49981,7 @@
         <v>678</v>
       </c>
       <c r="BA17" s="442"/>
-      <c r="BB17" s="796">
-        <v>250</v>
-      </c>
+      <c r="BB17" s="796"/>
       <c r="BC17" s="85"/>
       <c r="BD17" s="439"/>
       <c r="BJ17" s="453"/>
@@ -49976,15 +49990,15 @@
       <c r="BM17" s="454"/>
       <c r="BN17" s="454"/>
       <c r="BO17" s="447"/>
-      <c r="BS17" s="812"/>
-      <c r="BT17" s="812"/>
-      <c r="BU17" s="812"/>
-      <c r="BV17" s="812"/>
-      <c r="BW17" s="812"/>
-      <c r="BX17" s="812"/>
-      <c r="BY17" s="812"/>
-      <c r="BZ17" s="812"/>
-      <c r="CA17" s="812"/>
+      <c r="BS17" s="821"/>
+      <c r="BT17" s="821"/>
+      <c r="BU17" s="821"/>
+      <c r="BV17" s="821"/>
+      <c r="BW17" s="821"/>
+      <c r="BX17" s="821"/>
+      <c r="BY17" s="821"/>
+      <c r="BZ17" s="821"/>
+      <c r="CA17" s="821"/>
     </row>
     <row r="18" spans="2:79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="232" t="s">
@@ -50035,19 +50049,19 @@
       </c>
       <c r="BA18" s="438"/>
       <c r="BB18" s="796">
-        <v>1500</v>
+        <v>1145</v>
       </c>
       <c r="BC18" s="442"/>
       <c r="BD18" s="439"/>
-      <c r="BS18" s="812"/>
-      <c r="BT18" s="812"/>
-      <c r="BU18" s="812"/>
-      <c r="BV18" s="812"/>
-      <c r="BW18" s="812"/>
-      <c r="BX18" s="812"/>
-      <c r="BY18" s="812"/>
-      <c r="BZ18" s="812"/>
-      <c r="CA18" s="812"/>
+      <c r="BS18" s="821"/>
+      <c r="BT18" s="821"/>
+      <c r="BU18" s="821"/>
+      <c r="BV18" s="821"/>
+      <c r="BW18" s="821"/>
+      <c r="BX18" s="821"/>
+      <c r="BY18" s="821"/>
+      <c r="BZ18" s="821"/>
+      <c r="CA18" s="821"/>
     </row>
     <row r="19" spans="2:79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="232" t="s">
@@ -50100,15 +50114,15 @@
       <c r="BB19" s="796"/>
       <c r="BC19" s="443"/>
       <c r="BD19" s="439"/>
-      <c r="BS19" s="812"/>
-      <c r="BT19" s="812"/>
-      <c r="BU19" s="812"/>
-      <c r="BV19" s="812"/>
-      <c r="BW19" s="812"/>
-      <c r="BX19" s="812"/>
-      <c r="BY19" s="812"/>
-      <c r="BZ19" s="812"/>
-      <c r="CA19" s="812"/>
+      <c r="BS19" s="821"/>
+      <c r="BT19" s="821"/>
+      <c r="BU19" s="821"/>
+      <c r="BV19" s="821"/>
+      <c r="BW19" s="821"/>
+      <c r="BX19" s="821"/>
+      <c r="BY19" s="821"/>
+      <c r="BZ19" s="821"/>
+      <c r="CA19" s="821"/>
     </row>
     <row r="20" spans="2:79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="232"/>
@@ -50157,16 +50171,16 @@
       <c r="AG20" s="318"/>
       <c r="AH20" s="312">
         <f>SUM(AH12:AH19)</f>
-        <v>-1875</v>
+        <v>-889</v>
       </c>
       <c r="AZ20" s="437" t="s">
         <v>1017</v>
       </c>
       <c r="BA20" s="442"/>
       <c r="BB20" s="796"/>
-      <c r="BC20" s="892">
+      <c r="BC20" s="807">
         <f>SUM(BB16:BB20)</f>
-        <v>1850</v>
+        <v>1270</v>
       </c>
       <c r="BD20" s="439"/>
     </row>
@@ -50211,9 +50225,9 @@
       </c>
       <c r="BA21" s="446"/>
       <c r="BB21" s="131"/>
-      <c r="BC21" s="893">
+      <c r="BC21" s="808">
         <f>BC15-BC20</f>
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="BD21" s="447"/>
       <c r="BS21" s="401" t="s">
@@ -50264,7 +50278,7 @@
       </c>
       <c r="W22" s="305">
         <f>-SUMIF($AT$69:$AT$76,"CR inventory",$AV$69:$AV$76)</f>
-        <v>0</v>
+        <v>-11.1</v>
       </c>
       <c r="X22" s="384"/>
       <c r="Y22" s="379"/>
@@ -50294,7 +50308,7 @@
       </c>
       <c r="AU22" s="274">
         <f>BC30</f>
-        <v>0</v>
+        <v>32.680000000000007</v>
       </c>
     </row>
     <row r="23" spans="2:79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50347,11 +50361,11 @@
       </c>
       <c r="AT23" s="267" t="str">
         <f>IF(BC31&lt;0,"DR Retained earnings","CR Retained Earnings")</f>
-        <v>CR Retained Earnings</v>
+        <v>DR Retained earnings</v>
       </c>
       <c r="AU23" s="275">
         <f>IF(BC31&lt;0,-BC31,0)</f>
-        <v>0</v>
+        <v>232.32</v>
       </c>
       <c r="AV23" s="267">
         <f>IF(BC31&gt;0,BC31,0)</f>
@@ -50414,7 +50428,7 @@
       </c>
       <c r="AV24" s="274">
         <f>BC24</f>
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="AZ24" s="444" t="s">
         <v>829</v>
@@ -50423,7 +50437,7 @@
       <c r="BB24" s="442"/>
       <c r="BC24" s="70">
         <f>+BC7</f>
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="BD24" s="439"/>
       <c r="BG24" s="682"/>
@@ -50468,7 +50482,7 @@
       <c r="AA25" s="321"/>
       <c r="AB25" s="304">
         <f>SUMIF($AT$100:$AT$104,"DR Cash and cash equivalents",$AU$100:$AU$104)</f>
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="305">
         <f>-SUMIF($AT$100:$AT$104,"CR Cash and cash equivalents",$AU$100:$AU$104)</f>
@@ -50480,13 +50494,13 @@
       <c r="AG25" s="305"/>
       <c r="AH25" s="311">
         <f>SUM(G25:AG25)</f>
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="444" t="s">
         <v>830</v>
       </c>
-      <c r="BA25" s="894">
-        <v>0</v>
+      <c r="BA25" s="809">
+        <v>0.7</v>
       </c>
       <c r="BB25" s="442"/>
       <c r="BC25" s="442"/>
@@ -50540,13 +50554,14 @@
       <c r="AG26" s="318"/>
       <c r="AH26" s="312">
         <f>SUM(AH22:AH25)</f>
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="444" t="s">
         <v>831</v>
       </c>
-      <c r="BA26" s="895">
-        <v>0</v>
+      <c r="BA26" s="810">
+        <f>BD7</f>
+        <v>0.85199999999999998</v>
       </c>
       <c r="BB26" s="442"/>
       <c r="BC26" s="442"/>
@@ -50605,14 +50620,14 @@
       <c r="AG27" s="318"/>
       <c r="AH27" s="313">
         <f>SUM(AH20,AH26)</f>
-        <v>75</v>
+        <v>-889</v>
       </c>
       <c r="AZ27" s="444" t="s">
         <v>832</v>
       </c>
-      <c r="BA27" s="896">
+      <c r="BA27" s="811">
         <f>BA26-BA25</f>
-        <v>0</v>
+        <v>0.15200000000000002</v>
       </c>
       <c r="BB27" s="442"/>
       <c r="BC27" s="442"/>
@@ -50659,7 +50674,8 @@
         <v>515</v>
       </c>
       <c r="BA28" s="450">
-        <v>0</v>
+        <f>1235-1145</f>
+        <v>90</v>
       </c>
       <c r="BB28" s="442"/>
       <c r="BC28" s="442"/>
@@ -50706,11 +50722,11 @@
       </c>
       <c r="BA29" s="450">
         <f>+BB16</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="BB29" s="451">
         <f>BA28+BA29</f>
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="BC29" s="442"/>
       <c r="BD29" s="439"/>
@@ -50758,7 +50774,7 @@
       <c r="BB30" s="415"/>
       <c r="BC30" s="414">
         <f>BB29*BA27</f>
-        <v>0</v>
+        <v>32.680000000000007</v>
       </c>
       <c r="BD30" s="439"/>
     </row>
@@ -50776,7 +50792,7 @@
       </c>
       <c r="H31" s="304">
         <f>SUMIF($AT10:$AT16,"DR Share Capital",$AU10:$AU16)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I31" s="325">
         <f>-SUMIF($AT10:$AT16,"CR Share Capital",$AV10:$AV16)</f>
@@ -50814,7 +50830,7 @@
       <c r="AG31" s="305"/>
       <c r="AH31" s="311">
         <f>G31-SUM(H31:AG31)</f>
-        <v>-100</v>
+        <v>-125</v>
       </c>
       <c r="AZ31" s="452" t="s">
         <v>834</v>
@@ -50823,7 +50839,7 @@
       <c r="BB31" s="443"/>
       <c r="BC31" s="281">
         <f>BC30-BC24</f>
-        <v>0</v>
+        <v>-232.32</v>
       </c>
       <c r="BD31" s="439"/>
     </row>
@@ -50889,7 +50905,7 @@
       </c>
       <c r="H33" s="304">
         <f>SUMIF($AT8:$AT14,"DR Share Premium",$AU8:$AU14)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I33" s="325">
         <f>-SUMIF($AT8:$AT14,"CR Share Premium",AV8:AV14)</f>
@@ -50921,7 +50937,7 @@
       <c r="AG33" s="305"/>
       <c r="AH33" s="311">
         <f>G33-SUM(H33:AG33)</f>
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="276">
         <v>3</v>
@@ -50931,7 +50947,7 @@
       </c>
       <c r="AU33" s="374">
         <f>BC36</f>
-        <v>296.25</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="401" t="s">
         <v>1580</v>
@@ -51016,7 +51032,7 @@
       </c>
       <c r="H35" s="304">
         <f>SUMIF($AT10:$AT16,"DR Retained Earnings",$AU10:$AU16)</f>
-        <v>1500</v>
+        <v>1145</v>
       </c>
       <c r="I35" s="325">
         <f>-SUMIF($AT10:$AT16,"CR Retained Earnings",AV10:AV16)</f>
@@ -51024,7 +51040,7 @@
       </c>
       <c r="J35" s="304">
         <f>SUMIF($AT22:$AT24,"DR Retained Earnings",$AU22:$AU24)</f>
-        <v>0</v>
+        <v>232.32</v>
       </c>
       <c r="K35" s="304">
         <f>SUMIF($AT22:$AT24,"CR Retained Earnings",$AU22:$AU24)</f>
@@ -51032,7 +51048,7 @@
       </c>
       <c r="L35" s="295">
         <f>SUMIF($AT33:$AT35,"DR Retained Earnings",$AU33:$AU35)</f>
-        <v>296.25</v>
+        <v>0</v>
       </c>
       <c r="M35" s="325">
         <f>-SUMIF($AT33:$AT35,"CR Retained Earnings",AX33:AX35)</f>
@@ -51040,11 +51056,11 @@
       </c>
       <c r="N35" s="304">
         <f>SUMIF($AT$38:$AT$42,"DR Retained Earnings",$AU$38:$AU$42)</f>
-        <v>0</v>
+        <v>228.9</v>
       </c>
       <c r="O35" s="305">
         <f>-SUMIF($AT$38:$AT$42,"CR Retained Earnings",$AV$38:$AV$42)</f>
-        <v>-12.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="P35" s="295"/>
       <c r="Q35" s="305"/>
@@ -51076,7 +51092,7 @@
       <c r="AE35" s="321"/>
       <c r="AF35" s="304">
         <f>SUMIF($AT$123:$AT$124,"DR Retained Earnings",$AU$123:$AU$124)</f>
-        <v>3.9500000000001023</v>
+        <v>61.769999999999996</v>
       </c>
       <c r="AG35" s="305">
         <f>-SUMIF($AT$123:$AT$124,"CR Retained Earnings",$AV$123:$AV$124)</f>
@@ -51084,21 +51100,21 @@
       </c>
       <c r="AH35" s="311">
         <f>G35-SUM(H35:AG35)</f>
-        <v>-1788</v>
+        <v>-1667.99</v>
       </c>
       <c r="AT35" s="267" t="s">
         <v>704</v>
       </c>
       <c r="AV35" s="374">
         <f>BC35+BC36</f>
-        <v>296.25</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="465" t="s">
         <v>701</v>
       </c>
       <c r="BA35" s="442"/>
       <c r="BB35" s="443"/>
-      <c r="BC35" s="897"/>
+      <c r="BC35" s="812"/>
       <c r="BD35" s="439"/>
     </row>
     <row r="36" spans="2:67" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -51140,9 +51156,8 @@
       </c>
       <c r="BA36" s="454"/>
       <c r="BB36" s="456"/>
-      <c r="BC36" s="890">
-        <f>0.75*BC21</f>
-        <v>296.25</v>
+      <c r="BC36" s="805">
+        <v>0</v>
       </c>
       <c r="BD36" s="447"/>
     </row>
@@ -51232,15 +51247,15 @@
       </c>
       <c r="AT38" s="267" t="str">
         <f>IF(BC44&gt;0,"DR Retained earnings","CR Retained Earnings")</f>
-        <v>CR Retained Earnings</v>
-      </c>
-      <c r="AU38" s="267" t="str">
+        <v>DR Retained earnings</v>
+      </c>
+      <c r="AU38" s="267">
         <f>IF($BC$44&gt;0,$BC$44," ")</f>
+        <v>228.9</v>
+      </c>
+      <c r="AV38" s="374" t="str">
+        <f>IF($BC$44&lt;0,-$BC$44," ")</f>
         <v xml:space="preserve"> </v>
-      </c>
-      <c r="AV38" s="374">
-        <f>IF($BC$44&lt;0,-$BC$44," ")</f>
-        <v>12.200000000000001</v>
       </c>
       <c r="AZ38" s="636" t="s">
         <v>711</v>
@@ -51297,19 +51312,19 @@
       <c r="AG39" s="307"/>
       <c r="AH39" s="314">
         <f>SUM(AH31:AH38)</f>
-        <v>-2138</v>
+        <v>-1792.99</v>
       </c>
       <c r="AT39" s="267" t="str">
         <f>IF(BC44&gt;0,"CR SFP - Non-controlling interests","DR SFP - Non-controlling interests")</f>
-        <v>DR SFP - Non-controlling interests</v>
-      </c>
-      <c r="AU39" s="374">
+        <v>CR SFP - Non-controlling interests</v>
+      </c>
+      <c r="AU39" s="374" t="str">
         <f>IF($BC$44&lt;0,-$BC$44," ")</f>
-        <v>12.200000000000001</v>
-      </c>
-      <c r="AV39" s="267" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AV39" s="267">
         <f>IF($BC$44&gt;0,$BC$44," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>228.9</v>
       </c>
       <c r="AZ39" s="465" t="str">
         <f>"Retained earnings "&amp;B8</f>
@@ -51319,7 +51334,7 @@
       <c r="BB39" s="443"/>
       <c r="BC39" s="450">
         <f>2213-BB16-BB17</f>
-        <v>1863</v>
+        <v>2088</v>
       </c>
       <c r="BD39" s="439"/>
       <c r="BE39" s="279" t="s">
@@ -51349,11 +51364,11 @@
       </c>
       <c r="I40" s="304">
         <f>-SUMIF($AT10:$AT16,"CR SFP - non-controlling interests",$AV10:$AV16)</f>
-        <v>-370</v>
+        <v>-381</v>
       </c>
       <c r="J40" s="304">
         <f>SUMIF($AT22:$AT24,"DR SFP - non-controlling interestS",$AU$22:$AU$24)</f>
-        <v>0</v>
+        <v>32.680000000000007</v>
       </c>
       <c r="K40" s="304">
         <f>-SUMIF($AT22:$AT24,"CR SFP - non-controlling interestS",$AU$22:$AU$24)</f>
@@ -51363,11 +51378,11 @@
       <c r="M40" s="331"/>
       <c r="N40" s="389">
         <f>-SUMIF($AT$38:$AT$42,"DR SFP - Non-controlling interests",$AU$38:$AU$42)</f>
-        <v>-12.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="O40" s="305">
         <f>-SUMIF($AT$38:$AT$42,"CR SFP - Non-controlling interests",$AV$38:$AV$42)</f>
-        <v>-16</v>
+        <v>-228.9</v>
       </c>
       <c r="P40" s="379">
         <f>-SUMIF($AT$48:$AT$49,"DR SFP - Non-controlling interests",$AU$48:$AU$49)</f>
@@ -51375,7 +51390,7 @@
       </c>
       <c r="Q40" s="305">
         <f>-SUMIF($AT$48:$AT$49,"CR SFP - Non-controlling interests",$AV$48:$AV$49)</f>
-        <v>-84.800000000000011</v>
+        <v>-54</v>
       </c>
       <c r="R40" s="304">
         <f>SUMIF($AT$54:$AT$58,"DR SFP - Non-controlling interests",$AU$54:$AU$58)</f>
@@ -51395,7 +51410,7 @@
       </c>
       <c r="V40" s="304">
         <f>SUMIF($AT$69:$AT$76,"DR SFP - Non-controlling interests",$AU$69:$AU$76)</f>
-        <v>0</v>
+        <v>3.3299999999999996</v>
       </c>
       <c r="W40" s="305">
         <f>-SUMIF($AT$69:$AT$76,"CR SFP - Non-controlling interests",$AV$69:$AV$76)</f>
@@ -51413,7 +51428,7 @@
       </c>
       <c r="AB40" s="321">
         <f>SUMIF($AT$100:$AT$104,"DR SFP - Non-controlling interests",AU$100:AU$104)</f>
-        <v>442.6</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="321">
         <f>-SUMIF($AT$100:$AT$104,"CR SFP - Non-controlling interests",AV$100:AV$104)</f>
@@ -51437,7 +51452,7 @@
       </c>
       <c r="AH40" s="311">
         <f>G40-SUM(H40:AG40)</f>
-        <v>40.399999999999977</v>
+        <v>627.89</v>
       </c>
       <c r="AZ40" s="465" t="s">
         <v>751</v>
@@ -51445,7 +51460,7 @@
       <c r="BA40" s="442"/>
       <c r="BB40" s="442"/>
       <c r="BC40" s="450">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="BD40" s="635"/>
       <c r="BO40" s="401" t="s">
@@ -51488,11 +51503,11 @@
       <c r="AH41" s="294"/>
       <c r="AT41" s="267" t="str">
         <f>IF(AU41&lt;&gt;0,"DR Revaluation surplus","CR Revaluation Surplus")</f>
-        <v>DR Revaluation surplus</v>
+        <v>CR Revaluation Surplus</v>
       </c>
       <c r="AU41" s="267">
         <f>IF($BC$47&gt;0,$BC$47,0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="267">
         <f>IF($BC$47&lt;0,-$BC$47,0)</f>
@@ -51545,7 +51560,7 @@
       <c r="AH42" s="294"/>
       <c r="AT42" s="267" t="str">
         <f>IF(AV42&lt;&gt;0,"CR SFP - Non-controlling interests","DR SFP - Non-controlling interests")</f>
-        <v>CR SFP - Non-controlling interests</v>
+        <v>DR SFP - Non-controlling interests</v>
       </c>
       <c r="AU42" s="267">
         <f>IF($BC$47&lt;0,-$BC$47,0)</f>
@@ -51553,7 +51568,7 @@
       </c>
       <c r="AV42" s="267">
         <f>IF($BC$47&gt;0,$BC$47,0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="465" t="s">
         <v>706</v>
@@ -51562,7 +51577,7 @@
       <c r="BB42" s="443"/>
       <c r="BC42" s="458">
         <f>BB18</f>
-        <v>1500</v>
+        <v>1145</v>
       </c>
       <c r="BD42" s="439"/>
     </row>
@@ -51615,7 +51630,7 @@
       <c r="AG43" s="318"/>
       <c r="AH43" s="312">
         <f>AH39+AH40</f>
-        <v>-2097.6</v>
+        <v>-1165.0999999999999</v>
       </c>
       <c r="AZ43" s="465" t="s">
         <v>707</v>
@@ -51624,7 +51639,7 @@
       <c r="BB43" s="443"/>
       <c r="BC43" s="443">
         <f>BC39-BC42-BC40+BC41</f>
-        <v>-61</v>
+        <v>763</v>
       </c>
       <c r="BD43" s="635"/>
       <c r="BO43" s="401" t="s">
@@ -51667,13 +51682,13 @@
       <c r="AH44" s="294"/>
       <c r="AZ44" s="465" t="str">
         <f>"NCI share of historical profit (*"&amp;BC11&amp;")"</f>
-        <v>NCI share of historical profit (*0.2)</v>
+        <v>NCI share of historical profit (*0.3)</v>
       </c>
       <c r="BA44" s="442"/>
       <c r="BB44" s="442"/>
       <c r="BC44" s="281">
         <f>IF(SUM(BC39:BC41)=0,0,BC43*BC11)</f>
-        <v>-12.200000000000001</v>
+        <v>228.9</v>
       </c>
       <c r="BD44" s="439"/>
     </row>
@@ -51775,7 +51790,7 @@
       <c r="BA46" s="442"/>
       <c r="BB46" s="442"/>
       <c r="BC46" s="423">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="BD46" s="439"/>
     </row>
@@ -51825,13 +51840,13 @@
       </c>
       <c r="AZ47" s="465" t="str">
         <f>"NCI share of revaluation reserve (*"&amp;BC11&amp;")"</f>
-        <v>NCI share of revaluation reserve (*0.2)</v>
+        <v>NCI share of revaluation reserve (*0.3)</v>
       </c>
       <c r="BA47" s="442"/>
       <c r="BB47" s="442"/>
       <c r="BC47" s="280">
         <f>BC46*BC11</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BD47" s="439"/>
     </row>
@@ -51885,9 +51900,9 @@
       <c r="AT48" s="267" t="s">
         <v>713</v>
       </c>
-      <c r="AU48" s="898">
+      <c r="AU48" s="813">
         <f>BC52</f>
-        <v>84.800000000000011</v>
+        <v>54</v>
       </c>
       <c r="AV48" s="275"/>
       <c r="AZ48" s="453"/>
@@ -51951,9 +51966,9 @@
         <v>709</v>
       </c>
       <c r="AU49" s="275"/>
-      <c r="AV49" s="898">
+      <c r="AV49" s="813">
         <f>BC52</f>
-        <v>84.800000000000011</v>
+        <v>54</v>
       </c>
       <c r="BO49" s="401" t="s">
         <v>749</v>
@@ -52043,9 +52058,9 @@
       </c>
       <c r="BA51" s="442"/>
       <c r="BB51" s="442"/>
-      <c r="BC51" s="897">
+      <c r="BC51" s="812">
         <f>+BC40</f>
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="BD51" s="439"/>
       <c r="BO51" s="400"/>
@@ -52100,13 +52115,13 @@
       </c>
       <c r="AZ52" s="444" t="str">
         <f>"NCI share of current year profit (*"&amp;BC11&amp;")"</f>
-        <v>NCI share of current year profit (*0.2)</v>
+        <v>NCI share of current year profit (*0.3)</v>
       </c>
       <c r="BA52" s="442"/>
       <c r="BB52" s="442"/>
-      <c r="BC52" s="899">
+      <c r="BC52" s="814">
         <f>BC51*BC11</f>
-        <v>84.800000000000011</v>
+        <v>54</v>
       </c>
       <c r="BD52" s="439"/>
       <c r="BF52" s="279"/>
@@ -52515,7 +52530,7 @@
       <c r="AG59" s="309"/>
       <c r="AH59" s="313">
         <f>SUM(AH43,AH58)</f>
-        <v>-2097.6</v>
+        <v>-1165.0999999999999</v>
       </c>
     </row>
     <row r="60" spans="2:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -52585,7 +52600,7 @@
         <f>B6</f>
         <v>Hawkins plc</v>
       </c>
-      <c r="C63" s="808" t="s">
+      <c r="C63" s="822" t="s">
         <v>655</v>
       </c>
       <c r="D63" s="231" t="s">
@@ -52639,63 +52654,63 @@
       <c r="B64" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="813"/>
+      <c r="C64" s="823"/>
       <c r="D64" s="227"/>
       <c r="E64" s="227"/>
       <c r="F64" s="227"/>
       <c r="G64" s="282"/>
-      <c r="H64" s="806">
+      <c r="H64" s="819">
         <v>1</v>
       </c>
-      <c r="I64" s="811"/>
-      <c r="J64" s="806">
+      <c r="I64" s="825"/>
+      <c r="J64" s="819">
         <v>2</v>
       </c>
-      <c r="K64" s="807"/>
-      <c r="L64" s="811">
+      <c r="K64" s="820"/>
+      <c r="L64" s="825">
         <v>3</v>
       </c>
-      <c r="M64" s="811"/>
-      <c r="N64" s="806">
+      <c r="M64" s="825"/>
+      <c r="N64" s="819">
         <v>4</v>
       </c>
-      <c r="O64" s="807"/>
-      <c r="P64" s="811">
+      <c r="O64" s="820"/>
+      <c r="P64" s="825">
         <v>5</v>
       </c>
-      <c r="Q64" s="807"/>
-      <c r="R64" s="806">
+      <c r="Q64" s="820"/>
+      <c r="R64" s="819">
         <v>6</v>
       </c>
-      <c r="S64" s="807"/>
-      <c r="T64" s="806">
+      <c r="S64" s="820"/>
+      <c r="T64" s="819">
         <v>7</v>
       </c>
-      <c r="U64" s="807"/>
-      <c r="V64" s="806">
+      <c r="U64" s="820"/>
+      <c r="V64" s="819">
         <v>8</v>
       </c>
-      <c r="W64" s="807"/>
-      <c r="X64" s="817">
+      <c r="W64" s="820"/>
+      <c r="X64" s="830">
         <v>9</v>
       </c>
-      <c r="Y64" s="817"/>
-      <c r="Z64" s="811">
+      <c r="Y64" s="830"/>
+      <c r="Z64" s="825">
         <v>10</v>
       </c>
-      <c r="AA64" s="811"/>
-      <c r="AB64" s="806">
+      <c r="AA64" s="825"/>
+      <c r="AB64" s="819">
         <v>11</v>
       </c>
-      <c r="AC64" s="807"/>
-      <c r="AD64" s="811">
+      <c r="AC64" s="820"/>
+      <c r="AD64" s="825">
         <v>12</v>
       </c>
-      <c r="AE64" s="807"/>
-      <c r="AF64" s="806">
+      <c r="AE64" s="820"/>
+      <c r="AF64" s="819">
         <v>13</v>
       </c>
-      <c r="AG64" s="807"/>
+      <c r="AG64" s="820"/>
       <c r="AH64" s="310"/>
       <c r="AT64" s="267" t="s">
         <v>777</v>
@@ -52715,7 +52730,7 @@
       <c r="B65" s="230" t="s">
         <v>717</v>
       </c>
-      <c r="C65" s="814"/>
+      <c r="C65" s="824"/>
       <c r="D65" s="231" t="s">
         <v>657</v>
       </c>
@@ -52977,7 +52992,7 @@
       </c>
       <c r="V67" s="304">
         <f>SUMIF($AT$69:$AT$76,"DR SPL - Revenue",$AU$69:$AU$76)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="W67" s="305">
         <f>SUMIF($AT$69:$AT$76,"CR SPL - Revenue",$AV$69:$AV$76)</f>
@@ -52995,7 +53010,7 @@
       <c r="AG67" s="305"/>
       <c r="AH67" s="311">
         <f>G67-SUM(H67:AG67)</f>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="AZ67" s="453"/>
       <c r="BA67" s="454"/>
@@ -53080,7 +53095,7 @@
       </c>
       <c r="AU69" s="275">
         <f>BC71</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AZ69" s="636" t="s">
         <v>778</v>
@@ -53130,11 +53145,11 @@
       </c>
       <c r="V70" s="304">
         <f>SUMIF($AT$69:$AT$76,"DR SPL - Cost of sales",$AU$69:$AU$76)</f>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="W70" s="305">
         <f>-SUMIF($AT$69:$AT$76,"CR SPL - Cost of sales",$AV$69:$AV$76)</f>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="X70" s="384"/>
       <c r="Y70" s="379"/>
@@ -53154,14 +53169,14 @@
       <c r="AG70" s="305"/>
       <c r="AH70" s="311">
         <f>G70+SUM(H70:AG70)</f>
-        <v>0</v>
+        <v>-48.9</v>
       </c>
       <c r="AT70" s="267" t="s">
         <v>787</v>
       </c>
       <c r="AV70" s="274">
         <f>BC71</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AZ70" s="460" t="s">
         <v>799</v>
@@ -53214,7 +53229,7 @@
       </c>
       <c r="AU71" s="274">
         <f>BC76</f>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="AZ71" s="444" t="s">
         <v>781</v>
@@ -53222,7 +53237,7 @@
       <c r="BA71" s="442"/>
       <c r="BB71" s="442"/>
       <c r="BC71" s="450">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BD71" s="439"/>
       <c r="BJ71" s="279"/>
@@ -53266,7 +53281,7 @@
       </c>
       <c r="AV72" s="274">
         <f>BC76</f>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="AZ72" s="444" t="s">
         <v>782</v>
@@ -53274,7 +53289,8 @@
       <c r="BA72" s="438"/>
       <c r="BB72" s="438"/>
       <c r="BC72" s="450">
-        <v>0</v>
+        <f>BC71*100/125</f>
+        <v>48</v>
       </c>
       <c r="BD72" s="439"/>
     </row>
@@ -53327,7 +53343,7 @@
       <c r="AG73" s="303"/>
       <c r="AH73" s="314">
         <f>AH67-AH70</f>
-        <v>0</v>
+        <v>-11.100000000000001</v>
       </c>
       <c r="AZ73" s="444" t="s">
         <v>783</v>
@@ -53336,7 +53352,7 @@
       <c r="BB73" s="442"/>
       <c r="BC73" s="363">
         <f>BC71-BC72</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BD73" s="439"/>
     </row>
@@ -53436,7 +53452,7 @@
       </c>
       <c r="AU75" s="274">
         <f>BC79</f>
-        <v>0</v>
+        <v>3.3299999999999996</v>
       </c>
       <c r="AZ75" s="444" t="s">
         <v>784</v>
@@ -53444,7 +53460,7 @@
       <c r="BA75" s="438"/>
       <c r="BB75" s="438"/>
       <c r="BC75" s="52">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="BD75" s="439"/>
     </row>
@@ -53487,7 +53503,7 @@
       </c>
       <c r="AV76" s="274">
         <f>BC79</f>
-        <v>0</v>
+        <v>3.3299999999999996</v>
       </c>
       <c r="AZ76" s="444" t="s">
         <v>785</v>
@@ -53496,7 +53512,7 @@
       <c r="BB76" s="438"/>
       <c r="BC76" s="366">
         <f>BC73-BC75</f>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="BD76" s="439"/>
       <c r="BE76" s="401" t="s">
@@ -53635,7 +53651,7 @@
       <c r="BB79" s="454"/>
       <c r="BC79" s="461">
         <f>IF(AZ70="Sub -&gt; Parent",BC76*BC11,0)</f>
-        <v>0</v>
+        <v>3.3299999999999996</v>
       </c>
       <c r="BD79" s="447"/>
       <c r="BE79" s="401" t="s">
@@ -54444,7 +54460,7 @@
       <c r="AG94" s="303"/>
       <c r="AH94" s="315">
         <f>AH73+AH74-AH77-AH80-AH85-AH88+AH91</f>
-        <v>0</v>
+        <v>-11.100000000000001</v>
       </c>
       <c r="AT94" s="267" t="s">
         <v>809</v>
@@ -54671,7 +54687,7 @@
       <c r="AG98" s="346"/>
       <c r="AH98" s="316">
         <f>AH94-AH95</f>
-        <v>0</v>
+        <v>-11.100000000000001</v>
       </c>
       <c r="AZ98" s="453"/>
       <c r="BA98" s="454"/>
@@ -54777,7 +54793,7 @@
       <c r="AG100" s="350"/>
       <c r="AH100" s="336">
         <f>AH98-AH99</f>
-        <v>0</v>
+        <v>-11.100000000000001</v>
       </c>
       <c r="AS100" s="276">
         <v>11</v>
@@ -54787,7 +54803,7 @@
       </c>
       <c r="AU100" s="274">
         <f>BC102</f>
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="AV100" s="274"/>
     </row>
@@ -54830,7 +54846,7 @@
       </c>
       <c r="AU101" s="274">
         <f>BC105</f>
-        <v>442.6</v>
+        <v>0</v>
       </c>
       <c r="AV101" s="274"/>
       <c r="AZ101" s="448" t="s">
@@ -54883,15 +54899,15 @@
       <c r="AU102" s="274"/>
       <c r="AV102" s="274">
         <f>BC103</f>
-        <v>98.75</v>
+        <v>0</v>
       </c>
       <c r="AZ102" s="444" t="s">
         <v>154</v>
       </c>
       <c r="BA102" s="442"/>
       <c r="BB102" s="442"/>
-      <c r="BC102" s="897">
-        <v>1950</v>
+      <c r="BC102" s="812">
+        <v>0</v>
       </c>
       <c r="BD102" s="439"/>
     </row>
@@ -54941,16 +54957,16 @@
       <c r="AU103" s="274"/>
       <c r="AV103" s="274">
         <f>BC104</f>
-        <v>2213</v>
+        <v>0</v>
       </c>
       <c r="AZ103" s="444" t="s">
         <v>837</v>
       </c>
       <c r="BA103" s="442"/>
       <c r="BB103" s="442"/>
-      <c r="BC103" s="900">
+      <c r="BC103" s="815">
         <f>IF(BC102&lt;&gt;0,BC21-BC35-BC36,0)</f>
-        <v>98.75</v>
+        <v>0</v>
       </c>
       <c r="BD103" s="439"/>
       <c r="BF103" s="401" t="s">
@@ -55003,7 +55019,7 @@
       </c>
       <c r="AT104" s="267" t="str">
         <f>IF(BC107&gt;0,"CR SPL - gain on disposal","DR SPL - loss on disposal")</f>
-        <v>CR SPL - gain on disposal</v>
+        <v>DR SPL - loss on disposal</v>
       </c>
       <c r="AU104" s="274">
         <f>IF(BC107&lt;0,-BC107,0)</f>
@@ -55011,15 +55027,15 @@
       </c>
       <c r="AV104" s="274">
         <f>IF(BC107&gt;0,BC107,0)</f>
-        <v>80.849999999999909</v>
+        <v>0</v>
       </c>
       <c r="AZ104" s="444" t="s">
         <v>865</v>
       </c>
       <c r="BA104" s="442"/>
       <c r="BB104" s="442"/>
-      <c r="BC104" s="897">
-        <v>2213</v>
+      <c r="BC104" s="812">
+        <v>0</v>
       </c>
       <c r="BD104" s="439"/>
       <c r="BF104" s="401" t="s">
@@ -55075,9 +55091,9 @@
       </c>
       <c r="BA105" s="442"/>
       <c r="BB105" s="442"/>
-      <c r="BC105" s="901">
+      <c r="BC105" s="816">
         <f>BC104*BC11</f>
-        <v>442.6</v>
+        <v>0</v>
       </c>
       <c r="BD105" s="462" t="s">
         <v>864</v>
@@ -55136,9 +55152,9 @@
       </c>
       <c r="BA106" s="442"/>
       <c r="BB106" s="442"/>
-      <c r="BC106" s="902">
+      <c r="BC106" s="817">
         <f>BC104-BC105</f>
-        <v>1770.4</v>
+        <v>0</v>
       </c>
       <c r="BD106" s="439"/>
       <c r="BF106" s="401" t="s">
@@ -55195,9 +55211,9 @@
       </c>
       <c r="BA107" s="442"/>
       <c r="BB107" s="442"/>
-      <c r="BC107" s="899">
+      <c r="BC107" s="814">
         <f>BC102-BC103-BC106</f>
-        <v>80.849999999999909</v>
+        <v>0</v>
       </c>
       <c r="BD107" s="439"/>
       <c r="BF107" s="401" t="s">
@@ -55630,7 +55646,7 @@
       <c r="AG114" s="346"/>
       <c r="AH114" s="338">
         <f>AH100+AH113</f>
-        <v>0</v>
+        <v>-11.100000000000001</v>
       </c>
       <c r="AZ114" s="444" t="s">
         <v>1079</v>
@@ -55798,7 +55814,7 @@
       <c r="AG117" s="352"/>
       <c r="AH117" s="334">
         <f>AH119-AH118</f>
-        <v>-84.800000000000011</v>
+        <v>-55.110000000000007</v>
       </c>
       <c r="AZ117" s="444" t="s">
         <v>1083</v>
@@ -55827,7 +55843,7 @@
       <c r="O118" s="305"/>
       <c r="P118" s="304">
         <f>SUMIF($AT$48:$AT$49,"DR SPL - Non-controlling interests",$AU$48:$AU$49)</f>
-        <v>84.800000000000011</v>
+        <v>54</v>
       </c>
       <c r="Q118" s="305">
         <f>-SUMIF($AT$48:$AT$49,"DR SPL - Non-controlling interests",$AV$48:$AV$49)</f>
@@ -55839,7 +55855,7 @@
       </c>
       <c r="S118" s="305">
         <f>-SUMIF($AT$54:$AT$76,"DR SPL - Non-controlling interests",$AV$54:$AV$76)</f>
-        <v>0</v>
+        <v>-3.3299999999999996</v>
       </c>
       <c r="T118" s="304">
         <f>SUMIF($AT$54:$AT$76,"DR SPL - Non-controlling interests",$AU$54:$AU$76)</f>
@@ -55847,7 +55863,7 @@
       </c>
       <c r="U118" s="305">
         <f>-SUMIF($AT$54:$AT$76,"DR SPL - Non-controlling interests",$AV$54:$AV$76)</f>
-        <v>0</v>
+        <v>-3.3299999999999996</v>
       </c>
       <c r="V118" s="304">
         <f>SUMIF($AT$69:$AT$76,"DR SPL - Non-controlling interests",$AU$69:$AU$76)</f>
@@ -55855,7 +55871,7 @@
       </c>
       <c r="W118" s="305">
         <f>-SUMIF($AT$69:$AT$76,"DR SPL - Non-controlling interests",$AV$69:$AV$76)</f>
-        <v>0</v>
+        <v>-3.3299999999999996</v>
       </c>
       <c r="X118" s="384"/>
       <c r="Y118" s="379"/>
@@ -55881,7 +55897,7 @@
       <c r="AG118" s="305"/>
       <c r="AH118" s="297">
         <f>SUM(H118:AG118)</f>
-        <v>84.800000000000011</v>
+        <v>44.010000000000005</v>
       </c>
       <c r="AR118" s="401" t="s">
         <v>1576</v>
@@ -55935,7 +55951,7 @@
       <c r="AG119" s="303"/>
       <c r="AH119" s="313">
         <f>AH114</f>
-        <v>0</v>
+        <v>-11.100000000000001</v>
       </c>
       <c r="AT119" s="267" t="s">
         <v>1579</v>
@@ -55994,7 +56010,7 @@
       <c r="AH120" s="297"/>
       <c r="AS120" s="667">
         <f>BC11</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AT120" s="267" t="s">
         <v>1578</v>
@@ -56052,11 +56068,11 @@
       <c r="AG121" s="303"/>
       <c r="AH121" s="334">
         <f>AH123-AH122</f>
-        <v>0</v>
+        <v>-11.100000000000001</v>
       </c>
       <c r="AS121" s="667">
         <f>BC11</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AT121" s="267" t="s">
         <v>1577</v>
@@ -56163,7 +56179,7 @@
       <c r="AG123" s="303"/>
       <c r="AH123" s="313">
         <f>AH114</f>
-        <v>0</v>
+        <v>-11.100000000000001</v>
       </c>
       <c r="AS123" s="276">
         <v>13</v>
@@ -56174,7 +56190,7 @@
       </c>
       <c r="AU123" s="275">
         <f>IF($BC$136&gt;0,$BC$136,0)</f>
-        <v>3.9500000000001023</v>
+        <v>61.769999999999996</v>
       </c>
       <c r="AV123" s="275">
         <f>IF($BC$136&lt;0,-$BC$136,0)</f>
@@ -56228,7 +56244,7 @@
       </c>
       <c r="AV124" s="275">
         <f>IF($BC$136&gt;0,$BC$136,0)</f>
-        <v>3.9500000000001023</v>
+        <v>61.769999999999996</v>
       </c>
       <c r="AZ124" s="448" t="s">
         <v>716</v>
@@ -56332,7 +56348,7 @@
       <c r="BB126" s="442"/>
       <c r="BC126" s="443">
         <f>BC52</f>
-        <v>84.800000000000011</v>
+        <v>54</v>
       </c>
       <c r="BD126" s="439"/>
     </row>
@@ -56418,7 +56434,7 @@
       <c r="J130" s="541"/>
       <c r="K130" s="541">
         <f>SUM(J12:K59,J67:K127)</f>
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="L130" s="541"/>
       <c r="M130" s="541">
@@ -56428,7 +56444,7 @@
       <c r="N130" s="541"/>
       <c r="O130" s="541">
         <f>SUM(N12:O59,N67:O127)</f>
-        <v>-40.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="P130" s="541"/>
       <c r="Q130" s="541">
@@ -56438,17 +56454,17 @@
       <c r="R130" s="541"/>
       <c r="S130" s="541">
         <f>SUM(R12:S59,R67:S127)</f>
-        <v>0</v>
+        <v>-3.3299999999999996</v>
       </c>
       <c r="T130" s="541"/>
       <c r="U130" s="541">
         <f>SUM(T12:U59,T67:U127)</f>
-        <v>0</v>
+        <v>-3.3299999999999996</v>
       </c>
       <c r="V130" s="541"/>
       <c r="W130" s="541">
         <f>SUM(V12:W59,V67:W127)</f>
-        <v>0</v>
+        <v>5.773159728050814E-15</v>
       </c>
       <c r="X130" s="541"/>
       <c r="Y130" s="541">
@@ -56463,7 +56479,7 @@
       <c r="AB130" s="541"/>
       <c r="AC130" s="541">
         <f>SUM(AB12:AC59,AB67:AC127)</f>
-        <v>2293.85</v>
+        <v>0</v>
       </c>
       <c r="AD130" s="541"/>
       <c r="AE130" s="541">
@@ -56473,7 +56489,7 @@
       <c r="AF130" s="541"/>
       <c r="AG130" s="541">
         <f>SUM(AF12:AG59,AF67:AG127)</f>
-        <v>3.9500000000001023</v>
+        <v>61.769999999999996</v>
       </c>
       <c r="AZ130" s="444" t="s">
         <v>817</v>
@@ -56507,7 +56523,7 @@
       <c r="BB132" s="442"/>
       <c r="BC132" s="451">
         <f>AU71</f>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="BD132" s="439"/>
     </row>
@@ -56519,7 +56535,7 @@
       <c r="BB133" s="442"/>
       <c r="BC133" s="451">
         <f>-AV76</f>
-        <v>0</v>
+        <v>-3.3299999999999996</v>
       </c>
       <c r="BD133" s="439"/>
     </row>
@@ -56531,7 +56547,7 @@
       <c r="BB134" s="442"/>
       <c r="BC134" s="451">
         <f>-BC107</f>
-        <v>-80.849999999999909</v>
+        <v>0</v>
       </c>
       <c r="BD134" s="439"/>
     </row>
@@ -56560,7 +56576,7 @@
       <c r="BB136" s="442"/>
       <c r="BC136" s="281">
         <f>SUM(BC125:BC135)</f>
-        <v>3.9500000000001023</v>
+        <v>61.769999999999996</v>
       </c>
       <c r="BD136" s="439"/>
     </row>
@@ -56570,11 +56586,11 @@
       </c>
       <c r="AF137" s="540">
         <f>SUM(AF67:AF127,AF12:AF59,AB12:AB59,AB67:AB127,Z67:Z127,Z12:Z59,AD12:AD59,AD67:AD127,X67:X127,X12:X59,V12:V59,V67:V127,T67:T127,T12:T59,R12:R59,R67:R127,P67:P127,P12:P59,N12:N59,N67:N127,L67:L127,L12:L59,J12:J59,J67:J127,H67:H127,H12:H59)</f>
-        <v>5010.4000000000005</v>
+        <v>2151.1000000000004</v>
       </c>
       <c r="AG137" s="540">
         <f>SUM(AG67:AG127,AG12:AG59,AC12:AC59,AC67:AC127,AA67:AA127,AA12:AA59,AE12:AE59,AE67:AE127,Y67:Y127,Y12:Y59,W12:W59,W67:W127,U67:U127,U12:U59,S12:S59,S67:S127,Q67:Q127,Q12:Q59,O12:O59,O67:O127,M67:M127,M12:M59,K12:K59,K67:K127,I67:I127,I12:I59)</f>
-        <v>-2753</v>
+        <v>-1830.99</v>
       </c>
       <c r="AZ137" s="453"/>
       <c r="BA137" s="454"/>
@@ -56588,22 +56604,22 @@
       </c>
       <c r="AF138" s="540">
         <f>AU6</f>
-        <v>5050.8</v>
+        <v>2151.1</v>
       </c>
       <c r="AG138" s="540">
         <f>-AV6</f>
-        <v>-5050.8</v>
+        <v>-2151.1</v>
       </c>
     </row>
     <row r="139" spans="9:56" x14ac:dyDescent="0.25">
       <c r="AE139" s="540"/>
       <c r="AF139" s="540">
         <f>AF137-AF138</f>
-        <v>-40.399999999999636</v>
+        <v>0</v>
       </c>
       <c r="AG139" s="540">
         <f>AG137-AG138</f>
-        <v>2297.8000000000002</v>
+        <v>320.1099999999999</v>
       </c>
       <c r="AI139" s="545" t="s">
         <v>1089</v>
@@ -56611,6 +56627,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="BS16:CA19"/>
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="H64:I64"/>
@@ -56626,20 +56656,6 @@
     <mergeCell ref="J64:K64"/>
     <mergeCell ref="Z64:AA64"/>
     <mergeCell ref="AF64:AG64"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -57151,86 +57167,86 @@
     </row>
     <row r="32" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="510"/>
-      <c r="B32" s="818" t="s">
+      <c r="B32" s="831" t="s">
         <v>1570</v>
       </c>
-      <c r="C32" s="818"/>
-      <c r="D32" s="818"/>
-      <c r="E32" s="818"/>
-      <c r="F32" s="818"/>
-      <c r="G32" s="818"/>
-      <c r="H32" s="818"/>
-      <c r="I32" s="818"/>
-      <c r="J32" s="818"/>
-      <c r="K32" s="818"/>
+      <c r="C32" s="831"/>
+      <c r="D32" s="831"/>
+      <c r="E32" s="831"/>
+      <c r="F32" s="831"/>
+      <c r="G32" s="831"/>
+      <c r="H32" s="831"/>
+      <c r="I32" s="831"/>
+      <c r="J32" s="831"/>
+      <c r="K32" s="831"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="510"/>
-      <c r="B33" s="818"/>
-      <c r="C33" s="818"/>
-      <c r="D33" s="818"/>
-      <c r="E33" s="818"/>
-      <c r="F33" s="818"/>
-      <c r="G33" s="818"/>
-      <c r="H33" s="818"/>
-      <c r="I33" s="818"/>
-      <c r="J33" s="818"/>
-      <c r="K33" s="818"/>
+      <c r="B33" s="831"/>
+      <c r="C33" s="831"/>
+      <c r="D33" s="831"/>
+      <c r="E33" s="831"/>
+      <c r="F33" s="831"/>
+      <c r="G33" s="831"/>
+      <c r="H33" s="831"/>
+      <c r="I33" s="831"/>
+      <c r="J33" s="831"/>
+      <c r="K33" s="831"/>
     </row>
     <row r="34" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="510"/>
-      <c r="B34" s="818"/>
-      <c r="C34" s="818"/>
-      <c r="D34" s="818"/>
-      <c r="E34" s="818"/>
-      <c r="F34" s="818"/>
-      <c r="G34" s="818"/>
-      <c r="H34" s="818"/>
-      <c r="I34" s="818"/>
-      <c r="J34" s="818"/>
-      <c r="K34" s="818"/>
+      <c r="B34" s="831"/>
+      <c r="C34" s="831"/>
+      <c r="D34" s="831"/>
+      <c r="E34" s="831"/>
+      <c r="F34" s="831"/>
+      <c r="G34" s="831"/>
+      <c r="H34" s="831"/>
+      <c r="I34" s="831"/>
+      <c r="J34" s="831"/>
+      <c r="K34" s="831"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="510"/>
-      <c r="B35" s="818"/>
-      <c r="C35" s="818"/>
-      <c r="D35" s="818"/>
-      <c r="E35" s="818"/>
-      <c r="F35" s="818"/>
-      <c r="G35" s="818"/>
-      <c r="H35" s="818"/>
-      <c r="I35" s="818"/>
-      <c r="J35" s="818"/>
-      <c r="K35" s="818"/>
+      <c r="B35" s="831"/>
+      <c r="C35" s="831"/>
+      <c r="D35" s="831"/>
+      <c r="E35" s="831"/>
+      <c r="F35" s="831"/>
+      <c r="G35" s="831"/>
+      <c r="H35" s="831"/>
+      <c r="I35" s="831"/>
+      <c r="J35" s="831"/>
+      <c r="K35" s="831"/>
       <c r="O35" s="509" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="510"/>
-      <c r="B36" s="818"/>
-      <c r="C36" s="818"/>
-      <c r="D36" s="818"/>
-      <c r="E36" s="818"/>
-      <c r="F36" s="818"/>
-      <c r="G36" s="818"/>
-      <c r="H36" s="818"/>
-      <c r="I36" s="818"/>
-      <c r="J36" s="818"/>
-      <c r="K36" s="818"/>
+      <c r="B36" s="831"/>
+      <c r="C36" s="831"/>
+      <c r="D36" s="831"/>
+      <c r="E36" s="831"/>
+      <c r="F36" s="831"/>
+      <c r="G36" s="831"/>
+      <c r="H36" s="831"/>
+      <c r="I36" s="831"/>
+      <c r="J36" s="831"/>
+      <c r="K36" s="831"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="510"/>
-      <c r="B37" s="818"/>
-      <c r="C37" s="818"/>
-      <c r="D37" s="818"/>
-      <c r="E37" s="818"/>
-      <c r="F37" s="818"/>
-      <c r="G37" s="818"/>
-      <c r="H37" s="818"/>
-      <c r="I37" s="818"/>
-      <c r="J37" s="818"/>
-      <c r="K37" s="818"/>
+      <c r="B37" s="831"/>
+      <c r="C37" s="831"/>
+      <c r="D37" s="831"/>
+      <c r="E37" s="831"/>
+      <c r="F37" s="831"/>
+      <c r="G37" s="831"/>
+      <c r="H37" s="831"/>
+      <c r="I37" s="831"/>
+      <c r="J37" s="831"/>
+      <c r="K37" s="831"/>
       <c r="O37" s="509" t="s">
         <v>1020</v>
       </c>

--- a/FINREP Solver.xlsx
+++ b/FINREP Solver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2070" documentId="8_{A2D2504D-96DB-4FA9-9006-A80B30F5C4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D06454-B18C-4650-9348-8B5EABEEDE7A}"/>
+  <xr:revisionPtr revIDLastSave="2116" documentId="8_{A2D2504D-96DB-4FA9-9006-A80B30F5C4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7386FD70-2734-4BB7-8B57-28A6A4F5D101}"/>
   <bookViews>
-    <workbookView xWindow="21765" yWindow="8310" windowWidth="12420" windowHeight="11385" firstSheet="28" activeTab="32" xr2:uid="{91612E34-D7FE-4A93-ABEC-7ACBA05504AC}"/>
+    <workbookView xWindow="780" yWindow="705" windowWidth="6675" windowHeight="6945" firstSheet="21" activeTab="26" xr2:uid="{91612E34-D7FE-4A93-ABEC-7ACBA05504AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="32" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3690" uniqueCount="1989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="2012">
   <si>
     <t>Profit before tax</t>
   </si>
@@ -6500,6 +6500,75 @@
   </si>
   <si>
     <t>Inventories must be valued at their [cost/nrv] of £xxx as net realisable value is less than/is greater than the unit cost.</t>
+  </si>
+  <si>
+    <t>Sale and Leaseback:</t>
+  </si>
+  <si>
+    <t>A sale has occurred if the rights to use the asset have been transferred after the lease term (and if this is for a substantial part of its useful life). Transaction therefore qualifies as a sale under IFRS 15 Revenue, and should be accounted for as sale and leaseback.</t>
+  </si>
+  <si>
+    <t>The proceeds received represent the leasing of the asset (lease liability of £…) and the balance represents the sales proceeds for the part of the asset not leased back.</t>
+  </si>
+  <si>
+    <t>Only a proportion of tha gain on disposal may be recognised in the statement of profit or loss, equivalent to the proportion of the asset transferred.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lease liability should be equivalent to the PV of future lease payments and not simply the FV of the asset/ cash consideration. </t>
+  </si>
+  <si>
+    <t>ROU property - cost' must be recognised instead of 'Property - cost' and so the old account must be removed (I.e. PPE derecognised and ROU asset recognised)</t>
+  </si>
+  <si>
+    <t>Asset Cost</t>
+  </si>
+  <si>
+    <t>In substance, no sale if retaining the right to use the asset over the overwhelming part of remaining useful life - instead treat as financial liability measured at amortised cost.  Analyse each payment into interest/ capital using effective interest rate. Property remains on SoFP and is depreciated over lease period.</t>
+  </si>
+  <si>
+    <t>Accumlated depreciation</t>
+  </si>
+  <si>
+    <t>Carrying amount of underlying asset</t>
+  </si>
+  <si>
+    <t>FV of underlying asset</t>
+  </si>
+  <si>
+    <t>% retained equal to discounted lease payments/ FV</t>
+  </si>
+  <si>
+    <t>PV of future payments or FV of RoU asset</t>
+  </si>
+  <si>
+    <t>Proceeds - Carrying value</t>
+  </si>
+  <si>
+    <t>CR Lease payable</t>
+  </si>
+  <si>
+    <t>DR RoU property - cost</t>
+  </si>
+  <si>
+    <t>(Carrying amount/Fair value)*discounted lease payments)</t>
+  </si>
+  <si>
+    <t>Presented as separate category of asset or separately within disclosure note.</t>
+  </si>
+  <si>
+    <t>(Total gain/Fair value of asset)*(Proceeds - Discounted lease payments)</t>
+  </si>
+  <si>
+    <t>Gain on sale relates to part sold</t>
+  </si>
+  <si>
+    <t>CR PPE</t>
+  </si>
+  <si>
+    <t>DR Property - accumulated depreciation</t>
+  </si>
+  <si>
+    <t>Depreciation Charge</t>
   </si>
 </sst>
 </file>
@@ -8217,7 +8286,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="934">
+  <cellXfs count="935">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10033,6 +10102,10 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10042,20 +10115,11 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10063,8 +10127,17 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -10150,6 +10223,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -10194,42 +10303,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -10288,10 +10361,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12128,7 +12198,7 @@
   <dimension ref="B2:M34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12451,7 +12521,7 @@
       <c r="B6" s="224" t="s">
         <v>636</v>
       </c>
-      <c r="C6" s="850" t="s">
+      <c r="C6" s="853" t="s">
         <v>637</v>
       </c>
       <c r="D6" s="225"/>
@@ -12492,52 +12562,52 @@
       <c r="B7" s="227" t="s">
         <v>638</v>
       </c>
-      <c r="C7" s="851"/>
+      <c r="C7" s="858"/>
       <c r="D7" s="225"/>
-      <c r="E7" s="848">
+      <c r="E7" s="850">
         <v>1</v>
       </c>
-      <c r="F7" s="853"/>
-      <c r="G7" s="848">
+      <c r="F7" s="856"/>
+      <c r="G7" s="850">
         <v>2</v>
       </c>
-      <c r="H7" s="849"/>
-      <c r="I7" s="848">
+      <c r="H7" s="851"/>
+      <c r="I7" s="850">
         <v>3</v>
       </c>
-      <c r="J7" s="853"/>
-      <c r="K7" s="848">
+      <c r="J7" s="856"/>
+      <c r="K7" s="850">
         <v>4</v>
       </c>
-      <c r="L7" s="849"/>
-      <c r="M7" s="853">
+      <c r="L7" s="851"/>
+      <c r="M7" s="856">
         <v>5</v>
       </c>
-      <c r="N7" s="849"/>
-      <c r="O7" s="848">
+      <c r="N7" s="851"/>
+      <c r="O7" s="850">
         <v>6</v>
       </c>
-      <c r="P7" s="849"/>
-      <c r="Q7" s="848">
+      <c r="P7" s="851"/>
+      <c r="Q7" s="850">
         <v>6</v>
       </c>
-      <c r="R7" s="849"/>
-      <c r="S7" s="848">
+      <c r="R7" s="851"/>
+      <c r="S7" s="850">
         <v>7</v>
       </c>
-      <c r="T7" s="849"/>
-      <c r="U7" s="848">
+      <c r="T7" s="851"/>
+      <c r="U7" s="850">
         <v>8</v>
       </c>
-      <c r="V7" s="849"/>
-      <c r="W7" s="848">
+      <c r="V7" s="851"/>
+      <c r="W7" s="850">
         <v>9</v>
       </c>
-      <c r="X7" s="849"/>
-      <c r="Y7" s="848">
+      <c r="X7" s="851"/>
+      <c r="Y7" s="850">
         <v>10</v>
       </c>
-      <c r="Z7" s="849"/>
+      <c r="Z7" s="851"/>
       <c r="AA7" s="308"/>
       <c r="AJ7" s="435" t="s">
         <v>660</v>
@@ -12551,7 +12621,7 @@
       <c r="B8" s="228" t="s">
         <v>852</v>
       </c>
-      <c r="C8" s="852"/>
+      <c r="C8" s="859"/>
       <c r="D8" s="229" t="s">
         <v>865</v>
       </c>
@@ -15008,7 +15078,7 @@
       <c r="B63" s="224" t="s">
         <v>636</v>
       </c>
-      <c r="C63" s="850" t="s">
+      <c r="C63" s="853" t="s">
         <v>637</v>
       </c>
       <c r="D63" s="229"/>
@@ -15040,59 +15110,59 @@
       <c r="B64" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="855"/>
+      <c r="C64" s="854"/>
       <c r="D64" s="225"/>
-      <c r="E64" s="848">
+      <c r="E64" s="850">
         <v>1</v>
       </c>
-      <c r="F64" s="853"/>
-      <c r="G64" s="848">
+      <c r="F64" s="856"/>
+      <c r="G64" s="850">
         <v>2</v>
       </c>
-      <c r="H64" s="849"/>
-      <c r="I64" s="848">
+      <c r="H64" s="851"/>
+      <c r="I64" s="850">
         <v>3</v>
       </c>
-      <c r="J64" s="853"/>
-      <c r="K64" s="848">
+      <c r="J64" s="856"/>
+      <c r="K64" s="850">
         <v>4</v>
       </c>
-      <c r="L64" s="849"/>
-      <c r="M64" s="853">
+      <c r="L64" s="851"/>
+      <c r="M64" s="856">
         <v>5</v>
       </c>
-      <c r="N64" s="849"/>
-      <c r="O64" s="848">
+      <c r="N64" s="851"/>
+      <c r="O64" s="850">
         <v>6</v>
       </c>
-      <c r="P64" s="849"/>
-      <c r="Q64" s="848">
+      <c r="P64" s="851"/>
+      <c r="Q64" s="850">
         <v>7</v>
       </c>
-      <c r="R64" s="849"/>
-      <c r="S64" s="848">
+      <c r="R64" s="851"/>
+      <c r="S64" s="850">
         <v>8</v>
       </c>
-      <c r="T64" s="849"/>
-      <c r="U64" s="859">
+      <c r="T64" s="851"/>
+      <c r="U64" s="861">
         <v>9</v>
       </c>
-      <c r="V64" s="859"/>
-      <c r="W64" s="853">
+      <c r="V64" s="861"/>
+      <c r="W64" s="856">
         <v>10</v>
       </c>
-      <c r="X64" s="849"/>
-      <c r="Y64" s="848">
+      <c r="X64" s="851"/>
+      <c r="Y64" s="850">
         <v>11</v>
       </c>
-      <c r="Z64" s="849"/>
+      <c r="Z64" s="851"/>
       <c r="AA64" s="308"/>
     </row>
     <row r="65" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="228" t="s">
         <v>699</v>
       </c>
-      <c r="C65" s="856"/>
+      <c r="C65" s="855"/>
       <c r="D65" s="229" t="s">
         <v>639</v>
       </c>
@@ -17190,6 +17260,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
     <mergeCell ref="S64:T64"/>
     <mergeCell ref="U64:V64"/>
     <mergeCell ref="W64:X64"/>
@@ -17198,22 +17284,6 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="W7:X7"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7C056742-B5A5-47BE-85B9-A96C809455AA}"/>
@@ -17480,7 +17550,9 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -17744,83 +17816,83 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="865" t="s">
+      <c r="B2" s="867" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="866"/>
-      <c r="D2" s="866"/>
-      <c r="E2" s="866"/>
-      <c r="F2" s="867"/>
+      <c r="C2" s="868"/>
+      <c r="D2" s="868"/>
+      <c r="E2" s="868"/>
+      <c r="F2" s="869"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="868"/>
-      <c r="C3" s="869"/>
-      <c r="D3" s="869"/>
-      <c r="E3" s="869"/>
-      <c r="F3" s="870"/>
+      <c r="B3" s="870"/>
+      <c r="C3" s="871"/>
+      <c r="D3" s="871"/>
+      <c r="E3" s="871"/>
+      <c r="F3" s="872"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="868"/>
-      <c r="C4" s="869"/>
-      <c r="D4" s="869"/>
-      <c r="E4" s="869"/>
-      <c r="F4" s="870"/>
+      <c r="B4" s="870"/>
+      <c r="C4" s="871"/>
+      <c r="D4" s="871"/>
+      <c r="E4" s="871"/>
+      <c r="F4" s="872"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="868"/>
-      <c r="C5" s="869"/>
-      <c r="D5" s="869"/>
-      <c r="E5" s="869"/>
-      <c r="F5" s="870"/>
+      <c r="B5" s="870"/>
+      <c r="C5" s="871"/>
+      <c r="D5" s="871"/>
+      <c r="E5" s="871"/>
+      <c r="F5" s="872"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="868"/>
-      <c r="C6" s="869"/>
-      <c r="D6" s="869"/>
-      <c r="E6" s="869"/>
-      <c r="F6" s="870"/>
+      <c r="B6" s="870"/>
+      <c r="C6" s="871"/>
+      <c r="D6" s="871"/>
+      <c r="E6" s="871"/>
+      <c r="F6" s="872"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="868"/>
-      <c r="C7" s="869"/>
-      <c r="D7" s="869"/>
-      <c r="E7" s="869"/>
-      <c r="F7" s="870"/>
+      <c r="B7" s="870"/>
+      <c r="C7" s="871"/>
+      <c r="D7" s="871"/>
+      <c r="E7" s="871"/>
+      <c r="F7" s="872"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="868"/>
-      <c r="C8" s="869"/>
-      <c r="D8" s="869"/>
-      <c r="E8" s="869"/>
-      <c r="F8" s="870"/>
+      <c r="B8" s="870"/>
+      <c r="C8" s="871"/>
+      <c r="D8" s="871"/>
+      <c r="E8" s="871"/>
+      <c r="F8" s="872"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="868"/>
-      <c r="C9" s="869"/>
-      <c r="D9" s="869"/>
-      <c r="E9" s="869"/>
-      <c r="F9" s="870"/>
+      <c r="B9" s="870"/>
+      <c r="C9" s="871"/>
+      <c r="D9" s="871"/>
+      <c r="E9" s="871"/>
+      <c r="F9" s="872"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="868"/>
-      <c r="C10" s="869"/>
-      <c r="D10" s="869"/>
-      <c r="E10" s="869"/>
-      <c r="F10" s="870"/>
+      <c r="B10" s="870"/>
+      <c r="C10" s="871"/>
+      <c r="D10" s="871"/>
+      <c r="E10" s="871"/>
+      <c r="F10" s="872"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="868"/>
-      <c r="C11" s="869"/>
-      <c r="D11" s="869"/>
-      <c r="E11" s="869"/>
-      <c r="F11" s="870"/>
+      <c r="B11" s="870"/>
+      <c r="C11" s="871"/>
+      <c r="D11" s="871"/>
+      <c r="E11" s="871"/>
+      <c r="F11" s="872"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="871"/>
-      <c r="C12" s="872"/>
-      <c r="D12" s="872"/>
-      <c r="E12" s="872"/>
-      <c r="F12" s="873"/>
+      <c r="B12" s="873"/>
+      <c r="C12" s="874"/>
+      <c r="D12" s="874"/>
+      <c r="E12" s="874"/>
+      <c r="F12" s="875"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -17838,11 +17910,11 @@
       <c r="G15" s="66"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="874" t="s">
+      <c r="B16" s="876" t="s">
         <v>1401</v>
       </c>
-      <c r="C16" s="874"/>
-      <c r="D16" s="874"/>
+      <c r="C16" s="876"/>
+      <c r="D16" s="876"/>
       <c r="F16" s="63" t="s">
         <v>169</v>
       </c>
@@ -17855,9 +17927,9 @@
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="874"/>
-      <c r="C17" s="874"/>
-      <c r="D17" s="874"/>
+      <c r="B17" s="876"/>
+      <c r="C17" s="876"/>
+      <c r="D17" s="876"/>
       <c r="F17" s="63" t="s">
         <v>168</v>
       </c>
@@ -17896,11 +17968,11 @@
       <c r="I19" s="41"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="875" t="s">
+      <c r="B20" s="877" t="s">
         <v>1905</v>
       </c>
-      <c r="C20" s="875"/>
-      <c r="D20" s="875"/>
+      <c r="C20" s="877"/>
+      <c r="D20" s="877"/>
       <c r="F20" s="63" t="s">
         <v>174</v>
       </c>
@@ -17911,9 +17983,9 @@
       <c r="I20" s="41"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="875"/>
-      <c r="C21" s="875"/>
-      <c r="D21" s="875"/>
+      <c r="B21" s="877"/>
+      <c r="C21" s="877"/>
+      <c r="D21" s="877"/>
       <c r="F21" s="63" t="s">
         <v>177</v>
       </c>
@@ -17923,9 +17995,9 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="875"/>
-      <c r="C22" s="875"/>
-      <c r="D22" s="875"/>
+      <c r="B22" s="877"/>
+      <c r="C22" s="877"/>
+      <c r="D22" s="877"/>
       <c r="F22" s="63" t="s">
         <v>149</v>
       </c>
@@ -17988,12 +18060,12 @@
       <c r="F32" s="418"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J33" s="861" t="s">
+      <c r="J33" s="863" t="s">
         <v>206</v>
       </c>
-      <c r="K33" s="862"/>
-      <c r="L33" s="862"/>
-      <c r="M33" s="862"/>
+      <c r="K33" s="864"/>
+      <c r="L33" s="864"/>
+      <c r="M33" s="864"/>
       <c r="N33" s="61"/>
       <c r="O33" s="61"/>
       <c r="P33" s="62"/>
@@ -18009,10 +18081,10 @@
       </c>
       <c r="G34" s="112"/>
       <c r="H34" s="113"/>
-      <c r="J34" s="863"/>
-      <c r="K34" s="864"/>
-      <c r="L34" s="864"/>
-      <c r="M34" s="864"/>
+      <c r="J34" s="865"/>
+      <c r="K34" s="866"/>
+      <c r="L34" s="866"/>
+      <c r="M34" s="866"/>
       <c r="N34" s="64"/>
       <c r="O34" s="64"/>
       <c r="P34" s="66"/>
@@ -18023,15 +18095,15 @@
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="66"/>
-      <c r="F35" s="868" t="s">
+      <c r="F35" s="870" t="s">
         <v>1904</v>
       </c>
-      <c r="G35" s="869"/>
-      <c r="H35" s="870"/>
-      <c r="J35" s="863"/>
-      <c r="K35" s="864"/>
-      <c r="L35" s="864"/>
-      <c r="M35" s="864"/>
+      <c r="G35" s="871"/>
+      <c r="H35" s="872"/>
+      <c r="J35" s="865"/>
+      <c r="K35" s="866"/>
+      <c r="L35" s="866"/>
+      <c r="M35" s="866"/>
       <c r="N35" s="83"/>
       <c r="O35" s="64"/>
       <c r="P35" s="66"/>
@@ -18044,9 +18116,9 @@
         <v>4500</v>
       </c>
       <c r="D36" s="66"/>
-      <c r="F36" s="868"/>
-      <c r="G36" s="869"/>
-      <c r="H36" s="870"/>
+      <c r="F36" s="870"/>
+      <c r="G36" s="871"/>
+      <c r="H36" s="872"/>
       <c r="J36" s="63" t="s">
         <v>204</v>
       </c>
@@ -18069,9 +18141,9 @@
         <v>-936</v>
       </c>
       <c r="D37" s="66"/>
-      <c r="F37" s="868"/>
-      <c r="G37" s="869"/>
-      <c r="H37" s="870"/>
+      <c r="F37" s="870"/>
+      <c r="G37" s="871"/>
+      <c r="H37" s="872"/>
       <c r="J37" s="63" t="s">
         <v>1153</v>
       </c>
@@ -19226,37 +19298,37 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="876" t="s">
+      <c r="B2" s="878" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="877"/>
+      <c r="C2" s="879"/>
       <c r="D2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="878"/>
-      <c r="C3" s="879"/>
+      <c r="B3" s="880"/>
+      <c r="C3" s="881"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="878"/>
-      <c r="C4" s="879"/>
+      <c r="B4" s="880"/>
+      <c r="C4" s="881"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="878"/>
-      <c r="C5" s="879"/>
+      <c r="B5" s="880"/>
+      <c r="C5" s="881"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="878"/>
-      <c r="C6" s="879"/>
+      <c r="B6" s="880"/>
+      <c r="C6" s="881"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="878"/>
-      <c r="C7" s="879"/>
+      <c r="B7" s="880"/>
+      <c r="C7" s="881"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="880"/>
-      <c r="C8" s="881"/>
+      <c r="B8" s="882"/>
+      <c r="C8" s="883"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J9" s="1" t="s">
@@ -19865,10 +19937,10 @@
       <c r="D3" s="225"/>
       <c r="E3" s="225"/>
       <c r="F3" s="571"/>
-      <c r="G3" s="853">
+      <c r="G3" s="856">
         <v>1</v>
       </c>
-      <c r="H3" s="853"/>
+      <c r="H3" s="856"/>
     </row>
     <row r="4" spans="1:16" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="572" t="s">
@@ -20998,74 +21070,74 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="874" t="s">
+      <c r="B18" s="876" t="s">
         <v>1942</v>
       </c>
-      <c r="C18" s="874"/>
-      <c r="D18" s="874"/>
+      <c r="C18" s="876"/>
+      <c r="D18" s="876"/>
       <c r="F18" s="492"/>
       <c r="J18" s="418"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="874"/>
-      <c r="C19" s="874"/>
-      <c r="D19" s="874"/>
+      <c r="B19" s="876"/>
+      <c r="C19" s="876"/>
+      <c r="D19" s="876"/>
       <c r="F19" s="492"/>
       <c r="J19" s="418"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="874"/>
-      <c r="C20" s="874"/>
-      <c r="D20" s="874"/>
+      <c r="B20" s="876"/>
+      <c r="C20" s="876"/>
+      <c r="D20" s="876"/>
       <c r="F20" s="492"/>
       <c r="J20" s="418"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="874"/>
-      <c r="C21" s="874"/>
-      <c r="D21" s="874"/>
+      <c r="B21" s="876"/>
+      <c r="C21" s="876"/>
+      <c r="D21" s="876"/>
       <c r="F21" s="492"/>
       <c r="J21" s="418"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="874"/>
-      <c r="C22" s="874"/>
-      <c r="D22" s="874"/>
+      <c r="B22" s="876"/>
+      <c r="C22" s="876"/>
+      <c r="D22" s="876"/>
       <c r="F22" s="492"/>
       <c r="J22" s="418"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="874"/>
-      <c r="C23" s="874"/>
-      <c r="D23" s="874"/>
+      <c r="B23" s="876"/>
+      <c r="C23" s="876"/>
+      <c r="D23" s="876"/>
       <c r="F23" s="492"/>
       <c r="J23" s="418"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="874"/>
-      <c r="C24" s="874"/>
-      <c r="D24" s="874"/>
+      <c r="B24" s="876"/>
+      <c r="C24" s="876"/>
+      <c r="D24" s="876"/>
       <c r="F24" s="492"/>
       <c r="J24" s="418"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="874"/>
-      <c r="C25" s="874"/>
-      <c r="D25" s="874"/>
+      <c r="B25" s="876"/>
+      <c r="C25" s="876"/>
+      <c r="D25" s="876"/>
       <c r="F25" s="492"/>
       <c r="J25" s="418"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="874"/>
-      <c r="C26" s="874"/>
-      <c r="D26" s="874"/>
+      <c r="B26" s="876"/>
+      <c r="C26" s="876"/>
+      <c r="D26" s="876"/>
       <c r="F26" s="492"/>
       <c r="J26" s="418"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="874"/>
-      <c r="C27" s="874"/>
-      <c r="D27" s="874"/>
+      <c r="B27" s="876"/>
+      <c r="C27" s="876"/>
+      <c r="D27" s="876"/>
       <c r="F27" s="492"/>
     </row>
     <row r="28" spans="2:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -21374,12 +21446,12 @@
       </c>
       <c r="C67" s="112"/>
       <c r="D67" s="113"/>
-      <c r="G67" s="882" t="s">
+      <c r="G67" s="884" t="s">
         <v>206</v>
       </c>
-      <c r="H67" s="883"/>
-      <c r="I67" s="883"/>
-      <c r="J67" s="883"/>
+      <c r="H67" s="885"/>
+      <c r="I67" s="885"/>
+      <c r="J67" s="885"/>
       <c r="K67" s="61"/>
       <c r="L67" s="62"/>
     </row>
@@ -21387,10 +21459,10 @@
       <c r="B68" s="63"/>
       <c r="C68" s="64"/>
       <c r="D68" s="66"/>
-      <c r="G68" s="884"/>
-      <c r="H68" s="885"/>
-      <c r="I68" s="885"/>
-      <c r="J68" s="885"/>
+      <c r="G68" s="886"/>
+      <c r="H68" s="887"/>
+      <c r="I68" s="887"/>
+      <c r="J68" s="887"/>
       <c r="K68" s="64"/>
       <c r="L68" s="66"/>
     </row>
@@ -21400,10 +21472,10 @@
       </c>
       <c r="C69" s="94"/>
       <c r="D69" s="66"/>
-      <c r="G69" s="884"/>
-      <c r="H69" s="885"/>
-      <c r="I69" s="885"/>
-      <c r="J69" s="885"/>
+      <c r="G69" s="886"/>
+      <c r="H69" s="887"/>
+      <c r="I69" s="887"/>
+      <c r="J69" s="887"/>
       <c r="K69" s="83"/>
       <c r="L69" s="66"/>
     </row>
@@ -22818,78 +22890,78 @@
         <f>IF($F$58&gt;0,$F$58,0)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="874" t="s">
+      <c r="I61" s="876" t="s">
         <v>1817</v>
       </c>
-      <c r="J61" s="874"/>
-      <c r="K61" s="874"/>
-      <c r="L61" s="874"/>
-      <c r="M61" s="874"/>
-      <c r="N61" s="874"/>
-      <c r="O61" s="874"/>
-      <c r="P61" s="874"/>
-      <c r="Q61" s="874"/>
-      <c r="R61" s="874"/>
-      <c r="S61" s="874"/>
-      <c r="T61" s="874"/>
-      <c r="U61" s="874"/>
-      <c r="V61" s="874"/>
-      <c r="W61" s="874"/>
-      <c r="X61" s="874"/>
+      <c r="J61" s="876"/>
+      <c r="K61" s="876"/>
+      <c r="L61" s="876"/>
+      <c r="M61" s="876"/>
+      <c r="N61" s="876"/>
+      <c r="O61" s="876"/>
+      <c r="P61" s="876"/>
+      <c r="Q61" s="876"/>
+      <c r="R61" s="876"/>
+      <c r="S61" s="876"/>
+      <c r="T61" s="876"/>
+      <c r="U61" s="876"/>
+      <c r="V61" s="876"/>
+      <c r="W61" s="876"/>
+      <c r="X61" s="876"/>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="I62" s="874"/>
-      <c r="J62" s="874"/>
-      <c r="K62" s="874"/>
-      <c r="L62" s="874"/>
-      <c r="M62" s="874"/>
-      <c r="N62" s="874"/>
-      <c r="O62" s="874"/>
-      <c r="P62" s="874"/>
-      <c r="Q62" s="874"/>
-      <c r="R62" s="874"/>
-      <c r="S62" s="874"/>
-      <c r="T62" s="874"/>
-      <c r="U62" s="874"/>
-      <c r="V62" s="874"/>
-      <c r="W62" s="874"/>
-      <c r="X62" s="874"/>
+      <c r="I62" s="876"/>
+      <c r="J62" s="876"/>
+      <c r="K62" s="876"/>
+      <c r="L62" s="876"/>
+      <c r="M62" s="876"/>
+      <c r="N62" s="876"/>
+      <c r="O62" s="876"/>
+      <c r="P62" s="876"/>
+      <c r="Q62" s="876"/>
+      <c r="R62" s="876"/>
+      <c r="S62" s="876"/>
+      <c r="T62" s="876"/>
+      <c r="U62" s="876"/>
+      <c r="V62" s="876"/>
+      <c r="W62" s="876"/>
+      <c r="X62" s="876"/>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="I63" s="874"/>
-      <c r="J63" s="874"/>
-      <c r="K63" s="874"/>
-      <c r="L63" s="874"/>
-      <c r="M63" s="874"/>
-      <c r="N63" s="874"/>
-      <c r="O63" s="874"/>
-      <c r="P63" s="874"/>
-      <c r="Q63" s="874"/>
-      <c r="R63" s="874"/>
-      <c r="S63" s="874"/>
-      <c r="T63" s="874"/>
-      <c r="U63" s="874"/>
-      <c r="V63" s="874"/>
-      <c r="W63" s="874"/>
-      <c r="X63" s="874"/>
+      <c r="I63" s="876"/>
+      <c r="J63" s="876"/>
+      <c r="K63" s="876"/>
+      <c r="L63" s="876"/>
+      <c r="M63" s="876"/>
+      <c r="N63" s="876"/>
+      <c r="O63" s="876"/>
+      <c r="P63" s="876"/>
+      <c r="Q63" s="876"/>
+      <c r="R63" s="876"/>
+      <c r="S63" s="876"/>
+      <c r="T63" s="876"/>
+      <c r="U63" s="876"/>
+      <c r="V63" s="876"/>
+      <c r="W63" s="876"/>
+      <c r="X63" s="876"/>
     </row>
     <row r="64" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I64" s="874"/>
-      <c r="J64" s="874"/>
-      <c r="K64" s="874"/>
-      <c r="L64" s="874"/>
-      <c r="M64" s="874"/>
-      <c r="N64" s="874"/>
-      <c r="O64" s="874"/>
-      <c r="P64" s="874"/>
-      <c r="Q64" s="874"/>
-      <c r="R64" s="874"/>
-      <c r="S64" s="874"/>
-      <c r="T64" s="874"/>
-      <c r="U64" s="874"/>
-      <c r="V64" s="874"/>
-      <c r="W64" s="874"/>
-      <c r="X64" s="874"/>
+      <c r="I64" s="876"/>
+      <c r="J64" s="876"/>
+      <c r="K64" s="876"/>
+      <c r="L64" s="876"/>
+      <c r="M64" s="876"/>
+      <c r="N64" s="876"/>
+      <c r="O64" s="876"/>
+      <c r="P64" s="876"/>
+      <c r="Q64" s="876"/>
+      <c r="R64" s="876"/>
+      <c r="S64" s="876"/>
+      <c r="T64" s="876"/>
+      <c r="U64" s="876"/>
+      <c r="V64" s="876"/>
+      <c r="W64" s="876"/>
+      <c r="X64" s="876"/>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="60"/>
@@ -22898,25 +22970,25 @@
       <c r="E65" s="61"/>
       <c r="F65" s="61"/>
       <c r="G65" s="62"/>
-      <c r="I65" s="874" t="str">
+      <c r="I65" s="876" t="str">
         <f>"As there are £"&amp;SUMIF(E68:E77,"&gt;0")&amp;" of taxable temporary differences as at …, all deductible differences can be recognised"</f>
         <v>As there are £0 of taxable temporary differences as at …, all deductible differences can be recognised</v>
       </c>
-      <c r="J65" s="874"/>
-      <c r="K65" s="874"/>
-      <c r="L65" s="874"/>
-      <c r="M65" s="874"/>
-      <c r="N65" s="874"/>
-      <c r="O65" s="874"/>
-      <c r="P65" s="874"/>
-      <c r="Q65" s="874"/>
-      <c r="R65" s="874"/>
-      <c r="S65" s="874"/>
-      <c r="T65" s="874"/>
-      <c r="U65" s="874"/>
-      <c r="V65" s="874"/>
-      <c r="W65" s="874"/>
-      <c r="X65" s="874"/>
+      <c r="J65" s="876"/>
+      <c r="K65" s="876"/>
+      <c r="L65" s="876"/>
+      <c r="M65" s="876"/>
+      <c r="N65" s="876"/>
+      <c r="O65" s="876"/>
+      <c r="P65" s="876"/>
+      <c r="Q65" s="876"/>
+      <c r="R65" s="876"/>
+      <c r="S65" s="876"/>
+      <c r="T65" s="876"/>
+      <c r="U65" s="876"/>
+      <c r="V65" s="876"/>
+      <c r="W65" s="876"/>
+      <c r="X65" s="876"/>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" s="63" t="s">
@@ -22929,22 +23001,22 @@
       <c r="E66" s="64"/>
       <c r="F66" s="64"/>
       <c r="G66" s="66"/>
-      <c r="I66" s="874"/>
-      <c r="J66" s="874"/>
-      <c r="K66" s="874"/>
-      <c r="L66" s="874"/>
-      <c r="M66" s="874"/>
-      <c r="N66" s="874"/>
-      <c r="O66" s="874"/>
-      <c r="P66" s="874"/>
-      <c r="Q66" s="874"/>
-      <c r="R66" s="874"/>
-      <c r="S66" s="874"/>
-      <c r="T66" s="874"/>
-      <c r="U66" s="874"/>
-      <c r="V66" s="874"/>
-      <c r="W66" s="874"/>
-      <c r="X66" s="874"/>
+      <c r="I66" s="876"/>
+      <c r="J66" s="876"/>
+      <c r="K66" s="876"/>
+      <c r="L66" s="876"/>
+      <c r="M66" s="876"/>
+      <c r="N66" s="876"/>
+      <c r="O66" s="876"/>
+      <c r="P66" s="876"/>
+      <c r="Q66" s="876"/>
+      <c r="R66" s="876"/>
+      <c r="S66" s="876"/>
+      <c r="T66" s="876"/>
+      <c r="U66" s="876"/>
+      <c r="V66" s="876"/>
+      <c r="W66" s="876"/>
+      <c r="X66" s="876"/>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" s="63"/>
@@ -22961,22 +23033,22 @@
         <v>1814</v>
       </c>
       <c r="G67" s="66"/>
-      <c r="I67" s="874"/>
-      <c r="J67" s="874"/>
-      <c r="K67" s="874"/>
-      <c r="L67" s="874"/>
-      <c r="M67" s="874"/>
-      <c r="N67" s="874"/>
-      <c r="O67" s="874"/>
-      <c r="P67" s="874"/>
-      <c r="Q67" s="874"/>
-      <c r="R67" s="874"/>
-      <c r="S67" s="874"/>
-      <c r="T67" s="874"/>
-      <c r="U67" s="874"/>
-      <c r="V67" s="874"/>
-      <c r="W67" s="874"/>
-      <c r="X67" s="874"/>
+      <c r="I67" s="876"/>
+      <c r="J67" s="876"/>
+      <c r="K67" s="876"/>
+      <c r="L67" s="876"/>
+      <c r="M67" s="876"/>
+      <c r="N67" s="876"/>
+      <c r="O67" s="876"/>
+      <c r="P67" s="876"/>
+      <c r="Q67" s="876"/>
+      <c r="R67" s="876"/>
+      <c r="S67" s="876"/>
+      <c r="T67" s="876"/>
+      <c r="U67" s="876"/>
+      <c r="V67" s="876"/>
+      <c r="W67" s="876"/>
+      <c r="X67" s="876"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="63" t="s">
@@ -23099,25 +23171,25 @@
         <v>0</v>
       </c>
       <c r="G74" s="66"/>
-      <c r="I74" s="874" t="str">
+      <c r="I74" s="876" t="str">
         <f>"Tax losses can also be recognised to the extent of the existence of taxable temporary differences. From above, £"&amp;SUMIF(E68:E77,"&gt;0")+SUMIF(E68:E73,"&lt;0")&amp;" of taxable losses would be covered by such differences. This would leave … of losses, creating a potential DTA."</f>
         <v>Tax losses can also be recognised to the extent of the existence of taxable temporary differences. From above, £0 of taxable losses would be covered by such differences. This would leave … of losses, creating a potential DTA.</v>
       </c>
-      <c r="J74" s="874"/>
-      <c r="K74" s="874"/>
-      <c r="L74" s="874"/>
-      <c r="M74" s="874"/>
-      <c r="N74" s="874"/>
-      <c r="O74" s="874"/>
-      <c r="P74" s="874"/>
-      <c r="Q74" s="874"/>
-      <c r="R74" s="874"/>
-      <c r="S74" s="874"/>
-      <c r="T74" s="874"/>
-      <c r="U74" s="874"/>
-      <c r="V74" s="874"/>
-      <c r="W74" s="874"/>
-      <c r="X74" s="874"/>
+      <c r="J74" s="876"/>
+      <c r="K74" s="876"/>
+      <c r="L74" s="876"/>
+      <c r="M74" s="876"/>
+      <c r="N74" s="876"/>
+      <c r="O74" s="876"/>
+      <c r="P74" s="876"/>
+      <c r="Q74" s="876"/>
+      <c r="R74" s="876"/>
+      <c r="S74" s="876"/>
+      <c r="T74" s="876"/>
+      <c r="U74" s="876"/>
+      <c r="V74" s="876"/>
+      <c r="W74" s="876"/>
+      <c r="X74" s="876"/>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B75" s="63"/>
@@ -23129,22 +23201,22 @@
         <v>0</v>
       </c>
       <c r="G75" s="66"/>
-      <c r="I75" s="874"/>
-      <c r="J75" s="874"/>
-      <c r="K75" s="874"/>
-      <c r="L75" s="874"/>
-      <c r="M75" s="874"/>
-      <c r="N75" s="874"/>
-      <c r="O75" s="874"/>
-      <c r="P75" s="874"/>
-      <c r="Q75" s="874"/>
-      <c r="R75" s="874"/>
-      <c r="S75" s="874"/>
-      <c r="T75" s="874"/>
-      <c r="U75" s="874"/>
-      <c r="V75" s="874"/>
-      <c r="W75" s="874"/>
-      <c r="X75" s="874"/>
+      <c r="I75" s="876"/>
+      <c r="J75" s="876"/>
+      <c r="K75" s="876"/>
+      <c r="L75" s="876"/>
+      <c r="M75" s="876"/>
+      <c r="N75" s="876"/>
+      <c r="O75" s="876"/>
+      <c r="P75" s="876"/>
+      <c r="Q75" s="876"/>
+      <c r="R75" s="876"/>
+      <c r="S75" s="876"/>
+      <c r="T75" s="876"/>
+      <c r="U75" s="876"/>
+      <c r="V75" s="876"/>
+      <c r="W75" s="876"/>
+      <c r="X75" s="876"/>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" s="63"/>
@@ -23153,22 +23225,22 @@
       <c r="E76" s="824"/>
       <c r="F76" s="824"/>
       <c r="G76" s="66"/>
-      <c r="I76" s="874"/>
-      <c r="J76" s="874"/>
-      <c r="K76" s="874"/>
-      <c r="L76" s="874"/>
-      <c r="M76" s="874"/>
-      <c r="N76" s="874"/>
-      <c r="O76" s="874"/>
-      <c r="P76" s="874"/>
-      <c r="Q76" s="874"/>
-      <c r="R76" s="874"/>
-      <c r="S76" s="874"/>
-      <c r="T76" s="874"/>
-      <c r="U76" s="874"/>
-      <c r="V76" s="874"/>
-      <c r="W76" s="874"/>
-      <c r="X76" s="874"/>
+      <c r="I76" s="876"/>
+      <c r="J76" s="876"/>
+      <c r="K76" s="876"/>
+      <c r="L76" s="876"/>
+      <c r="M76" s="876"/>
+      <c r="N76" s="876"/>
+      <c r="O76" s="876"/>
+      <c r="P76" s="876"/>
+      <c r="Q76" s="876"/>
+      <c r="R76" s="876"/>
+      <c r="S76" s="876"/>
+      <c r="T76" s="876"/>
+      <c r="U76" s="876"/>
+      <c r="V76" s="876"/>
+      <c r="W76" s="876"/>
+      <c r="X76" s="876"/>
       <c r="Z76" s="418" t="s">
         <v>1647</v>
       </c>
@@ -23188,24 +23260,24 @@
         <v>0</v>
       </c>
       <c r="G77" s="66"/>
-      <c r="I77" s="875" t="s">
+      <c r="I77" s="877" t="s">
         <v>1818</v>
       </c>
-      <c r="J77" s="875"/>
-      <c r="K77" s="875"/>
-      <c r="L77" s="875"/>
-      <c r="M77" s="875"/>
-      <c r="N77" s="875"/>
-      <c r="O77" s="875"/>
-      <c r="P77" s="875"/>
-      <c r="Q77" s="875"/>
-      <c r="R77" s="875"/>
-      <c r="S77" s="875"/>
-      <c r="T77" s="875"/>
-      <c r="U77" s="875"/>
-      <c r="V77" s="875"/>
-      <c r="W77" s="875"/>
-      <c r="X77" s="875"/>
+      <c r="J77" s="877"/>
+      <c r="K77" s="877"/>
+      <c r="L77" s="877"/>
+      <c r="M77" s="877"/>
+      <c r="N77" s="877"/>
+      <c r="O77" s="877"/>
+      <c r="P77" s="877"/>
+      <c r="Q77" s="877"/>
+      <c r="R77" s="877"/>
+      <c r="S77" s="877"/>
+      <c r="T77" s="877"/>
+      <c r="U77" s="877"/>
+      <c r="V77" s="877"/>
+      <c r="W77" s="877"/>
+      <c r="X77" s="877"/>
       <c r="AA77" s="492" t="s">
         <v>1501</v>
       </c>
@@ -23217,22 +23289,22 @@
       <c r="E78" s="824"/>
       <c r="F78" s="824"/>
       <c r="G78" s="66"/>
-      <c r="I78" s="875"/>
-      <c r="J78" s="875"/>
-      <c r="K78" s="875"/>
-      <c r="L78" s="875"/>
-      <c r="M78" s="875"/>
-      <c r="N78" s="875"/>
-      <c r="O78" s="875"/>
-      <c r="P78" s="875"/>
-      <c r="Q78" s="875"/>
-      <c r="R78" s="875"/>
-      <c r="S78" s="875"/>
-      <c r="T78" s="875"/>
-      <c r="U78" s="875"/>
-      <c r="V78" s="875"/>
-      <c r="W78" s="875"/>
-      <c r="X78" s="875"/>
+      <c r="I78" s="877"/>
+      <c r="J78" s="877"/>
+      <c r="K78" s="877"/>
+      <c r="L78" s="877"/>
+      <c r="M78" s="877"/>
+      <c r="N78" s="877"/>
+      <c r="O78" s="877"/>
+      <c r="P78" s="877"/>
+      <c r="Q78" s="877"/>
+      <c r="R78" s="877"/>
+      <c r="S78" s="877"/>
+      <c r="T78" s="877"/>
+      <c r="U78" s="877"/>
+      <c r="V78" s="877"/>
+      <c r="W78" s="877"/>
+      <c r="X78" s="877"/>
       <c r="AA78" s="418" t="s">
         <v>1502</v>
       </c>
@@ -23246,22 +23318,22 @@
       <c r="E79" s="824"/>
       <c r="F79" s="824"/>
       <c r="G79" s="66"/>
-      <c r="I79" s="875"/>
-      <c r="J79" s="875"/>
-      <c r="K79" s="875"/>
-      <c r="L79" s="875"/>
-      <c r="M79" s="875"/>
-      <c r="N79" s="875"/>
-      <c r="O79" s="875"/>
-      <c r="P79" s="875"/>
-      <c r="Q79" s="875"/>
-      <c r="R79" s="875"/>
-      <c r="S79" s="875"/>
-      <c r="T79" s="875"/>
-      <c r="U79" s="875"/>
-      <c r="V79" s="875"/>
-      <c r="W79" s="875"/>
-      <c r="X79" s="875"/>
+      <c r="I79" s="877"/>
+      <c r="J79" s="877"/>
+      <c r="K79" s="877"/>
+      <c r="L79" s="877"/>
+      <c r="M79" s="877"/>
+      <c r="N79" s="877"/>
+      <c r="O79" s="877"/>
+      <c r="P79" s="877"/>
+      <c r="Q79" s="877"/>
+      <c r="R79" s="877"/>
+      <c r="S79" s="877"/>
+      <c r="T79" s="877"/>
+      <c r="U79" s="877"/>
+      <c r="V79" s="877"/>
+      <c r="W79" s="877"/>
+      <c r="X79" s="877"/>
       <c r="AA79" s="418" t="s">
         <v>1503</v>
       </c>
@@ -24265,115 +24337,115 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="904" t="s">
+      <c r="C3" s="888" t="s">
         <v>587</v>
       </c>
-      <c r="D3" s="905"/>
-      <c r="E3" s="905"/>
-      <c r="F3" s="906"/>
+      <c r="D3" s="889"/>
+      <c r="E3" s="889"/>
+      <c r="F3" s="890"/>
       <c r="J3" s="418" t="s">
         <v>1883</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="907" t="s">
+      <c r="C4" s="891" t="s">
         <v>1893</v>
       </c>
-      <c r="D4" s="908"/>
-      <c r="E4" s="908"/>
-      <c r="F4" s="909"/>
+      <c r="D4" s="892"/>
+      <c r="E4" s="892"/>
+      <c r="F4" s="893"/>
       <c r="J4" s="492" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="910" t="s">
+      <c r="C5" s="894" t="s">
         <v>384</v>
       </c>
-      <c r="D5" s="911"/>
-      <c r="E5" s="911"/>
-      <c r="F5" s="912"/>
+      <c r="D5" s="895"/>
+      <c r="E5" s="895"/>
+      <c r="F5" s="896"/>
       <c r="J5" s="418" t="s">
         <v>1885</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="907" t="s">
+      <c r="C6" s="891" t="s">
         <v>1891</v>
       </c>
-      <c r="D6" s="908"/>
-      <c r="E6" s="908"/>
-      <c r="F6" s="909"/>
+      <c r="D6" s="892"/>
+      <c r="E6" s="892"/>
+      <c r="F6" s="893"/>
       <c r="J6" s="418" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="889" t="s">
+      <c r="C7" s="903" t="s">
         <v>385</v>
       </c>
-      <c r="D7" s="890"/>
-      <c r="E7" s="890"/>
-      <c r="F7" s="891"/>
+      <c r="D7" s="904"/>
+      <c r="E7" s="904"/>
+      <c r="F7" s="905"/>
       <c r="J7" s="418" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="901" t="s">
+      <c r="C8" s="897" t="s">
         <v>1892</v>
       </c>
-      <c r="D8" s="902"/>
-      <c r="E8" s="902"/>
-      <c r="F8" s="903"/>
+      <c r="D8" s="898"/>
+      <c r="E8" s="898"/>
+      <c r="F8" s="899"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="889" t="s">
+      <c r="C9" s="903" t="s">
         <v>386</v>
       </c>
-      <c r="D9" s="890"/>
-      <c r="E9" s="890"/>
-      <c r="F9" s="891"/>
-      <c r="G9" s="886" t="s">
+      <c r="D9" s="904"/>
+      <c r="E9" s="904"/>
+      <c r="F9" s="905"/>
+      <c r="G9" s="900" t="s">
         <v>1880</v>
       </c>
-      <c r="H9" s="875"/>
-      <c r="I9" s="875"/>
+      <c r="H9" s="877"/>
+      <c r="I9" s="877"/>
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="901" t="s">
+      <c r="C10" s="897" t="s">
         <v>1889</v>
       </c>
-      <c r="D10" s="902"/>
-      <c r="E10" s="902"/>
-      <c r="F10" s="903"/>
-      <c r="G10" s="886"/>
-      <c r="H10" s="875"/>
-      <c r="I10" s="875"/>
+      <c r="D10" s="898"/>
+      <c r="E10" s="898"/>
+      <c r="F10" s="899"/>
+      <c r="G10" s="900"/>
+      <c r="H10" s="877"/>
+      <c r="I10" s="877"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="889" t="s">
+      <c r="C11" s="903" t="s">
         <v>387</v>
       </c>
-      <c r="D11" s="890"/>
-      <c r="E11" s="890"/>
-      <c r="F11" s="891"/>
-      <c r="G11" s="887" t="s">
+      <c r="D11" s="904"/>
+      <c r="E11" s="904"/>
+      <c r="F11" s="905"/>
+      <c r="G11" s="901" t="s">
         <v>1881</v>
       </c>
-      <c r="H11" s="888"/>
-      <c r="I11" s="888"/>
+      <c r="H11" s="902"/>
+      <c r="I11" s="902"/>
     </row>
     <row r="12" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="898" t="s">
+      <c r="C12" s="912" t="s">
         <v>1890</v>
       </c>
-      <c r="D12" s="899"/>
-      <c r="E12" s="899"/>
-      <c r="F12" s="900"/>
-      <c r="G12" s="887"/>
-      <c r="H12" s="888"/>
-      <c r="I12" s="888"/>
+      <c r="D12" s="913"/>
+      <c r="E12" s="913"/>
+      <c r="F12" s="914"/>
+      <c r="G12" s="901"/>
+      <c r="H12" s="902"/>
+      <c r="I12" s="902"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="730" t="s">
@@ -24399,18 +24471,18 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="892" t="s">
+      <c r="C16" s="906" t="s">
         <v>1756</v>
       </c>
-      <c r="D16" s="893"/>
-      <c r="E16" s="893"/>
-      <c r="F16" s="894"/>
+      <c r="D16" s="907"/>
+      <c r="E16" s="907"/>
+      <c r="F16" s="908"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="895"/>
-      <c r="D17" s="896"/>
-      <c r="E17" s="896"/>
-      <c r="F17" s="897"/>
+      <c r="C17" s="909"/>
+      <c r="D17" s="910"/>
+      <c r="E17" s="910"/>
+      <c r="F17" s="911"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I18" s="418" t="s">
@@ -25714,11 +25786,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
     <mergeCell ref="G9:I10"/>
     <mergeCell ref="G11:I12"/>
     <mergeCell ref="C7:F7"/>
@@ -25727,6 +25794,11 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -25801,18 +25873,18 @@
         <v>1388</v>
       </c>
       <c r="G3" s="418"/>
-      <c r="O3" s="874" t="s">
+      <c r="O3" s="876" t="s">
         <v>1790</v>
       </c>
-      <c r="P3" s="913"/>
-      <c r="Q3" s="913"/>
-      <c r="R3" s="913"/>
-      <c r="S3" s="913"/>
-      <c r="T3" s="913"/>
-      <c r="U3" s="913"/>
-      <c r="V3" s="913"/>
-      <c r="W3" s="913"/>
-      <c r="X3" s="913"/>
+      <c r="P3" s="915"/>
+      <c r="Q3" s="915"/>
+      <c r="R3" s="915"/>
+      <c r="S3" s="915"/>
+      <c r="T3" s="915"/>
+      <c r="U3" s="915"/>
+      <c r="V3" s="915"/>
+      <c r="W3" s="915"/>
+      <c r="X3" s="915"/>
     </row>
     <row r="4" spans="1:24" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="175" t="s">
@@ -26069,15 +26141,15 @@
         <f>"("&amp;C20&amp;"/(1 + "&amp;C21&amp;")^"&amp;C22&amp;")"</f>
         <v>(3500/(1 + )^)</v>
       </c>
-      <c r="Q24" s="874" t="s">
+      <c r="Q24" s="876" t="s">
         <v>1392</v>
       </c>
-      <c r="R24" s="874"/>
-      <c r="S24" s="874"/>
-      <c r="T24" s="874"/>
-      <c r="U24" s="874"/>
-      <c r="V24" s="874"/>
-      <c r="W24" s="874"/>
+      <c r="R24" s="876"/>
+      <c r="S24" s="876"/>
+      <c r="T24" s="876"/>
+      <c r="U24" s="876"/>
+      <c r="V24" s="876"/>
+      <c r="W24" s="876"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -26087,48 +26159,48 @@
         <f>C24*C21</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="874"/>
-      <c r="R25" s="874"/>
-      <c r="S25" s="874"/>
-      <c r="T25" s="874"/>
-      <c r="U25" s="874"/>
-      <c r="V25" s="874"/>
-      <c r="W25" s="874"/>
+      <c r="Q25" s="876"/>
+      <c r="R25" s="876"/>
+      <c r="S25" s="876"/>
+      <c r="T25" s="876"/>
+      <c r="U25" s="876"/>
+      <c r="V25" s="876"/>
+      <c r="W25" s="876"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C26" s="12"/>
-      <c r="Q26" s="874"/>
-      <c r="R26" s="874"/>
-      <c r="S26" s="874"/>
-      <c r="T26" s="874"/>
-      <c r="U26" s="874"/>
-      <c r="V26" s="874"/>
-      <c r="W26" s="874"/>
+      <c r="Q26" s="876"/>
+      <c r="R26" s="876"/>
+      <c r="S26" s="876"/>
+      <c r="T26" s="876"/>
+      <c r="U26" s="876"/>
+      <c r="V26" s="876"/>
+      <c r="W26" s="876"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="418" t="s">
         <v>1387</v>
       </c>
-      <c r="Q27" s="874"/>
-      <c r="R27" s="874"/>
-      <c r="S27" s="874"/>
-      <c r="T27" s="874"/>
-      <c r="U27" s="874"/>
-      <c r="V27" s="874"/>
-      <c r="W27" s="874"/>
+      <c r="Q27" s="876"/>
+      <c r="R27" s="876"/>
+      <c r="S27" s="876"/>
+      <c r="T27" s="876"/>
+      <c r="U27" s="876"/>
+      <c r="V27" s="876"/>
+      <c r="W27" s="876"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>474</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="Q28" s="874"/>
-      <c r="R28" s="874"/>
-      <c r="S28" s="874"/>
-      <c r="T28" s="874"/>
-      <c r="U28" s="874"/>
-      <c r="V28" s="874"/>
-      <c r="W28" s="874"/>
+      <c r="Q28" s="876"/>
+      <c r="R28" s="876"/>
+      <c r="S28" s="876"/>
+      <c r="T28" s="876"/>
+      <c r="U28" s="876"/>
+      <c r="V28" s="876"/>
+      <c r="W28" s="876"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -26138,13 +26210,13 @@
         <f>C24</f>
         <v>3500</v>
       </c>
-      <c r="Q29" s="874"/>
-      <c r="R29" s="874"/>
-      <c r="S29" s="874"/>
-      <c r="T29" s="874"/>
-      <c r="U29" s="874"/>
-      <c r="V29" s="874"/>
-      <c r="W29" s="874"/>
+      <c r="Q29" s="876"/>
+      <c r="R29" s="876"/>
+      <c r="S29" s="876"/>
+      <c r="T29" s="876"/>
+      <c r="U29" s="876"/>
+      <c r="V29" s="876"/>
+      <c r="W29" s="876"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -27231,127 +27303,127 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="847" t="s">
+      <c r="B2" s="849" t="s">
         <v>904</v>
       </c>
-      <c r="C2" s="847"/>
-      <c r="D2" s="847"/>
-      <c r="E2" s="847"/>
-      <c r="F2" s="847"/>
-      <c r="G2" s="847"/>
-      <c r="H2" s="847"/>
-      <c r="I2" s="847"/>
-      <c r="J2" s="847"/>
+      <c r="C2" s="849"/>
+      <c r="D2" s="849"/>
+      <c r="E2" s="849"/>
+      <c r="F2" s="849"/>
+      <c r="G2" s="849"/>
+      <c r="H2" s="849"/>
+      <c r="I2" s="849"/>
+      <c r="J2" s="849"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="847"/>
-      <c r="C3" s="847"/>
-      <c r="D3" s="847"/>
-      <c r="E3" s="847"/>
-      <c r="F3" s="847"/>
-      <c r="G3" s="847"/>
-      <c r="H3" s="847"/>
-      <c r="I3" s="847"/>
-      <c r="J3" s="847"/>
+      <c r="B3" s="849"/>
+      <c r="C3" s="849"/>
+      <c r="D3" s="849"/>
+      <c r="E3" s="849"/>
+      <c r="F3" s="849"/>
+      <c r="G3" s="849"/>
+      <c r="H3" s="849"/>
+      <c r="I3" s="849"/>
+      <c r="J3" s="849"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="847"/>
-      <c r="C4" s="847"/>
-      <c r="D4" s="847"/>
-      <c r="E4" s="847"/>
-      <c r="F4" s="847"/>
-      <c r="G4" s="847"/>
-      <c r="H4" s="847"/>
-      <c r="I4" s="847"/>
-      <c r="J4" s="847"/>
+      <c r="B4" s="849"/>
+      <c r="C4" s="849"/>
+      <c r="D4" s="849"/>
+      <c r="E4" s="849"/>
+      <c r="F4" s="849"/>
+      <c r="G4" s="849"/>
+      <c r="H4" s="849"/>
+      <c r="I4" s="849"/>
+      <c r="J4" s="849"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="847"/>
-      <c r="C5" s="847"/>
-      <c r="D5" s="847"/>
-      <c r="E5" s="847"/>
-      <c r="F5" s="847"/>
-      <c r="G5" s="847"/>
-      <c r="H5" s="847"/>
-      <c r="I5" s="847"/>
-      <c r="J5" s="847"/>
+      <c r="B5" s="849"/>
+      <c r="C5" s="849"/>
+      <c r="D5" s="849"/>
+      <c r="E5" s="849"/>
+      <c r="F5" s="849"/>
+      <c r="G5" s="849"/>
+      <c r="H5" s="849"/>
+      <c r="I5" s="849"/>
+      <c r="J5" s="849"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="847"/>
-      <c r="C6" s="847"/>
-      <c r="D6" s="847"/>
-      <c r="E6" s="847"/>
-      <c r="F6" s="847"/>
-      <c r="G6" s="847"/>
-      <c r="H6" s="847"/>
-      <c r="I6" s="847"/>
-      <c r="J6" s="847"/>
+      <c r="B6" s="849"/>
+      <c r="C6" s="849"/>
+      <c r="D6" s="849"/>
+      <c r="E6" s="849"/>
+      <c r="F6" s="849"/>
+      <c r="G6" s="849"/>
+      <c r="H6" s="849"/>
+      <c r="I6" s="849"/>
+      <c r="J6" s="849"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="847"/>
-      <c r="C7" s="847"/>
-      <c r="D7" s="847"/>
-      <c r="E7" s="847"/>
-      <c r="F7" s="847"/>
-      <c r="G7" s="847"/>
-      <c r="H7" s="847"/>
-      <c r="I7" s="847"/>
-      <c r="J7" s="847"/>
+      <c r="B7" s="849"/>
+      <c r="C7" s="849"/>
+      <c r="D7" s="849"/>
+      <c r="E7" s="849"/>
+      <c r="F7" s="849"/>
+      <c r="G7" s="849"/>
+      <c r="H7" s="849"/>
+      <c r="I7" s="849"/>
+      <c r="J7" s="849"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="847"/>
-      <c r="C8" s="847"/>
-      <c r="D8" s="847"/>
-      <c r="E8" s="847"/>
-      <c r="F8" s="847"/>
-      <c r="G8" s="847"/>
-      <c r="H8" s="847"/>
-      <c r="I8" s="847"/>
-      <c r="J8" s="847"/>
+      <c r="B8" s="849"/>
+      <c r="C8" s="849"/>
+      <c r="D8" s="849"/>
+      <c r="E8" s="849"/>
+      <c r="F8" s="849"/>
+      <c r="G8" s="849"/>
+      <c r="H8" s="849"/>
+      <c r="I8" s="849"/>
+      <c r="J8" s="849"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="847"/>
-      <c r="C9" s="847"/>
-      <c r="D9" s="847"/>
-      <c r="E9" s="847"/>
-      <c r="F9" s="847"/>
-      <c r="G9" s="847"/>
-      <c r="H9" s="847"/>
-      <c r="I9" s="847"/>
-      <c r="J9" s="847"/>
+      <c r="B9" s="849"/>
+      <c r="C9" s="849"/>
+      <c r="D9" s="849"/>
+      <c r="E9" s="849"/>
+      <c r="F9" s="849"/>
+      <c r="G9" s="849"/>
+      <c r="H9" s="849"/>
+      <c r="I9" s="849"/>
+      <c r="J9" s="849"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="847"/>
-      <c r="C10" s="847"/>
-      <c r="D10" s="847"/>
-      <c r="E10" s="847"/>
-      <c r="F10" s="847"/>
-      <c r="G10" s="847"/>
-      <c r="H10" s="847"/>
-      <c r="I10" s="847"/>
-      <c r="J10" s="847"/>
+      <c r="B10" s="849"/>
+      <c r="C10" s="849"/>
+      <c r="D10" s="849"/>
+      <c r="E10" s="849"/>
+      <c r="F10" s="849"/>
+      <c r="G10" s="849"/>
+      <c r="H10" s="849"/>
+      <c r="I10" s="849"/>
+      <c r="J10" s="849"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="847"/>
-      <c r="C11" s="847"/>
-      <c r="D11" s="847"/>
-      <c r="E11" s="847"/>
-      <c r="F11" s="847"/>
-      <c r="G11" s="847"/>
-      <c r="H11" s="847"/>
-      <c r="I11" s="847"/>
-      <c r="J11" s="847"/>
+      <c r="B11" s="849"/>
+      <c r="C11" s="849"/>
+      <c r="D11" s="849"/>
+      <c r="E11" s="849"/>
+      <c r="F11" s="849"/>
+      <c r="G11" s="849"/>
+      <c r="H11" s="849"/>
+      <c r="I11" s="849"/>
+      <c r="J11" s="849"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="847"/>
-      <c r="C12" s="847"/>
-      <c r="D12" s="847"/>
-      <c r="E12" s="847"/>
-      <c r="F12" s="847"/>
-      <c r="G12" s="847"/>
-      <c r="H12" s="847"/>
-      <c r="I12" s="847"/>
-      <c r="J12" s="847"/>
+      <c r="B12" s="849"/>
+      <c r="C12" s="849"/>
+      <c r="D12" s="849"/>
+      <c r="E12" s="849"/>
+      <c r="F12" s="849"/>
+      <c r="G12" s="849"/>
+      <c r="H12" s="849"/>
+      <c r="I12" s="849"/>
+      <c r="J12" s="849"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="39"/>
@@ -28036,7 +28108,7 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28063,22 +28135,22 @@
       <c r="B2" s="212" t="s">
         <v>538</v>
       </c>
-      <c r="D2" s="914" t="s">
+      <c r="D2" s="916" t="s">
         <v>559</v>
       </c>
-      <c r="E2" s="915"/>
-      <c r="K2" s="874" t="s">
+      <c r="E2" s="917"/>
+      <c r="K2" s="876" t="s">
         <v>602</v>
       </c>
-      <c r="L2" s="874"/>
-      <c r="M2" s="874"/>
-      <c r="N2" s="874"/>
-      <c r="O2" s="874"/>
-      <c r="P2" s="874"/>
-      <c r="Q2" s="874"/>
-      <c r="R2" s="874"/>
-      <c r="S2" s="874"/>
-      <c r="T2" s="874"/>
+      <c r="L2" s="876"/>
+      <c r="M2" s="876"/>
+      <c r="N2" s="876"/>
+      <c r="O2" s="876"/>
+      <c r="P2" s="876"/>
+      <c r="Q2" s="876"/>
+      <c r="R2" s="876"/>
+      <c r="S2" s="876"/>
+      <c r="T2" s="876"/>
     </row>
     <row r="3" spans="1:20" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="207" t="s">
@@ -28093,16 +28165,16 @@
       <c r="G3" t="s">
         <v>584</v>
       </c>
-      <c r="K3" s="874"/>
-      <c r="L3" s="874"/>
-      <c r="M3" s="874"/>
-      <c r="N3" s="874"/>
-      <c r="O3" s="874"/>
-      <c r="P3" s="874"/>
-      <c r="Q3" s="874"/>
-      <c r="R3" s="874"/>
-      <c r="S3" s="874"/>
-      <c r="T3" s="874"/>
+      <c r="K3" s="876"/>
+      <c r="L3" s="876"/>
+      <c r="M3" s="876"/>
+      <c r="N3" s="876"/>
+      <c r="O3" s="876"/>
+      <c r="P3" s="876"/>
+      <c r="Q3" s="876"/>
+      <c r="R3" s="876"/>
+      <c r="S3" s="876"/>
+      <c r="T3" s="876"/>
     </row>
     <row r="4" spans="1:20" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="208" t="s">
@@ -28121,16 +28193,16 @@
       <c r="G4" t="s">
         <v>585</v>
       </c>
-      <c r="K4" s="874"/>
-      <c r="L4" s="874"/>
-      <c r="M4" s="874"/>
-      <c r="N4" s="874"/>
-      <c r="O4" s="874"/>
-      <c r="P4" s="874"/>
-      <c r="Q4" s="874"/>
-      <c r="R4" s="874"/>
-      <c r="S4" s="874"/>
-      <c r="T4" s="874"/>
+      <c r="K4" s="876"/>
+      <c r="L4" s="876"/>
+      <c r="M4" s="876"/>
+      <c r="N4" s="876"/>
+      <c r="O4" s="876"/>
+      <c r="P4" s="876"/>
+      <c r="Q4" s="876"/>
+      <c r="R4" s="876"/>
+      <c r="S4" s="876"/>
+      <c r="T4" s="876"/>
     </row>
     <row r="5" spans="1:20" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="209" t="str" cm="1">
@@ -28140,16 +28212,16 @@
       <c r="C5" s="175" t="s">
         <v>558</v>
       </c>
-      <c r="K5" s="874"/>
-      <c r="L5" s="874"/>
-      <c r="M5" s="874"/>
-      <c r="N5" s="874"/>
-      <c r="O5" s="874"/>
-      <c r="P5" s="874"/>
-      <c r="Q5" s="874"/>
-      <c r="R5" s="874"/>
-      <c r="S5" s="874"/>
-      <c r="T5" s="874"/>
+      <c r="K5" s="876"/>
+      <c r="L5" s="876"/>
+      <c r="M5" s="876"/>
+      <c r="N5" s="876"/>
+      <c r="O5" s="876"/>
+      <c r="P5" s="876"/>
+      <c r="Q5" s="876"/>
+      <c r="R5" s="876"/>
+      <c r="S5" s="876"/>
+      <c r="T5" s="876"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="208"/>
@@ -28260,18 +28332,18 @@
       </c>
     </row>
     <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="874" t="s">
+      <c r="K20" s="876" t="s">
         <v>601</v>
       </c>
-      <c r="L20" s="874"/>
-      <c r="M20" s="874"/>
-      <c r="N20" s="874"/>
-      <c r="O20" s="874"/>
-      <c r="P20" s="874"/>
-      <c r="Q20" s="874"/>
-      <c r="R20" s="874"/>
-      <c r="S20" s="874"/>
-      <c r="T20" s="874"/>
+      <c r="L20" s="876"/>
+      <c r="M20" s="876"/>
+      <c r="N20" s="876"/>
+      <c r="O20" s="876"/>
+      <c r="P20" s="876"/>
+      <c r="Q20" s="876"/>
+      <c r="R20" s="876"/>
+      <c r="S20" s="876"/>
+      <c r="T20" s="876"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="143" t="s">
@@ -28289,16 +28361,16 @@
       <c r="F21" s="145" t="s">
         <v>823</v>
       </c>
-      <c r="K21" s="874"/>
-      <c r="L21" s="874"/>
-      <c r="M21" s="874"/>
-      <c r="N21" s="874"/>
-      <c r="O21" s="874"/>
-      <c r="P21" s="874"/>
-      <c r="Q21" s="874"/>
-      <c r="R21" s="874"/>
-      <c r="S21" s="874"/>
-      <c r="T21" s="874"/>
+      <c r="K21" s="876"/>
+      <c r="L21" s="876"/>
+      <c r="M21" s="876"/>
+      <c r="N21" s="876"/>
+      <c r="O21" s="876"/>
+      <c r="P21" s="876"/>
+      <c r="Q21" s="876"/>
+      <c r="R21" s="876"/>
+      <c r="S21" s="876"/>
+      <c r="T21" s="876"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="134"/>
@@ -28314,16 +28386,16 @@
       <c r="F22" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="874"/>
-      <c r="L22" s="874"/>
-      <c r="M22" s="874"/>
-      <c r="N22" s="874"/>
-      <c r="O22" s="874"/>
-      <c r="P22" s="874"/>
-      <c r="Q22" s="874"/>
-      <c r="R22" s="874"/>
-      <c r="S22" s="874"/>
-      <c r="T22" s="874"/>
+      <c r="K22" s="876"/>
+      <c r="L22" s="876"/>
+      <c r="M22" s="876"/>
+      <c r="N22" s="876"/>
+      <c r="O22" s="876"/>
+      <c r="P22" s="876"/>
+      <c r="Q22" s="876"/>
+      <c r="R22" s="876"/>
+      <c r="S22" s="876"/>
+      <c r="T22" s="876"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="137">
@@ -28345,16 +28417,16 @@
         <f>C23+D23+E23</f>
         <v>6365.3760000000002</v>
       </c>
-      <c r="K23" s="874"/>
-      <c r="L23" s="874"/>
-      <c r="M23" s="874"/>
-      <c r="N23" s="874"/>
-      <c r="O23" s="874"/>
-      <c r="P23" s="874"/>
-      <c r="Q23" s="874"/>
-      <c r="R23" s="874"/>
-      <c r="S23" s="874"/>
-      <c r="T23" s="874"/>
+      <c r="K23" s="876"/>
+      <c r="L23" s="876"/>
+      <c r="M23" s="876"/>
+      <c r="N23" s="876"/>
+      <c r="O23" s="876"/>
+      <c r="P23" s="876"/>
+      <c r="Q23" s="876"/>
+      <c r="R23" s="876"/>
+      <c r="S23" s="876"/>
+      <c r="T23" s="876"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="137">
@@ -28377,16 +28449,16 @@
         <f t="shared" ref="F24:F28" si="1">C24+D24+E24</f>
         <v>6578.9368320000003</v>
       </c>
-      <c r="K24" s="874"/>
-      <c r="L24" s="874"/>
-      <c r="M24" s="874"/>
-      <c r="N24" s="874"/>
-      <c r="O24" s="874"/>
-      <c r="P24" s="874"/>
-      <c r="Q24" s="874"/>
-      <c r="R24" s="874"/>
-      <c r="S24" s="874"/>
-      <c r="T24" s="874"/>
+      <c r="K24" s="876"/>
+      <c r="L24" s="876"/>
+      <c r="M24" s="876"/>
+      <c r="N24" s="876"/>
+      <c r="O24" s="876"/>
+      <c r="P24" s="876"/>
+      <c r="Q24" s="876"/>
+      <c r="R24" s="876"/>
+      <c r="S24" s="876"/>
+      <c r="T24" s="876"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="137">
@@ -28409,16 +28481,16 @@
         <f t="shared" si="1"/>
         <v>6810.009652224001</v>
       </c>
-      <c r="K25" s="874"/>
-      <c r="L25" s="874"/>
-      <c r="M25" s="874"/>
-      <c r="N25" s="874"/>
-      <c r="O25" s="874"/>
-      <c r="P25" s="874"/>
-      <c r="Q25" s="874"/>
-      <c r="R25" s="874"/>
-      <c r="S25" s="874"/>
-      <c r="T25" s="874"/>
+      <c r="K25" s="876"/>
+      <c r="L25" s="876"/>
+      <c r="M25" s="876"/>
+      <c r="N25" s="876"/>
+      <c r="O25" s="876"/>
+      <c r="P25" s="876"/>
+      <c r="Q25" s="876"/>
+      <c r="R25" s="876"/>
+      <c r="S25" s="876"/>
+      <c r="T25" s="876"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="137">
@@ -28441,16 +28513,16 @@
         <f t="shared" si="1"/>
         <v>7060.0304437063696</v>
       </c>
-      <c r="K26" s="874"/>
-      <c r="L26" s="874"/>
-      <c r="M26" s="874"/>
-      <c r="N26" s="874"/>
-      <c r="O26" s="874"/>
-      <c r="P26" s="874"/>
-      <c r="Q26" s="874"/>
-      <c r="R26" s="874"/>
-      <c r="S26" s="874"/>
-      <c r="T26" s="874"/>
+      <c r="K26" s="876"/>
+      <c r="L26" s="876"/>
+      <c r="M26" s="876"/>
+      <c r="N26" s="876"/>
+      <c r="O26" s="876"/>
+      <c r="P26" s="876"/>
+      <c r="Q26" s="876"/>
+      <c r="R26" s="876"/>
+      <c r="S26" s="876"/>
+      <c r="T26" s="876"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="137">
@@ -28473,16 +28545,16 @@
         <f t="shared" si="1"/>
         <v>7330.5529400902924</v>
       </c>
-      <c r="K27" s="874"/>
-      <c r="L27" s="874"/>
-      <c r="M27" s="874"/>
-      <c r="N27" s="874"/>
-      <c r="O27" s="874"/>
-      <c r="P27" s="874"/>
-      <c r="Q27" s="874"/>
-      <c r="R27" s="874"/>
-      <c r="S27" s="874"/>
-      <c r="T27" s="874"/>
+      <c r="K27" s="876"/>
+      <c r="L27" s="876"/>
+      <c r="M27" s="876"/>
+      <c r="N27" s="876"/>
+      <c r="O27" s="876"/>
+      <c r="P27" s="876"/>
+      <c r="Q27" s="876"/>
+      <c r="R27" s="876"/>
+      <c r="S27" s="876"/>
+      <c r="T27" s="876"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="137">
@@ -28505,16 +28577,16 @@
         <f t="shared" si="1"/>
         <v>7623.2582811776965</v>
       </c>
-      <c r="K28" s="874"/>
-      <c r="L28" s="874"/>
-      <c r="M28" s="874"/>
-      <c r="N28" s="874"/>
-      <c r="O28" s="874"/>
-      <c r="P28" s="874"/>
-      <c r="Q28" s="874"/>
-      <c r="R28" s="874"/>
-      <c r="S28" s="874"/>
-      <c r="T28" s="874"/>
+      <c r="K28" s="876"/>
+      <c r="L28" s="876"/>
+      <c r="M28" s="876"/>
+      <c r="N28" s="876"/>
+      <c r="O28" s="876"/>
+      <c r="P28" s="876"/>
+      <c r="Q28" s="876"/>
+      <c r="R28" s="876"/>
+      <c r="S28" s="876"/>
+      <c r="T28" s="876"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="63"/>
@@ -29157,9 +29229,11 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92958C75-0638-4EE2-A2E9-495F4AF94581}">
   <sheetPr codeName="Sheet37"/>
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29183,10 +29257,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="914" t="s">
+      <c r="B2" s="916" t="s">
         <v>560</v>
       </c>
-      <c r="C2" s="915"/>
+      <c r="C2" s="917"/>
       <c r="F2" t="s">
         <v>584</v>
       </c>
@@ -29216,11 +29290,11 @@
     </row>
     <row r="5" spans="1:6" ht="68.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="916" t="s">
+      <c r="B6" s="918" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="917"/>
-      <c r="D6" s="918"/>
+      <c r="C6" s="919"/>
+      <c r="D6" s="920"/>
     </row>
     <row r="7" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="60" t="s">
@@ -29810,8 +29884,7 @@
         <v>582</v>
       </c>
       <c r="C77" s="14">
-        <f>0.1*5000</f>
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="D77" s="418" t="s">
         <v>1434</v>
@@ -29822,8 +29895,8 @@
         <v>590</v>
       </c>
       <c r="C78" s="14">
-        <f>0.7*C14</f>
-        <v>3500</v>
+        <f>10000*0.95</f>
+        <v>9500</v>
       </c>
       <c r="D78" s="418" t="s">
         <v>1433</v>
@@ -29834,7 +29907,7 @@
         <v>592</v>
       </c>
       <c r="C79" s="187">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D79" s="418" t="s">
         <v>1579</v>
@@ -29843,11 +29916,11 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" t="str">
         <f ca="1">"Shares redeemed "&amp;IFERROR(_xlfn.FORMULATEXT(C80)," ")</f>
-        <v>Shares redeemed =3/5*5000*0.7</v>
+        <v>Shares redeemed =1/3*10000*C79</v>
       </c>
       <c r="C80" s="14">
-        <f>3/5*5000*0.7</f>
-        <v>2100</v>
+        <f>1/3*10000*C79</f>
+        <v>3000</v>
       </c>
       <c r="D80" s="418" t="s">
         <v>599</v>
@@ -29858,7 +29931,7 @@
         <v>349</v>
       </c>
       <c r="C81" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D81" s="418" t="s">
         <v>600</v>
@@ -29887,7 +29960,7 @@
       </c>
       <c r="C86" s="11">
         <f>C78*(1-C79)</f>
-        <v>1050.0000000000002</v>
+        <v>949.99999999999977</v>
       </c>
       <c r="D86" s="11"/>
     </row>
@@ -29898,7 +29971,7 @@
       <c r="C87" s="11"/>
       <c r="D87" s="11">
         <f>C86</f>
-        <v>1050.0000000000002</v>
+        <v>949.99999999999977</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
@@ -29912,7 +29985,7 @@
       </c>
       <c r="C89" s="11">
         <f>C78*C79</f>
-        <v>2450</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
@@ -29922,7 +29995,7 @@
       <c r="C90" s="11"/>
       <c r="D90" s="11">
         <f>C80*C81</f>
-        <v>1050</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
@@ -29932,7 +30005,7 @@
       <c r="C91" s="11"/>
       <c r="D91" s="11">
         <f>C89-D90</f>
-        <v>1400</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -29946,7 +30019,7 @@
       </c>
       <c r="C94" s="11">
         <f>C77</f>
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="D94" s="11"/>
     </row>
@@ -29957,8 +30030,67 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11">
         <f>C77</f>
-        <v>500</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C109" s="628"/>
+      <c r="D109" s="628"/>
+      <c r="E109" s="628"/>
+      <c r="F109" s="628"/>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C110" s="628"/>
+      <c r="D110" s="628"/>
+      <c r="E110" s="628"/>
+      <c r="F110" s="628"/>
+      <c r="G110" s="628"/>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C111" s="628"/>
+      <c r="D111" s="628"/>
+      <c r="E111" s="628"/>
+      <c r="F111" s="628"/>
+      <c r="G111" s="628"/>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C112" s="628"/>
+      <c r="D112" s="628"/>
+      <c r="E112" s="628"/>
+      <c r="F112" s="628"/>
+      <c r="G112" s="628"/>
+      <c r="H112" s="628"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="628"/>
+      <c r="D113" s="628"/>
+      <c r="E113" s="628"/>
+      <c r="F113" s="628"/>
+      <c r="G113" s="628"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="628"/>
+      <c r="D114" s="628"/>
+      <c r="E114" s="628"/>
+      <c r="F114" s="628"/>
+      <c r="G114" s="628"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="628"/>
+      <c r="D115" s="628"/>
+      <c r="E115" s="628"/>
+      <c r="F115" s="628"/>
+      <c r="G115" s="628"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="628"/>
+      <c r="D116" s="628"/>
+      <c r="E116" s="628"/>
+      <c r="F116" s="628"/>
+      <c r="G116" s="628"/>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F119" s="628"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -30670,60 +30802,60 @@
       <c r="C18" s="11"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="847" t="s">
+      <c r="B37" s="849" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="847"/>
-      <c r="D37" s="847"/>
-      <c r="E37" s="847"/>
-      <c r="F37" s="847"/>
-      <c r="G37" s="847"/>
-      <c r="H37" s="847"/>
+      <c r="C37" s="849"/>
+      <c r="D37" s="849"/>
+      <c r="E37" s="849"/>
+      <c r="F37" s="849"/>
+      <c r="G37" s="849"/>
+      <c r="H37" s="849"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="847"/>
-      <c r="C38" s="847"/>
-      <c r="D38" s="847"/>
-      <c r="E38" s="847"/>
-      <c r="F38" s="847"/>
-      <c r="G38" s="847"/>
-      <c r="H38" s="847"/>
+      <c r="B38" s="849"/>
+      <c r="C38" s="849"/>
+      <c r="D38" s="849"/>
+      <c r="E38" s="849"/>
+      <c r="F38" s="849"/>
+      <c r="G38" s="849"/>
+      <c r="H38" s="849"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="847"/>
-      <c r="C39" s="847"/>
-      <c r="D39" s="847"/>
-      <c r="E39" s="847"/>
-      <c r="F39" s="847"/>
-      <c r="G39" s="847"/>
-      <c r="H39" s="847"/>
+      <c r="B39" s="849"/>
+      <c r="C39" s="849"/>
+      <c r="D39" s="849"/>
+      <c r="E39" s="849"/>
+      <c r="F39" s="849"/>
+      <c r="G39" s="849"/>
+      <c r="H39" s="849"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="847"/>
-      <c r="C40" s="847"/>
-      <c r="D40" s="847"/>
-      <c r="E40" s="847"/>
-      <c r="F40" s="847"/>
-      <c r="G40" s="847"/>
-      <c r="H40" s="847"/>
+      <c r="B40" s="849"/>
+      <c r="C40" s="849"/>
+      <c r="D40" s="849"/>
+      <c r="E40" s="849"/>
+      <c r="F40" s="849"/>
+      <c r="G40" s="849"/>
+      <c r="H40" s="849"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="847"/>
-      <c r="C41" s="847"/>
-      <c r="D41" s="847"/>
-      <c r="E41" s="847"/>
-      <c r="F41" s="847"/>
-      <c r="G41" s="847"/>
-      <c r="H41" s="847"/>
+      <c r="B41" s="849"/>
+      <c r="C41" s="849"/>
+      <c r="D41" s="849"/>
+      <c r="E41" s="849"/>
+      <c r="F41" s="849"/>
+      <c r="G41" s="849"/>
+      <c r="H41" s="849"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="847"/>
-      <c r="C42" s="847"/>
-      <c r="D42" s="847"/>
-      <c r="E42" s="847"/>
-      <c r="F42" s="847"/>
-      <c r="G42" s="847"/>
-      <c r="H42" s="847"/>
+      <c r="B42" s="849"/>
+      <c r="C42" s="849"/>
+      <c r="D42" s="849"/>
+      <c r="E42" s="849"/>
+      <c r="F42" s="849"/>
+      <c r="G42" s="849"/>
+      <c r="H42" s="849"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30838,26 +30970,26 @@
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="886" t="s">
+      <c r="B9" s="900" t="s">
         <v>942</v>
       </c>
-      <c r="C9" s="919"/>
-      <c r="D9" s="919"/>
-      <c r="E9" s="919"/>
-      <c r="F9" s="919"/>
-      <c r="G9" s="919"/>
-      <c r="H9" s="919"/>
-      <c r="I9" s="920"/>
+      <c r="C9" s="921"/>
+      <c r="D9" s="921"/>
+      <c r="E9" s="921"/>
+      <c r="F9" s="921"/>
+      <c r="G9" s="921"/>
+      <c r="H9" s="921"/>
+      <c r="I9" s="922"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="886"/>
-      <c r="C10" s="919"/>
-      <c r="D10" s="919"/>
-      <c r="E10" s="919"/>
-      <c r="F10" s="919"/>
-      <c r="G10" s="919"/>
-      <c r="H10" s="919"/>
-      <c r="I10" s="920"/>
+      <c r="B10" s="900"/>
+      <c r="C10" s="921"/>
+      <c r="D10" s="921"/>
+      <c r="E10" s="921"/>
+      <c r="F10" s="921"/>
+      <c r="G10" s="921"/>
+      <c r="H10" s="921"/>
+      <c r="I10" s="922"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="495"/>
@@ -30916,26 +31048,26 @@
       <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="868" t="s">
+      <c r="B16" s="870" t="s">
         <v>951</v>
       </c>
-      <c r="C16" s="869"/>
-      <c r="D16" s="869"/>
-      <c r="E16" s="869"/>
-      <c r="F16" s="869"/>
-      <c r="G16" s="869"/>
-      <c r="H16" s="869"/>
-      <c r="I16" s="870"/>
+      <c r="C16" s="871"/>
+      <c r="D16" s="871"/>
+      <c r="E16" s="871"/>
+      <c r="F16" s="871"/>
+      <c r="G16" s="871"/>
+      <c r="H16" s="871"/>
+      <c r="I16" s="872"/>
     </row>
     <row r="17" spans="2:9" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="871"/>
-      <c r="C17" s="872"/>
-      <c r="D17" s="872"/>
-      <c r="E17" s="872"/>
-      <c r="F17" s="872"/>
-      <c r="G17" s="872"/>
-      <c r="H17" s="872"/>
-      <c r="I17" s="873"/>
+      <c r="B17" s="873"/>
+      <c r="C17" s="874"/>
+      <c r="D17" s="874"/>
+      <c r="E17" s="874"/>
+      <c r="F17" s="874"/>
+      <c r="G17" s="874"/>
+      <c r="H17" s="874"/>
+      <c r="I17" s="875"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="418"/>
@@ -30987,16 +31119,16 @@
       <c r="I22" s="66"/>
     </row>
     <row r="23" spans="2:9" s="418" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="886" t="s">
+      <c r="B23" s="900" t="s">
         <v>948</v>
       </c>
-      <c r="C23" s="919"/>
-      <c r="D23" s="919"/>
-      <c r="E23" s="919"/>
-      <c r="F23" s="919"/>
-      <c r="G23" s="919"/>
-      <c r="H23" s="919"/>
-      <c r="I23" s="920"/>
+      <c r="C23" s="921"/>
+      <c r="D23" s="921"/>
+      <c r="E23" s="921"/>
+      <c r="F23" s="921"/>
+      <c r="G23" s="921"/>
+      <c r="H23" s="921"/>
+      <c r="I23" s="922"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="63"/>
@@ -31021,16 +31153,16 @@
       <c r="I25" s="66"/>
     </row>
     <row r="26" spans="2:9" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="921" t="s">
+      <c r="B26" s="923" t="s">
         <v>950</v>
       </c>
-      <c r="C26" s="922"/>
-      <c r="D26" s="922"/>
-      <c r="E26" s="922"/>
-      <c r="F26" s="922"/>
-      <c r="G26" s="922"/>
-      <c r="H26" s="922"/>
-      <c r="I26" s="923"/>
+      <c r="C26" s="924"/>
+      <c r="D26" s="924"/>
+      <c r="E26" s="924"/>
+      <c r="F26" s="924"/>
+      <c r="G26" s="924"/>
+      <c r="H26" s="924"/>
+      <c r="I26" s="925"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="492" t="s">
@@ -32773,11 +32905,9 @@
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB76DAB7-A69C-405D-AE8E-17E25900784D}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:S110"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32882,7 +33012,7 @@
       </c>
       <c r="C16" s="23">
         <f>IF(C21="advance",C18+C19+C17,C18+C17)</f>
-        <v>496.14</v>
+        <v>350.04199999999997</v>
       </c>
       <c r="D16" t="s">
         <v>212</v>
@@ -32896,7 +33026,7 @@
         <v>295</v>
       </c>
       <c r="C17" s="34">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E17" s="90" t="s">
         <v>296</v>
@@ -32909,12 +33039,12 @@
         <v>138</v>
       </c>
       <c r="C18" s="34">
-        <f>+(180*2.673)</f>
-        <v>481.14</v>
+        <f>77*3.546</f>
+        <v>273.04199999999997</v>
       </c>
       <c r="D18" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(C18)," ")</f>
-        <v>=+(180*2.673)</v>
+        <v>=77*3.546</v>
       </c>
       <c r="E18" t="s">
         <v>294</v>
@@ -32927,7 +33057,7 @@
         <v>140</v>
       </c>
       <c r="C19" s="34">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -32937,7 +33067,7 @@
         <v>134</v>
       </c>
       <c r="C20" s="35">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
@@ -32945,7 +33075,7 @@
         <v>135</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
@@ -32953,7 +33083,7 @@
         <v>144</v>
       </c>
       <c r="C22" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
         <v>472</v>
@@ -32964,7 +33094,7 @@
         <v>145</v>
       </c>
       <c r="C23" s="36">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>472</v>
@@ -32998,7 +33128,7 @@
         <v>163</v>
       </c>
       <c r="C26" s="34">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S26" s="11"/>
     </row>
@@ -33048,174 +33178,174 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="137">
-        <v>43799</v>
+        <v>44561</v>
       </c>
       <c r="C32" s="83">
         <f>C18</f>
-        <v>481.14</v>
+        <v>273.04199999999997</v>
       </c>
       <c r="D32" s="83">
         <f t="shared" ref="D32:D37" si="0">IF($C$21="arrears",C32*$C$20,(C32+E32)*$C$20)</f>
-        <v>28.868399999999998</v>
+        <v>13.652099999999999</v>
       </c>
       <c r="E32" s="104">
         <f>IF(C21="ADVANCE",0,-$C$19)</f>
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F32" s="69">
         <f t="shared" ref="F32:F37" si="1">C32+D32+E32</f>
-        <v>330.00839999999999</v>
+        <v>286.69409999999999</v>
       </c>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="137">
-        <f>B32+366</f>
-        <v>44165</v>
+        <f>B32+365</f>
+        <v>44926</v>
       </c>
       <c r="C33" s="83">
         <f>F32</f>
-        <v>330.00839999999999</v>
+        <v>286.69409999999999</v>
       </c>
       <c r="D33" s="83">
         <f t="shared" si="0"/>
-        <v>19.800504</v>
+        <v>10.484705</v>
       </c>
       <c r="E33" s="104">
         <f>-$C$19</f>
-        <v>-180</v>
+        <v>-77</v>
       </c>
       <c r="F33" s="69">
         <f t="shared" si="1"/>
-        <v>169.80890399999998</v>
+        <v>220.17880500000001</v>
       </c>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="137">
         <f>B33+365</f>
-        <v>44530</v>
+        <v>45291</v>
       </c>
       <c r="C34" s="83">
         <f>F33</f>
-        <v>169.80890399999998</v>
+        <v>220.17880500000001</v>
       </c>
       <c r="D34" s="83">
         <f t="shared" si="0"/>
-        <v>10.188534239999999</v>
+        <v>7.1589402500000006</v>
       </c>
       <c r="E34" s="104">
         <f>-$C$19</f>
-        <v>-180</v>
+        <v>-77</v>
       </c>
       <c r="F34" s="69">
         <f t="shared" si="1"/>
-        <v>-2.5617600000202856E-3</v>
+        <v>150.33774525000001</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="137">
         <f>B34+365</f>
-        <v>44895</v>
+        <v>45656</v>
       </c>
       <c r="C35" s="17">
         <f>F34</f>
-        <v>-2.5617600000202856E-3</v>
+        <v>150.33774525000001</v>
       </c>
       <c r="D35" s="83">
         <f t="shared" si="0"/>
-        <v>-1.5370560000121713E-4</v>
+        <v>3.6668872625000009</v>
       </c>
       <c r="E35" s="104">
         <f>-$C$19</f>
-        <v>-180</v>
+        <v>-77</v>
       </c>
       <c r="F35" s="138">
         <f t="shared" si="1"/>
-        <v>-180.00271546560003</v>
+        <v>77.004632512500024</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="137">
         <f>B35+365</f>
-        <v>45260</v>
+        <v>46021</v>
       </c>
       <c r="C36" s="17">
         <f>F35</f>
-        <v>-180.00271546560003</v>
+        <v>77.004632512500024</v>
       </c>
       <c r="D36" s="83">
         <f t="shared" si="0"/>
-        <v>-10.800162927936002</v>
+        <v>2.3162562500118612E-4</v>
       </c>
       <c r="E36" s="104">
         <f>-$C$19</f>
-        <v>-180</v>
+        <v>-77</v>
       </c>
       <c r="F36" s="69">
         <f t="shared" si="1"/>
-        <v>-370.80287839353605</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>4.8641381250291715E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="137">
         <f>B36+365</f>
-        <v>45625</v>
+        <v>46386</v>
       </c>
       <c r="C37" s="17">
         <f>F36</f>
-        <v>-370.80287839353605</v>
+        <v>4.8641381250291715E-3</v>
       </c>
       <c r="D37" s="83">
         <f t="shared" si="0"/>
-        <v>-22.248172703612163</v>
+        <v>-3.8497567930937486</v>
       </c>
       <c r="E37" s="104">
         <f>-$C$19</f>
-        <v>-180</v>
+        <v>-77</v>
       </c>
       <c r="F37" s="69">
         <f t="shared" si="1"/>
-        <v>-573.05105109714827</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+        <v>-80.844892654968717</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="63"/>
       <c r="C38" s="64"/>
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
       <c r="F38" s="66"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="63"/>
       <c r="C39" s="64"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64"/>
       <c r="F39" s="66"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="63" t="s">
         <v>142</v>
       </c>
       <c r="C40" s="17">
         <f>F33</f>
-        <v>169.80890399999998</v>
+        <v>220.17880500000001</v>
       </c>
       <c r="D40" s="64"/>
       <c r="E40" s="64"/>
       <c r="F40" s="66"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="63" t="s">
         <v>143</v>
       </c>
       <c r="C41" s="17">
         <f>F32-F33</f>
-        <v>160.19949600000001</v>
+        <v>66.515294999999981</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>297</v>
@@ -33226,69 +33356,76 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="78" t="str">
         <f>"Lease payable at year end"</f>
         <v>Lease payable at year end</v>
       </c>
       <c r="C42" s="33">
         <f>C40+C41</f>
-        <v>330.00839999999999</v>
+        <v>286.69409999999999</v>
       </c>
       <c r="D42" s="64"/>
       <c r="E42" s="64"/>
       <c r="F42" s="66"/>
     </row>
-    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="70"/>
       <c r="C43" s="71"/>
       <c r="D43" s="71"/>
       <c r="E43" s="71"/>
       <c r="F43" s="80"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="418" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>139</v>
       </c>
       <c r="C45" s="11">
         <f>C16</f>
-        <v>496.14</v>
+        <v>350.04199999999997</v>
       </c>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>292</v>
       </c>
       <c r="C46" s="11" cm="1">
         <f t="array" ref="C46">_xlfn.IFS(AND($C$22&lt;$C$23,$C$24="No"),(C45-$C$25)/$C$22,OR($C$23&lt;$C$22,$C$24="Yes"),(C45-$C$26)/$C$23)</f>
-        <v>114.035</v>
+        <v>35.004199999999997</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="418"/>
+    <row r="47" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+    <row r="48" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="144"/>
-      <c r="D49" s="145"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="63"/>
+      <c r="C49" s="135" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="136" t="s">
+        <v>153</v>
+      </c>
       <c r="E49" s="12"/>
       <c r="K49" s="64"/>
       <c r="L49" s="64"/>
@@ -33296,12 +33433,8 @@
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="63"/>
-      <c r="C50" s="135" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="136" t="s">
-        <v>153</v>
-      </c>
+      <c r="C50" s="135"/>
+      <c r="D50" s="136"/>
       <c r="E50" s="12"/>
       <c r="K50" s="64"/>
       <c r="L50" s="64"/>
@@ -33309,21 +33442,26 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="63"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="136"/>
+      <c r="C51" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="141" t="s">
+        <v>10</v>
+      </c>
       <c r="E51" s="12"/>
       <c r="K51" s="64"/>
       <c r="L51" s="64"/>
       <c r="M51" s="64"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="63"/>
-      <c r="C52" s="140" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="141" t="s">
-        <v>10</v>
-      </c>
+      <c r="B52" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="104">
+        <f>C16</f>
+        <v>350.04199999999997</v>
+      </c>
+      <c r="D52" s="66"/>
       <c r="E52" s="12"/>
       <c r="K52" s="64"/>
       <c r="L52" s="64"/>
@@ -33331,13 +33469,13 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="104">
-        <f>C16</f>
-        <v>496.14</v>
-      </c>
-      <c r="D53" s="66"/>
+        <v>157</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="115">
+        <f>C18</f>
+        <v>273.04199999999997</v>
+      </c>
       <c r="E53" s="12"/>
       <c r="K53" s="64"/>
       <c r="L53" s="64"/>
@@ -33345,12 +33483,12 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C54" s="64"/>
-      <c r="D54" s="115">
-        <f>C18</f>
-        <v>481.14</v>
+      <c r="D54" s="142">
+        <f>IF(C21="advance",C19,0)</f>
+        <v>77</v>
       </c>
       <c r="E54" s="12"/>
       <c r="K54" s="64"/>
@@ -33358,12 +33496,15 @@
       <c r="M54" s="64"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="142">
-        <f>IF(C21="advance",C19,0)</f>
+      <c r="B55" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" s="103">
+        <f>IF(C17&lt;0,C17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="115">
+        <f>IF(C17&gt;0,C17,0)</f>
         <v>0</v>
       </c>
       <c r="E55" s="12"/>
@@ -33372,17 +33513,9 @@
       <c r="M55" s="64"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="C56" s="103">
-        <f>IF(C17&lt;0,C17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="115">
-        <f>IF(C17&gt;0,C17,0)</f>
-        <v>15</v>
-      </c>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="66"/>
       <c r="E56" s="12"/>
       <c r="K56" s="64"/>
       <c r="L56" s="64"/>
@@ -33399,8 +33532,12 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="66"/>
+      <c r="C58" s="135" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="136" t="s">
+        <v>153</v>
+      </c>
       <c r="E58" s="12"/>
       <c r="K58" s="64"/>
       <c r="L58" s="64"/>
@@ -33408,11 +33545,11 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="63"/>
-      <c r="C59" s="135" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="136" t="s">
-        <v>153</v>
+      <c r="C59" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="141" t="s">
+        <v>10</v>
       </c>
       <c r="E59" s="12"/>
       <c r="K59" s="64"/>
@@ -33420,13 +33557,14 @@
       <c r="M59" s="64"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="63"/>
-      <c r="C60" s="140" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="141" t="s">
-        <v>10</v>
-      </c>
+      <c r="B60" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" s="17">
+        <f>D32</f>
+        <v>13.652099999999999</v>
+      </c>
+      <c r="D60" s="66"/>
       <c r="E60" s="12"/>
       <c r="K60" s="64"/>
       <c r="L60" s="64"/>
@@ -33434,28 +33572,28 @@
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="C61" s="17">
-        <f>D32</f>
-        <v>28.868399999999998</v>
-      </c>
-      <c r="D61" s="66"/>
+        <v>154</v>
+      </c>
+      <c r="C61" s="83">
+        <f>IF((D32+E32)&lt;0,-(D32+E32),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="77">
+        <f>IF((D32+E32)&gt;0,(D32+E32),0)</f>
+        <v>13.652099999999999</v>
+      </c>
       <c r="E61" s="12"/>
       <c r="K61" s="64"/>
       <c r="L61" s="64"/>
       <c r="M61" s="64"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" s="83">
-        <f>IF((D32+E32)&lt;0,-(D32+E32),0)</f>
-        <v>151.13159999999999</v>
-      </c>
-      <c r="D62" s="77">
-        <f>IF((D32+E32)&gt;0,(D32+E32),0)</f>
+      <c r="B62" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" s="64"/>
+      <c r="D62" s="115">
+        <f>E32</f>
         <v>0</v>
       </c>
       <c r="E62" s="12"/>
@@ -33464,14 +33602,9 @@
       <c r="M62" s="64"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="47" t="s">
-        <v>298</v>
-      </c>
+      <c r="B63" s="63"/>
       <c r="C63" s="64"/>
-      <c r="D63" s="115">
-        <f>E32</f>
-        <v>-180</v>
-      </c>
+      <c r="D63" s="66"/>
       <c r="E63" s="12"/>
       <c r="K63" s="64"/>
       <c r="L63" s="64"/>
@@ -33488,8 +33621,12 @@
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="63"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="66"/>
+      <c r="C65" s="135" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="136" t="s">
+        <v>153</v>
+      </c>
       <c r="E65" s="12"/>
       <c r="K65" s="64"/>
       <c r="L65" s="64"/>
@@ -33497,11 +33634,11 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="63"/>
-      <c r="C66" s="135" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" s="136" t="s">
-        <v>153</v>
+      <c r="C66" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="141" t="s">
+        <v>10</v>
       </c>
       <c r="E66" s="12"/>
       <c r="K66" s="64"/>
@@ -33509,13 +33646,14 @@
       <c r="M66" s="64"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="63"/>
-      <c r="C67" s="140" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="141" t="s">
-        <v>10</v>
-      </c>
+      <c r="B67" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="17">
+        <f>C46</f>
+        <v>35.004199999999997</v>
+      </c>
+      <c r="D67" s="66"/>
       <c r="E67" s="12"/>
       <c r="K67" s="64"/>
       <c r="L67" s="64"/>
@@ -33523,45 +33661,39 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="17">
+        <v>160</v>
+      </c>
+      <c r="C68" s="64"/>
+      <c r="D68" s="69">
         <f>C46</f>
-        <v>114.035</v>
-      </c>
-      <c r="D68" s="66"/>
+        <v>35.004199999999997</v>
+      </c>
       <c r="E68" s="12"/>
       <c r="K68" s="64"/>
       <c r="L68" s="64"/>
       <c r="M68" s="64"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="63" t="s">
-        <v>160</v>
-      </c>
+      <c r="B69" s="63"/>
       <c r="C69" s="64"/>
-      <c r="D69" s="69">
-        <f>C46</f>
-        <v>114.035</v>
-      </c>
+      <c r="D69" s="66"/>
       <c r="E69" s="12"/>
       <c r="K69" s="64"/>
       <c r="L69" s="64"/>
       <c r="M69" s="64"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="63"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="66"/>
+    <row r="70" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="70"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="80"/>
       <c r="E70" s="12"/>
       <c r="K70" s="64"/>
       <c r="L70" s="64"/>
       <c r="M70" s="64"/>
     </row>
-    <row r="71" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="70"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="80"/>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="12"/>
       <c r="K71" s="64"/>
       <c r="L71" s="64"/>
@@ -33576,31 +33708,292 @@
       <c r="M72" s="64"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
-      <c r="K73" s="64"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="64"/>
+      <c r="B73" s="1" t="s">
+        <v>1989</v>
+      </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
-      <c r="K74" s="64"/>
-      <c r="L74" s="64"/>
-      <c r="M74" s="64"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="418" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C74" s="12"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="418" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C75" s="12"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="418" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C76" s="12"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="418" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C77" s="12"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="934" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="15" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C80" s="34"/>
+      <c r="K80" s="877" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L80" s="877"/>
+      <c r="M80" s="877"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="15" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="K81" s="877"/>
+      <c r="L81" s="877"/>
+      <c r="M81" s="877"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="15" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="K82" s="877"/>
+      <c r="L82" s="877"/>
+      <c r="M82" s="877"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="15" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="K83" s="877"/>
+      <c r="L83" s="877"/>
+      <c r="M83" s="877"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="34"/>
+      <c r="K84" s="418"/>
+      <c r="L84" s="418"/>
+      <c r="M84" s="418"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="34"/>
+      <c r="K85" s="418"/>
+      <c r="L85" s="418"/>
+      <c r="M85" s="418"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="34"/>
+      <c r="K86" s="418"/>
+      <c r="L86" s="418"/>
+      <c r="M86" s="418"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="35"/>
+      <c r="K87" s="418"/>
+      <c r="L87" s="418"/>
+      <c r="M87" s="418"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="J88" s="40" t="e">
+        <f>C89/C83</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K88" s="418" t="s">
+        <v>2000</v>
+      </c>
+      <c r="L88" s="418"/>
+      <c r="M88" s="418"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="34"/>
+      <c r="D89" s="37" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(C89)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E89" s="37" t="s">
+        <v>2001</v>
+      </c>
+      <c r="J89" s="12"/>
+      <c r="K89" s="418"/>
+      <c r="L89" s="418"/>
+      <c r="M89" s="418"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" s="34"/>
+      <c r="K90" s="418"/>
+      <c r="L90" s="418"/>
+      <c r="M90" s="418"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="23">
+        <f>C90-C82</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>2002</v>
+      </c>
+      <c r="J91" s="547"/>
+      <c r="K91" s="418"/>
+      <c r="L91" s="418"/>
+      <c r="M91" s="418"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J92" s="12"/>
+      <c r="K92" s="418"/>
+      <c r="L92" s="418"/>
+      <c r="M92" s="418"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="645" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="32">
+        <f>C90</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="418"/>
+      <c r="L93" s="418"/>
+      <c r="M93" s="418"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C94" s="32">
+        <f>C89</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="418"/>
+      <c r="L94" s="418"/>
+      <c r="M94" s="418"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C95" s="32" t="e">
+        <f>(C82/C83)*C89</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D95" s="37" t="s">
+        <v>2005</v>
+      </c>
+      <c r="K95" s="418" t="s">
+        <v>2006</v>
+      </c>
+      <c r="L95" s="418"/>
+      <c r="M95" s="418"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" t="str">
+        <f>IF(C91&gt;0,"CR SPL - gain on sale","DR  SPL - loss on sale")</f>
+        <v>DR  SPL - loss on sale</v>
+      </c>
+      <c r="C96" s="11" t="e">
+        <f>C91/C83*(C90-C89)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>2007</v>
+      </c>
+      <c r="K96" s="418" t="s">
+        <v>2008</v>
+      </c>
+      <c r="L96" s="418"/>
+      <c r="M96" s="418"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C97" s="11">
+        <f>C80</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="418"/>
+      <c r="L97" s="418"/>
+      <c r="M97" s="418"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C98" s="11">
+        <f>C81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="11" t="e">
+        <f>C95</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C103" s="11" t="e">
+        <f>IF(C85&lt;C86,C102/C85,C102/C86)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D103" s="37" t="e">
+        <f>IF(C85&lt;C86,"="&amp;C102&amp;"/"&amp;C85,"="&amp;C102&amp;"/"&amp;C86)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C108" s="560"/>
+      <c r="D108" s="560"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C109" s="560"/>
       <c r="D109" s="560"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="560"/>
-      <c r="D110" s="560"/>
-    </row>
   </sheetData>
   <autoFilter ref="B2:B6" xr:uid="{EB76DAB7-A69C-405D-AE8E-17E25900784D}"/>
+  <mergeCells count="1">
+    <mergeCell ref="K80:M83"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1807A02D-159E-4EFC-B0D6-AEF5001DA29A}"/>
   </hyperlinks>
@@ -34004,10 +34397,10 @@
       <c r="H3" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="I3" s="924" t="s">
+      <c r="I3" s="926" t="s">
         <v>1803</v>
       </c>
-      <c r="J3" s="924"/>
+      <c r="J3" s="926"/>
       <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
@@ -34456,10 +34849,10 @@
   </sheetPr>
   <dimension ref="A1:AT128"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B28" sqref="B28"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="U73" sqref="U73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34491,7 +34884,7 @@
       <c r="B2" s="589" t="s">
         <v>636</v>
       </c>
-      <c r="C2" s="925" t="s">
+      <c r="C2" s="927" t="s">
         <v>637</v>
       </c>
       <c r="D2" s="593"/>
@@ -34501,7 +34894,7 @@
       <c r="B3" s="590" t="s">
         <v>1265</v>
       </c>
-      <c r="C3" s="926"/>
+      <c r="C3" s="928"/>
       <c r="D3" s="593"/>
       <c r="E3" s="593"/>
     </row>
@@ -34509,7 +34902,7 @@
       <c r="B4" s="591" t="s">
         <v>699</v>
       </c>
-      <c r="C4" s="927"/>
+      <c r="C4" s="929"/>
       <c r="D4" s="593"/>
       <c r="E4" s="593"/>
     </row>
@@ -35452,11 +35845,11 @@
       <c r="C38" s="588" t="s">
         <v>1290</v>
       </c>
-      <c r="D38" s="928">
+      <c r="D38" s="930">
         <f>E36-(SUM(E34:E35))</f>
         <v>0</v>
       </c>
-      <c r="E38" s="929"/>
+      <c r="E38" s="931"/>
       <c r="Q38" t="s">
         <v>1</v>
       </c>
@@ -36531,7 +36924,7 @@
       <c r="B2" s="589" t="s">
         <v>636</v>
       </c>
-      <c r="C2" s="925" t="s">
+      <c r="C2" s="927" t="s">
         <v>637</v>
       </c>
       <c r="D2" s="593"/>
@@ -36549,7 +36942,7 @@
       <c r="B3" s="590" t="s">
         <v>1265</v>
       </c>
-      <c r="C3" s="926"/>
+      <c r="C3" s="928"/>
       <c r="D3" s="593"/>
       <c r="E3" s="593"/>
       <c r="I3" s="270" t="s">
@@ -36567,7 +36960,7 @@
       <c r="B4" s="591" t="s">
         <v>699</v>
       </c>
-      <c r="C4" s="927"/>
+      <c r="C4" s="929"/>
       <c r="D4" s="593"/>
       <c r="E4" s="593"/>
       <c r="I4" s="271" t="s">
@@ -38520,7 +38913,7 @@
       <c r="B2" s="224" t="s">
         <v>636</v>
       </c>
-      <c r="C2" s="850" t="s">
+      <c r="C2" s="853" t="s">
         <v>637</v>
       </c>
       <c r="D2" s="225"/>
@@ -38567,57 +38960,57 @@
       <c r="B3" s="227" t="s">
         <v>638</v>
       </c>
-      <c r="C3" s="851"/>
+      <c r="C3" s="858"/>
       <c r="D3" s="225"/>
       <c r="E3" s="225"/>
       <c r="F3" s="280"/>
-      <c r="G3" s="848">
+      <c r="G3" s="850">
         <v>1</v>
       </c>
-      <c r="H3" s="853"/>
-      <c r="I3" s="848">
+      <c r="H3" s="856"/>
+      <c r="I3" s="850">
         <v>2</v>
       </c>
-      <c r="J3" s="853"/>
-      <c r="K3" s="848">
+      <c r="J3" s="856"/>
+      <c r="K3" s="850">
         <v>3</v>
       </c>
-      <c r="L3" s="849"/>
-      <c r="M3" s="853">
+      <c r="L3" s="851"/>
+      <c r="M3" s="856">
         <v>4</v>
       </c>
-      <c r="N3" s="849"/>
-      <c r="O3" s="848">
+      <c r="N3" s="851"/>
+      <c r="O3" s="850">
         <v>5</v>
       </c>
-      <c r="P3" s="849"/>
-      <c r="Q3" s="848">
+      <c r="P3" s="851"/>
+      <c r="Q3" s="850">
         <v>6</v>
       </c>
-      <c r="R3" s="849"/>
-      <c r="S3" s="848">
+      <c r="R3" s="851"/>
+      <c r="S3" s="850">
         <v>7</v>
       </c>
-      <c r="T3" s="849"/>
-      <c r="U3" s="848">
+      <c r="T3" s="851"/>
+      <c r="U3" s="850">
         <v>8</v>
       </c>
-      <c r="V3" s="849"/>
-      <c r="W3" s="848">
+      <c r="V3" s="851"/>
+      <c r="W3" s="850">
         <v>9</v>
       </c>
-      <c r="X3" s="849"/>
-      <c r="Y3" s="848">
+      <c r="X3" s="851"/>
+      <c r="Y3" s="850">
         <v>10</v>
       </c>
-      <c r="Z3" s="849"/>
+      <c r="Z3" s="851"/>
       <c r="AA3" s="308"/>
     </row>
     <row r="4" spans="2:72" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="228" t="s">
         <v>852</v>
       </c>
-      <c r="C4" s="852"/>
+      <c r="C4" s="859"/>
       <c r="D4" s="229" t="s">
         <v>639</v>
       </c>
@@ -39168,17 +39561,17 @@
       <c r="BI12" s="857"/>
       <c r="BJ12" s="857"/>
       <c r="BK12" s="857"/>
-      <c r="BL12" s="854" t="s">
+      <c r="BL12" s="852" t="s">
         <v>742</v>
       </c>
-      <c r="BM12" s="854"/>
-      <c r="BN12" s="854"/>
-      <c r="BO12" s="854"/>
-      <c r="BP12" s="854"/>
-      <c r="BQ12" s="854"/>
-      <c r="BR12" s="854"/>
-      <c r="BS12" s="854"/>
-      <c r="BT12" s="854"/>
+      <c r="BM12" s="852"/>
+      <c r="BN12" s="852"/>
+      <c r="BO12" s="852"/>
+      <c r="BP12" s="852"/>
+      <c r="BQ12" s="852"/>
+      <c r="BR12" s="852"/>
+      <c r="BS12" s="852"/>
+      <c r="BT12" s="852"/>
     </row>
     <row r="13" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="230" t="s">
@@ -39243,15 +39636,15 @@
       <c r="BI13" s="857"/>
       <c r="BJ13" s="857"/>
       <c r="BK13" s="857"/>
-      <c r="BL13" s="854"/>
-      <c r="BM13" s="854"/>
-      <c r="BN13" s="854"/>
-      <c r="BO13" s="854"/>
-      <c r="BP13" s="854"/>
-      <c r="BQ13" s="854"/>
-      <c r="BR13" s="854"/>
-      <c r="BS13" s="854"/>
-      <c r="BT13" s="854"/>
+      <c r="BL13" s="852"/>
+      <c r="BM13" s="852"/>
+      <c r="BN13" s="852"/>
+      <c r="BO13" s="852"/>
+      <c r="BP13" s="852"/>
+      <c r="BQ13" s="852"/>
+      <c r="BR13" s="852"/>
+      <c r="BS13" s="852"/>
+      <c r="BT13" s="852"/>
     </row>
     <row r="14" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="230" t="s">
@@ -39306,15 +39699,15 @@
       <c r="BI14" s="857"/>
       <c r="BJ14" s="857"/>
       <c r="BK14" s="857"/>
-      <c r="BL14" s="854"/>
-      <c r="BM14" s="854"/>
-      <c r="BN14" s="854"/>
-      <c r="BO14" s="854"/>
-      <c r="BP14" s="854"/>
-      <c r="BQ14" s="854"/>
-      <c r="BR14" s="854"/>
-      <c r="BS14" s="854"/>
-      <c r="BT14" s="854"/>
+      <c r="BL14" s="852"/>
+      <c r="BM14" s="852"/>
+      <c r="BN14" s="852"/>
+      <c r="BO14" s="852"/>
+      <c r="BP14" s="852"/>
+      <c r="BQ14" s="852"/>
+      <c r="BR14" s="852"/>
+      <c r="BS14" s="852"/>
+      <c r="BT14" s="852"/>
     </row>
     <row r="15" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="230" t="s">
@@ -39369,15 +39762,15 @@
       <c r="BI15" s="857"/>
       <c r="BJ15" s="857"/>
       <c r="BK15" s="857"/>
-      <c r="BL15" s="854"/>
-      <c r="BM15" s="854"/>
-      <c r="BN15" s="854"/>
-      <c r="BO15" s="854"/>
-      <c r="BP15" s="854"/>
-      <c r="BQ15" s="854"/>
-      <c r="BR15" s="854"/>
-      <c r="BS15" s="854"/>
-      <c r="BT15" s="854"/>
+      <c r="BL15" s="852"/>
+      <c r="BM15" s="852"/>
+      <c r="BN15" s="852"/>
+      <c r="BO15" s="852"/>
+      <c r="BP15" s="852"/>
+      <c r="BQ15" s="852"/>
+      <c r="BR15" s="852"/>
+      <c r="BS15" s="852"/>
+      <c r="BT15" s="852"/>
     </row>
     <row r="16" spans="2:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="230"/>
@@ -41358,7 +41751,7 @@
       <c r="B59" s="224" t="s">
         <v>636</v>
       </c>
-      <c r="C59" s="850" t="s">
+      <c r="C59" s="853" t="s">
         <v>637</v>
       </c>
       <c r="D59" s="229" t="s">
@@ -41403,50 +41796,50 @@
       <c r="B60" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="855"/>
+      <c r="C60" s="854"/>
       <c r="D60" s="225"/>
       <c r="E60" s="225"/>
       <c r="F60" s="280"/>
-      <c r="G60" s="848">
+      <c r="G60" s="850">
         <v>1</v>
       </c>
-      <c r="H60" s="853"/>
-      <c r="I60" s="848">
+      <c r="H60" s="856"/>
+      <c r="I60" s="850">
         <v>2</v>
       </c>
-      <c r="J60" s="853"/>
-      <c r="K60" s="848">
+      <c r="J60" s="856"/>
+      <c r="K60" s="850">
         <v>3</v>
       </c>
-      <c r="L60" s="849"/>
-      <c r="M60" s="853">
+      <c r="L60" s="851"/>
+      <c r="M60" s="856">
         <v>4</v>
       </c>
-      <c r="N60" s="849"/>
-      <c r="O60" s="848">
+      <c r="N60" s="851"/>
+      <c r="O60" s="850">
         <v>5</v>
       </c>
-      <c r="P60" s="849"/>
-      <c r="Q60" s="848">
+      <c r="P60" s="851"/>
+      <c r="Q60" s="850">
         <v>6</v>
       </c>
-      <c r="R60" s="849"/>
-      <c r="S60" s="848">
+      <c r="R60" s="851"/>
+      <c r="S60" s="850">
         <v>7</v>
       </c>
-      <c r="T60" s="849"/>
-      <c r="U60" s="853">
+      <c r="T60" s="851"/>
+      <c r="U60" s="856">
         <v>8</v>
       </c>
-      <c r="V60" s="853"/>
-      <c r="W60" s="853">
+      <c r="V60" s="856"/>
+      <c r="W60" s="856">
         <v>9</v>
       </c>
-      <c r="X60" s="849"/>
-      <c r="Y60" s="848">
+      <c r="X60" s="851"/>
+      <c r="Y60" s="850">
         <v>10</v>
       </c>
-      <c r="Z60" s="849"/>
+      <c r="Z60" s="851"/>
       <c r="AA60" s="308"/>
       <c r="AM60" s="265" t="s">
         <v>759</v>
@@ -41469,7 +41862,7 @@
       <c r="B61" s="228" t="s">
         <v>699</v>
       </c>
-      <c r="C61" s="856"/>
+      <c r="C61" s="855"/>
       <c r="D61" s="229" t="s">
         <v>639</v>
       </c>
@@ -44081,6 +44474,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
@@ -44097,14 +44498,6 @@
     <mergeCell ref="BD12:BK15"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44128,7 +44521,9 @@
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45963,7 +46358,7 @@
         <f>F19</f>
         <v>498750</v>
       </c>
-      <c r="I19" s="930">
+      <c r="I19" s="932">
         <v>1</v>
       </c>
       <c r="J19" t="s">
@@ -45990,7 +46385,7 @@
       <c r="E20" s="109"/>
       <c r="F20" s="109"/>
       <c r="G20" s="69"/>
-      <c r="I20" s="930"/>
+      <c r="I20" s="932"/>
       <c r="J20" t="s">
         <v>864</v>
       </c>
@@ -46023,7 +46418,7 @@
         <f>F21-F19</f>
         <v>498750</v>
       </c>
-      <c r="I21" s="930">
+      <c r="I21" s="932">
         <v>2</v>
       </c>
       <c r="J21" t="s">
@@ -46047,7 +46442,7 @@
       <c r="E22" s="109"/>
       <c r="F22" s="109"/>
       <c r="G22" s="69"/>
-      <c r="I22" s="930"/>
+      <c r="I22" s="932"/>
       <c r="J22" t="s">
         <v>864</v>
       </c>
@@ -46080,7 +46475,7 @@
         <f>F23-F21</f>
         <v>359250</v>
       </c>
-      <c r="I23" s="930">
+      <c r="I23" s="932">
         <v>3</v>
       </c>
       <c r="J23" t="s">
@@ -46102,7 +46497,7 @@
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
       <c r="G24" s="80"/>
-      <c r="I24" s="931"/>
+      <c r="I24" s="933"/>
       <c r="J24" s="71" t="s">
         <v>864</v>
       </c>
@@ -46114,7 +46509,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="932"/>
+      <c r="I25" s="847"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -46133,7 +46528,7 @@
       <c r="B28" t="s">
         <v>1460</v>
       </c>
-      <c r="C28" s="933">
+      <c r="C28" s="848">
         <f>SUM(L18:L24)</f>
         <v>1356750</v>
       </c>
@@ -46452,7 +46847,7 @@
         <f>F74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="930">
+      <c r="I74" s="932">
         <v>1</v>
       </c>
       <c r="J74" t="s">
@@ -46470,7 +46865,7 @@
       <c r="D75" s="109"/>
       <c r="E75" s="109"/>
       <c r="G75" s="69"/>
-      <c r="I75" s="930"/>
+      <c r="I75" s="932"/>
       <c r="J75" t="s">
         <v>864</v>
       </c>
@@ -46501,7 +46896,7 @@
         <f>F76-F74</f>
         <v>0</v>
       </c>
-      <c r="I76" s="930">
+      <c r="I76" s="932">
         <v>2</v>
       </c>
       <c r="J76" t="s">
@@ -46519,7 +46914,7 @@
       <c r="E77" s="109"/>
       <c r="F77" s="109"/>
       <c r="G77" s="69"/>
-      <c r="I77" s="930"/>
+      <c r="I77" s="932"/>
       <c r="J77" t="s">
         <v>864</v>
       </c>
@@ -46552,7 +46947,7 @@
         <f>F78-F76</f>
         <v>1356750</v>
       </c>
-      <c r="I78" s="930">
+      <c r="I78" s="932">
         <v>3</v>
       </c>
       <c r="J78" t="s">
@@ -46571,7 +46966,7 @@
       <c r="E79" s="71"/>
       <c r="F79" s="71"/>
       <c r="G79" s="80"/>
-      <c r="I79" s="931"/>
+      <c r="I79" s="933"/>
       <c r="J79" s="71" t="s">
         <v>864</v>
       </c>
@@ -47103,7 +47498,7 @@
         <f>H146</f>
         <v>788333</v>
       </c>
-      <c r="K146" s="930">
+      <c r="K146" s="932">
         <v>1</v>
       </c>
       <c r="L146" s="64" t="s">
@@ -47128,7 +47523,7 @@
       <c r="G147" s="64"/>
       <c r="H147" s="109"/>
       <c r="I147" s="138"/>
-      <c r="K147" s="930"/>
+      <c r="K147" s="932"/>
       <c r="L147" s="149" t="s">
         <v>1477</v>
       </c>
@@ -47169,7 +47564,7 @@
         <f>H148-H146</f>
         <v>-581666.33333333337</v>
       </c>
-      <c r="K148" s="930">
+      <c r="K148" s="932">
         <v>2</v>
       </c>
       <c r="L148" s="64" t="s">
@@ -47191,7 +47586,7 @@
       <c r="G149" s="64"/>
       <c r="H149" s="109"/>
       <c r="I149" s="138"/>
-      <c r="K149" s="930"/>
+      <c r="K149" s="932"/>
       <c r="L149" s="149" t="s">
         <v>1477</v>
       </c>
@@ -47232,7 +47627,7 @@
         <f>H150-H148</f>
         <v>41333.333333333343</v>
       </c>
-      <c r="K150" s="930">
+      <c r="K150" s="932">
         <v>3</v>
       </c>
       <c r="L150" s="64" t="s">
@@ -47254,7 +47649,7 @@
       <c r="G151" s="71"/>
       <c r="H151" s="71"/>
       <c r="I151" s="80"/>
-      <c r="K151" s="931"/>
+      <c r="K151" s="933"/>
       <c r="L151" s="632" t="s">
         <v>1477</v>
       </c>
@@ -47298,15 +47693,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
     <mergeCell ref="K150:K151"/>
     <mergeCell ref="I74:I75"/>
     <mergeCell ref="I76:I77"/>
     <mergeCell ref="I78:I79"/>
     <mergeCell ref="K146:K147"/>
     <mergeCell ref="K148:K149"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67" xr:uid="{CF16AC99-6860-47BD-9775-ADE6762E0FDF}">
@@ -47338,7 +47733,9 @@
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -48630,11 +49027,11 @@
       <c r="E4" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="858" t="s">
+      <c r="K4" s="860" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="858"/>
-      <c r="M4" s="858"/>
+      <c r="L4" s="860"/>
+      <c r="M4" s="860"/>
       <c r="T4" t="s">
         <v>121</v>
       </c>
@@ -48652,9 +49049,9 @@
       <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="858"/>
-      <c r="L5" s="858"/>
-      <c r="M5" s="858"/>
+      <c r="K5" s="860"/>
+      <c r="L5" s="860"/>
+      <c r="M5" s="860"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
@@ -49558,7 +49955,7 @@
       <c r="B6" s="224" t="s">
         <v>1725</v>
       </c>
-      <c r="C6" s="850" t="s">
+      <c r="C6" s="853" t="s">
         <v>637</v>
       </c>
       <c r="D6" s="225"/>
@@ -49640,63 +50037,63 @@
       <c r="B7" s="227" t="s">
         <v>638</v>
       </c>
-      <c r="C7" s="851"/>
+      <c r="C7" s="858"/>
       <c r="D7" s="225"/>
       <c r="E7" s="225"/>
       <c r="F7" s="225"/>
       <c r="G7" s="280"/>
-      <c r="H7" s="848">
+      <c r="H7" s="850">
         <v>1</v>
       </c>
-      <c r="I7" s="853"/>
-      <c r="J7" s="848">
+      <c r="I7" s="856"/>
+      <c r="J7" s="850">
         <v>2</v>
       </c>
-      <c r="K7" s="849"/>
-      <c r="L7" s="853">
+      <c r="K7" s="851"/>
+      <c r="L7" s="856">
         <v>3</v>
       </c>
-      <c r="M7" s="853"/>
-      <c r="N7" s="848">
+      <c r="M7" s="856"/>
+      <c r="N7" s="850">
         <v>4</v>
       </c>
-      <c r="O7" s="849"/>
-      <c r="P7" s="853">
+      <c r="O7" s="851"/>
+      <c r="P7" s="856">
         <v>5</v>
       </c>
-      <c r="Q7" s="849"/>
-      <c r="R7" s="848">
+      <c r="Q7" s="851"/>
+      <c r="R7" s="850">
         <v>6</v>
       </c>
-      <c r="S7" s="849"/>
-      <c r="T7" s="848">
+      <c r="S7" s="851"/>
+      <c r="T7" s="850">
         <v>7</v>
       </c>
-      <c r="U7" s="849"/>
-      <c r="V7" s="848">
+      <c r="U7" s="851"/>
+      <c r="V7" s="850">
         <v>8</v>
       </c>
-      <c r="W7" s="849"/>
-      <c r="X7" s="848">
+      <c r="W7" s="851"/>
+      <c r="X7" s="850">
         <v>9</v>
       </c>
-      <c r="Y7" s="849"/>
-      <c r="Z7" s="848">
+      <c r="Y7" s="851"/>
+      <c r="Z7" s="850">
         <v>10</v>
       </c>
-      <c r="AA7" s="853"/>
-      <c r="AB7" s="848">
+      <c r="AA7" s="856"/>
+      <c r="AB7" s="850">
         <v>11</v>
       </c>
-      <c r="AC7" s="849"/>
-      <c r="AD7" s="853">
+      <c r="AC7" s="851"/>
+      <c r="AD7" s="856">
         <v>12</v>
       </c>
-      <c r="AE7" s="849"/>
-      <c r="AF7" s="848">
+      <c r="AE7" s="851"/>
+      <c r="AF7" s="850">
         <v>13</v>
       </c>
-      <c r="AG7" s="849"/>
+      <c r="AG7" s="851"/>
       <c r="AH7" s="308"/>
       <c r="AZ7" s="426">
         <v>44743</v>
@@ -49730,7 +50127,7 @@
       <c r="B8" s="228" t="s">
         <v>1964</v>
       </c>
-      <c r="C8" s="852"/>
+      <c r="C8" s="859"/>
       <c r="D8" s="229" t="s">
         <v>639</v>
       </c>
@@ -50440,17 +50837,17 @@
         <f>BO13-BO15</f>
         <v>0</v>
       </c>
-      <c r="BS16" s="854" t="s">
+      <c r="BS16" s="852" t="s">
         <v>742</v>
       </c>
-      <c r="BT16" s="854"/>
-      <c r="BU16" s="854"/>
-      <c r="BV16" s="854"/>
-      <c r="BW16" s="854"/>
-      <c r="BX16" s="854"/>
-      <c r="BY16" s="854"/>
-      <c r="BZ16" s="854"/>
-      <c r="CA16" s="854"/>
+      <c r="BT16" s="852"/>
+      <c r="BU16" s="852"/>
+      <c r="BV16" s="852"/>
+      <c r="BW16" s="852"/>
+      <c r="BX16" s="852"/>
+      <c r="BY16" s="852"/>
+      <c r="BZ16" s="852"/>
+      <c r="CA16" s="852"/>
     </row>
     <row r="17" spans="2:79" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="230" t="s">
@@ -50534,15 +50931,15 @@
       <c r="BM17" s="452"/>
       <c r="BN17" s="452"/>
       <c r="BO17" s="445"/>
-      <c r="BS17" s="854"/>
-      <c r="BT17" s="854"/>
-      <c r="BU17" s="854"/>
-      <c r="BV17" s="854"/>
-      <c r="BW17" s="854"/>
-      <c r="BX17" s="854"/>
-      <c r="BY17" s="854"/>
-      <c r="BZ17" s="854"/>
-      <c r="CA17" s="854"/>
+      <c r="BS17" s="852"/>
+      <c r="BT17" s="852"/>
+      <c r="BU17" s="852"/>
+      <c r="BV17" s="852"/>
+      <c r="BW17" s="852"/>
+      <c r="BX17" s="852"/>
+      <c r="BY17" s="852"/>
+      <c r="BZ17" s="852"/>
+      <c r="CA17" s="852"/>
     </row>
     <row r="18" spans="2:79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="230" t="s">
@@ -50597,15 +50994,15 @@
       </c>
       <c r="BC18" s="440"/>
       <c r="BD18" s="437"/>
-      <c r="BS18" s="854"/>
-      <c r="BT18" s="854"/>
-      <c r="BU18" s="854"/>
-      <c r="BV18" s="854"/>
-      <c r="BW18" s="854"/>
-      <c r="BX18" s="854"/>
-      <c r="BY18" s="854"/>
-      <c r="BZ18" s="854"/>
-      <c r="CA18" s="854"/>
+      <c r="BS18" s="852"/>
+      <c r="BT18" s="852"/>
+      <c r="BU18" s="852"/>
+      <c r="BV18" s="852"/>
+      <c r="BW18" s="852"/>
+      <c r="BX18" s="852"/>
+      <c r="BY18" s="852"/>
+      <c r="BZ18" s="852"/>
+      <c r="CA18" s="852"/>
     </row>
     <row r="19" spans="2:79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="230" t="s">
@@ -50658,15 +51055,15 @@
       <c r="BB19" s="765"/>
       <c r="BC19" s="441"/>
       <c r="BD19" s="437"/>
-      <c r="BS19" s="854"/>
-      <c r="BT19" s="854"/>
-      <c r="BU19" s="854"/>
-      <c r="BV19" s="854"/>
-      <c r="BW19" s="854"/>
-      <c r="BX19" s="854"/>
-      <c r="BY19" s="854"/>
-      <c r="BZ19" s="854"/>
-      <c r="CA19" s="854"/>
+      <c r="BS19" s="852"/>
+      <c r="BT19" s="852"/>
+      <c r="BU19" s="852"/>
+      <c r="BV19" s="852"/>
+      <c r="BW19" s="852"/>
+      <c r="BX19" s="852"/>
+      <c r="BY19" s="852"/>
+      <c r="BZ19" s="852"/>
+      <c r="CA19" s="852"/>
     </row>
     <row r="20" spans="2:79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="230"/>
@@ -53144,7 +53541,7 @@
         <f>B6</f>
         <v>Hawkins plc</v>
       </c>
-      <c r="C63" s="850" t="s">
+      <c r="C63" s="853" t="s">
         <v>637</v>
       </c>
       <c r="D63" s="229" t="s">
@@ -53198,63 +53595,63 @@
       <c r="B64" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="855"/>
+      <c r="C64" s="854"/>
       <c r="D64" s="225"/>
       <c r="E64" s="225"/>
       <c r="F64" s="225"/>
       <c r="G64" s="280"/>
-      <c r="H64" s="848">
+      <c r="H64" s="850">
         <v>1</v>
       </c>
-      <c r="I64" s="853"/>
-      <c r="J64" s="848">
+      <c r="I64" s="856"/>
+      <c r="J64" s="850">
         <v>2</v>
       </c>
-      <c r="K64" s="849"/>
-      <c r="L64" s="853">
+      <c r="K64" s="851"/>
+      <c r="L64" s="856">
         <v>3</v>
       </c>
-      <c r="M64" s="853"/>
-      <c r="N64" s="848">
+      <c r="M64" s="856"/>
+      <c r="N64" s="850">
         <v>4</v>
       </c>
-      <c r="O64" s="849"/>
-      <c r="P64" s="853">
+      <c r="O64" s="851"/>
+      <c r="P64" s="856">
         <v>5</v>
       </c>
-      <c r="Q64" s="849"/>
-      <c r="R64" s="848">
+      <c r="Q64" s="851"/>
+      <c r="R64" s="850">
         <v>6</v>
       </c>
-      <c r="S64" s="849"/>
-      <c r="T64" s="848">
+      <c r="S64" s="851"/>
+      <c r="T64" s="850">
         <v>7</v>
       </c>
-      <c r="U64" s="849"/>
-      <c r="V64" s="848">
+      <c r="U64" s="851"/>
+      <c r="V64" s="850">
         <v>8</v>
       </c>
-      <c r="W64" s="849"/>
-      <c r="X64" s="859">
+      <c r="W64" s="851"/>
+      <c r="X64" s="861">
         <v>9</v>
       </c>
-      <c r="Y64" s="859"/>
-      <c r="Z64" s="853">
+      <c r="Y64" s="861"/>
+      <c r="Z64" s="856">
         <v>10</v>
       </c>
-      <c r="AA64" s="853"/>
-      <c r="AB64" s="848">
+      <c r="AA64" s="856"/>
+      <c r="AB64" s="850">
         <v>11</v>
       </c>
-      <c r="AC64" s="849"/>
-      <c r="AD64" s="853">
+      <c r="AC64" s="851"/>
+      <c r="AD64" s="856">
         <v>12</v>
       </c>
-      <c r="AE64" s="849"/>
-      <c r="AF64" s="848">
+      <c r="AE64" s="851"/>
+      <c r="AF64" s="850">
         <v>13</v>
       </c>
-      <c r="AG64" s="849"/>
+      <c r="AG64" s="851"/>
       <c r="AH64" s="308"/>
       <c r="AT64" s="265" t="s">
         <v>759</v>
@@ -53274,7 +53671,7 @@
       <c r="B65" s="228" t="s">
         <v>699</v>
       </c>
-      <c r="C65" s="856"/>
+      <c r="C65" s="855"/>
       <c r="D65" s="229" t="s">
         <v>639</v>
       </c>
@@ -57171,6 +57568,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="BS16:CA19"/>
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="H64:I64"/>
@@ -57186,20 +57597,6 @@
     <mergeCell ref="J64:K64"/>
     <mergeCell ref="Z64:AA64"/>
     <mergeCell ref="AF64:AG64"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3C68287C-46D4-44E5-AA63-111239181468}"/>
@@ -57716,86 +58113,86 @@
     </row>
     <row r="32" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="507"/>
-      <c r="B32" s="860" t="s">
+      <c r="B32" s="862" t="s">
         <v>1548</v>
       </c>
-      <c r="C32" s="860"/>
-      <c r="D32" s="860"/>
-      <c r="E32" s="860"/>
-      <c r="F32" s="860"/>
-      <c r="G32" s="860"/>
-      <c r="H32" s="860"/>
-      <c r="I32" s="860"/>
-      <c r="J32" s="860"/>
-      <c r="K32" s="860"/>
+      <c r="C32" s="862"/>
+      <c r="D32" s="862"/>
+      <c r="E32" s="862"/>
+      <c r="F32" s="862"/>
+      <c r="G32" s="862"/>
+      <c r="H32" s="862"/>
+      <c r="I32" s="862"/>
+      <c r="J32" s="862"/>
+      <c r="K32" s="862"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="507"/>
-      <c r="B33" s="860"/>
-      <c r="C33" s="860"/>
-      <c r="D33" s="860"/>
-      <c r="E33" s="860"/>
-      <c r="F33" s="860"/>
-      <c r="G33" s="860"/>
-      <c r="H33" s="860"/>
-      <c r="I33" s="860"/>
-      <c r="J33" s="860"/>
-      <c r="K33" s="860"/>
+      <c r="B33" s="862"/>
+      <c r="C33" s="862"/>
+      <c r="D33" s="862"/>
+      <c r="E33" s="862"/>
+      <c r="F33" s="862"/>
+      <c r="G33" s="862"/>
+      <c r="H33" s="862"/>
+      <c r="I33" s="862"/>
+      <c r="J33" s="862"/>
+      <c r="K33" s="862"/>
     </row>
     <row r="34" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="507"/>
-      <c r="B34" s="860"/>
-      <c r="C34" s="860"/>
-      <c r="D34" s="860"/>
-      <c r="E34" s="860"/>
-      <c r="F34" s="860"/>
-      <c r="G34" s="860"/>
-      <c r="H34" s="860"/>
-      <c r="I34" s="860"/>
-      <c r="J34" s="860"/>
-      <c r="K34" s="860"/>
+      <c r="B34" s="862"/>
+      <c r="C34" s="862"/>
+      <c r="D34" s="862"/>
+      <c r="E34" s="862"/>
+      <c r="F34" s="862"/>
+      <c r="G34" s="862"/>
+      <c r="H34" s="862"/>
+      <c r="I34" s="862"/>
+      <c r="J34" s="862"/>
+      <c r="K34" s="862"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="507"/>
-      <c r="B35" s="860"/>
-      <c r="C35" s="860"/>
-      <c r="D35" s="860"/>
-      <c r="E35" s="860"/>
-      <c r="F35" s="860"/>
-      <c r="G35" s="860"/>
-      <c r="H35" s="860"/>
-      <c r="I35" s="860"/>
-      <c r="J35" s="860"/>
-      <c r="K35" s="860"/>
+      <c r="B35" s="862"/>
+      <c r="C35" s="862"/>
+      <c r="D35" s="862"/>
+      <c r="E35" s="862"/>
+      <c r="F35" s="862"/>
+      <c r="G35" s="862"/>
+      <c r="H35" s="862"/>
+      <c r="I35" s="862"/>
+      <c r="J35" s="862"/>
+      <c r="K35" s="862"/>
       <c r="O35" s="506" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="507"/>
-      <c r="B36" s="860"/>
-      <c r="C36" s="860"/>
-      <c r="D36" s="860"/>
-      <c r="E36" s="860"/>
-      <c r="F36" s="860"/>
-      <c r="G36" s="860"/>
-      <c r="H36" s="860"/>
-      <c r="I36" s="860"/>
-      <c r="J36" s="860"/>
-      <c r="K36" s="860"/>
+      <c r="B36" s="862"/>
+      <c r="C36" s="862"/>
+      <c r="D36" s="862"/>
+      <c r="E36" s="862"/>
+      <c r="F36" s="862"/>
+      <c r="G36" s="862"/>
+      <c r="H36" s="862"/>
+      <c r="I36" s="862"/>
+      <c r="J36" s="862"/>
+      <c r="K36" s="862"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="507"/>
-      <c r="B37" s="860"/>
-      <c r="C37" s="860"/>
-      <c r="D37" s="860"/>
-      <c r="E37" s="860"/>
-      <c r="F37" s="860"/>
-      <c r="G37" s="860"/>
-      <c r="H37" s="860"/>
-      <c r="I37" s="860"/>
-      <c r="J37" s="860"/>
-      <c r="K37" s="860"/>
+      <c r="B37" s="862"/>
+      <c r="C37" s="862"/>
+      <c r="D37" s="862"/>
+      <c r="E37" s="862"/>
+      <c r="F37" s="862"/>
+      <c r="G37" s="862"/>
+      <c r="H37" s="862"/>
+      <c r="I37" s="862"/>
+      <c r="J37" s="862"/>
+      <c r="K37" s="862"/>
       <c r="O37" s="506" t="s">
         <v>998</v>
       </c>
